--- a/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_ido.xlsx
+++ b/disagreement_matrix/engineering_version/rsj_matrix_records/vertebral_ido.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:H241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -394,6968 +394,6245 @@
       <c r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1440585906991501</v>
+        <v>0.1663714031578815</v>
       </c>
       <c r="C2">
-        <v>0.1335763431745016</v>
+        <v>0.1540610375270779</v>
       </c>
       <c r="D2">
-        <v>0.1114085282514253</v>
+        <v>0.1300372192894195</v>
       </c>
       <c r="E2">
-        <v>0.1258896171221811</v>
+        <v>0.1441297194132337</v>
       </c>
       <c r="F2">
-        <v>0.1189316116633072</v>
+        <v>0.1373306175293632</v>
       </c>
       <c r="G2">
-        <v>0.1298995603335144</v>
+        <v>0.1472743522620461</v>
       </c>
       <c r="H2">
-        <v>0.1072116227874657</v>
-      </c>
-      <c r="I2">
-        <v>0.1290241259684545</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>0.120795650820978</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1369676760519692</v>
+        <v>0.1598957123610607</v>
       </c>
       <c r="C3">
-        <v>0.1215170790241463</v>
+        <v>0.137734543000785</v>
       </c>
       <c r="D3">
-        <v>0.1316605280584768</v>
+        <v>0.1481077007508931</v>
       </c>
       <c r="E3">
-        <v>0.1321948577269543</v>
+        <v>0.150543307411577</v>
       </c>
       <c r="F3">
-        <v>0.1209135760578273</v>
+        <v>0.1339910312577591</v>
       </c>
       <c r="G3">
-        <v>0.1219718415412361</v>
+        <v>0.1428984605770144</v>
       </c>
       <c r="H3">
-        <v>0.1114804178655832</v>
-      </c>
-      <c r="I3">
-        <v>0.1232940236738067</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
+        <v>0.1268292446409108</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1424450807613573</v>
+        <v>0.1624759483254683</v>
       </c>
       <c r="C4">
-        <v>0.1180883553053668</v>
+        <v>0.1335302978730334</v>
       </c>
       <c r="D4">
-        <v>0.1206609067476098</v>
+        <v>0.1358370753846989</v>
       </c>
       <c r="E4">
-        <v>0.1157651516574863</v>
+        <v>0.1325361848921896</v>
       </c>
       <c r="F4">
-        <v>0.1280458328014515</v>
+        <v>0.1479750292372736</v>
       </c>
       <c r="G4">
-        <v>0.1382814685416393</v>
+        <v>0.1539016491173803</v>
       </c>
       <c r="H4">
-        <v>0.1179394896878281</v>
-      </c>
-      <c r="I4">
-        <v>0.118773714497261</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>0.1337438151699559</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1411168707602454</v>
+        <v>0.1661120114318325</v>
       </c>
       <c r="C5">
-        <v>0.117285767548536</v>
+        <v>0.1323436739234077</v>
       </c>
       <c r="D5">
-        <v>0.1260423936649875</v>
+        <v>0.1398943277791947</v>
       </c>
       <c r="E5">
-        <v>0.1281195627655732</v>
+        <v>0.1429953269548277</v>
       </c>
       <c r="F5">
-        <v>0.1285271002686732</v>
+        <v>0.1430940903773676</v>
       </c>
       <c r="G5">
-        <v>0.1427732441340416</v>
+        <v>0.158208157846999</v>
       </c>
       <c r="H5">
-        <v>0.1038114017360265</v>
-      </c>
-      <c r="I5">
-        <v>0.1123236591219167</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>0.1173524116863707</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1594629684680574</v>
+        <v>0.1826454064208587</v>
       </c>
       <c r="C6">
-        <v>0.1224004728579099</v>
+        <v>0.1393042283487929</v>
       </c>
       <c r="D6">
-        <v>0.119123552463659</v>
+        <v>0.1380046662645774</v>
       </c>
       <c r="E6">
-        <v>0.1156624599678016</v>
+        <v>0.128594961379849</v>
       </c>
       <c r="F6">
-        <v>0.127248120154581</v>
+        <v>0.1455827996379047</v>
       </c>
       <c r="G6">
-        <v>0.1450881047583588</v>
+        <v>0.1656138458898625</v>
       </c>
       <c r="H6">
-        <v>0.09177337185055615</v>
-      </c>
-      <c r="I6">
-        <v>0.1192409494790761</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>0.1002540920581548</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.116031794381022</v>
+        <v>0.1312729883998724</v>
       </c>
       <c r="C7">
-        <v>0.1247155452483915</v>
+        <v>0.1459121928165996</v>
       </c>
       <c r="D7">
-        <v>0.1258126877221257</v>
+        <v>0.1449533493094581</v>
       </c>
       <c r="E7">
-        <v>0.1249698433388268</v>
+        <v>0.1454460618305829</v>
       </c>
       <c r="F7">
-        <v>0.1309230014012149</v>
+        <v>0.1503528950253777</v>
       </c>
       <c r="G7">
-        <v>0.1167299228059173</v>
+        <v>0.1326375618206291</v>
       </c>
       <c r="H7">
-        <v>0.1327493996610406</v>
-      </c>
-      <c r="I7">
-        <v>0.1280678054414613</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>0.1494249507974803</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1439668000183155</v>
+        <v>0.1598944207737197</v>
       </c>
       <c r="C8">
-        <v>0.07997148555480398</v>
+        <v>0.08680781025035268</v>
       </c>
       <c r="D8">
-        <v>0.2218236823236345</v>
+        <v>0.2463505565227006</v>
       </c>
       <c r="E8">
-        <v>0.1315563008282897</v>
+        <v>0.1384390733975975</v>
       </c>
       <c r="F8">
-        <v>0.05330993376521642</v>
+        <v>0.06180640937722039</v>
       </c>
       <c r="G8">
-        <v>0.1862193445190179</v>
+        <v>0.2257302909223933</v>
       </c>
       <c r="H8">
-        <v>0.07380712051650182</v>
-      </c>
-      <c r="I8">
-        <v>0.1093453324742202</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>0.08097143875601602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1773734054867797</v>
+        <v>0.1996808559271808</v>
       </c>
       <c r="C9">
-        <v>0.1120518414362024</v>
+        <v>0.1261228193779963</v>
       </c>
       <c r="D9">
-        <v>0.1211170071782638</v>
+        <v>0.1370689425895209</v>
       </c>
       <c r="E9">
-        <v>0.1349177253452186</v>
+        <v>0.1537969423293924</v>
       </c>
       <c r="F9">
-        <v>0.1149661247741153</v>
+        <v>0.1325398741174741</v>
       </c>
       <c r="G9">
-        <v>0.1222267410360831</v>
+        <v>0.1390696422663626</v>
       </c>
       <c r="H9">
-        <v>0.09908879838192149</v>
-      </c>
-      <c r="I9">
-        <v>0.1182583563614155</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>0.111720923392073</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2099922537874846</v>
+        <v>0.244785094610586</v>
       </c>
       <c r="C10">
-        <v>0.1035893235754885</v>
+        <v>0.1193753166633717</v>
       </c>
       <c r="D10">
-        <v>0.1193384192027929</v>
+        <v>0.1418641192678168</v>
       </c>
       <c r="E10">
-        <v>0.1108844151769541</v>
+        <v>0.1180607244728515</v>
       </c>
       <c r="F10">
-        <v>0.08899375816269915</v>
+        <v>0.09896924693152187</v>
       </c>
       <c r="G10">
-        <v>0.1585825968276347</v>
+        <v>0.1807132569267954</v>
       </c>
       <c r="H10">
-        <v>0.08442279993302487</v>
-      </c>
-      <c r="I10">
-        <v>0.124196433333921</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
+        <v>0.09623224112705672</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.07810459211195994</v>
+        <v>0.08655428621423132</v>
       </c>
       <c r="C11">
-        <v>0.08632914965730562</v>
+        <v>0.09399547744939325</v>
       </c>
       <c r="D11">
-        <v>0.1304712331545055</v>
+        <v>0.1336294918776738</v>
       </c>
       <c r="E11">
-        <v>0.1073784899652967</v>
+        <v>0.1150326909173532</v>
       </c>
       <c r="F11">
-        <v>0.3303330585122884</v>
+        <v>0.3506031984659521</v>
       </c>
       <c r="G11">
-        <v>0.07129738776198578</v>
+        <v>0.07777686157073306</v>
       </c>
       <c r="H11">
-        <v>0.1274540189047546</v>
-      </c>
-      <c r="I11">
-        <v>0.06863206993190334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+        <v>0.1424079935046631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.191178592256447</v>
+        <v>0.216107686621339</v>
       </c>
       <c r="C12">
-        <v>0.114449139317205</v>
+        <v>0.1279880284841857</v>
       </c>
       <c r="D12">
-        <v>0.1239366737806916</v>
+        <v>0.141194674979321</v>
       </c>
       <c r="E12">
-        <v>0.1160684881686771</v>
+        <v>0.1320226276193017</v>
       </c>
       <c r="F12">
-        <v>0.1147204372558637</v>
+        <v>0.124343300171228</v>
       </c>
       <c r="G12">
-        <v>0.1289844272183494</v>
+        <v>0.1449177913725654</v>
       </c>
       <c r="H12">
-        <v>0.1043505693467781</v>
-      </c>
-      <c r="I12">
-        <v>0.1063116726559882</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
+        <v>0.1134258907520591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.09340466775905525</v>
+        <v>0.1074378193011952</v>
       </c>
       <c r="C13">
-        <v>0.1392464632496032</v>
+        <v>0.1591885632979704</v>
       </c>
       <c r="D13">
-        <v>0.1116772001516668</v>
+        <v>0.130874672006023</v>
       </c>
       <c r="E13">
-        <v>0.1123903903141317</v>
+        <v>0.1302671255992031</v>
       </c>
       <c r="F13">
-        <v>0.1819208529427577</v>
+        <v>0.2032792769931429</v>
       </c>
       <c r="G13">
-        <v>0.1067094143654374</v>
+        <v>0.1201877991576726</v>
       </c>
       <c r="H13">
-        <v>0.1299140622858049</v>
-      </c>
-      <c r="I13">
-        <v>0.1247369489315429</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
+        <v>0.1487647436447928</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.1722235875857725</v>
+        <v>0.1924180271269094</v>
       </c>
       <c r="C14">
-        <v>0.0933872307055838</v>
+        <v>0.1020294899965932</v>
       </c>
       <c r="D14">
-        <v>0.1296878601990303</v>
+        <v>0.1470626538129712</v>
       </c>
       <c r="E14">
-        <v>0.1196228413359655</v>
+        <v>0.1319940677236388</v>
       </c>
       <c r="F14">
-        <v>0.08151077444243174</v>
+        <v>0.09142577366294505</v>
       </c>
       <c r="G14">
-        <v>0.1807680754917912</v>
+        <v>0.2117440038892922</v>
       </c>
       <c r="H14">
-        <v>0.1017720826895998</v>
-      </c>
-      <c r="I14">
-        <v>0.1210275475498252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>0.12332598378765</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.1579557092553443</v>
+        <v>0.1703263297218575</v>
       </c>
       <c r="C15">
-        <v>0.0951023087511596</v>
+        <v>0.1074745487325132</v>
       </c>
       <c r="D15">
-        <v>0.1449319793503548</v>
+        <v>0.1687138509081516</v>
       </c>
       <c r="E15">
-        <v>0.1379537657440694</v>
+        <v>0.1589151881563327</v>
       </c>
       <c r="F15">
-        <v>0.09041653870625477</v>
+        <v>0.09919424933316234</v>
       </c>
       <c r="G15">
-        <v>0.1752996724311887</v>
+        <v>0.1950780325346818</v>
       </c>
       <c r="H15">
-        <v>0.08451824583252893</v>
-      </c>
-      <c r="I15">
-        <v>0.1138217799290996</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>0.1002978006133009</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.176289612548426</v>
+        <v>0.1984013413922326</v>
       </c>
       <c r="C16">
-        <v>0.1052183085881681</v>
+        <v>0.1172547238266783</v>
       </c>
       <c r="D16">
-        <v>0.1369067221584493</v>
+        <v>0.1556760433074994</v>
       </c>
       <c r="E16">
-        <v>0.1245520165095275</v>
+        <v>0.1397200602113837</v>
       </c>
       <c r="F16">
-        <v>0.1023906938154703</v>
+        <v>0.1154031483858189</v>
       </c>
       <c r="G16">
-        <v>0.150423890171962</v>
+        <v>0.1703878519383735</v>
       </c>
       <c r="H16">
-        <v>0.09360166459627876</v>
-      </c>
-      <c r="I16">
-        <v>0.1106170916117179</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>0.1031568309380137</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.1722846409234627</v>
+        <v>0.1998604054534527</v>
       </c>
       <c r="C17">
-        <v>0.09632366483752211</v>
+        <v>0.1098271918643635</v>
       </c>
       <c r="D17">
-        <v>0.1436444518091487</v>
+        <v>0.1642747415070838</v>
       </c>
       <c r="E17">
-        <v>0.1263852168804459</v>
+        <v>0.145306633692507</v>
       </c>
       <c r="F17">
-        <v>0.06880211202393617</v>
+        <v>0.07876202350226993</v>
       </c>
       <c r="G17">
-        <v>0.1624065116494268</v>
+        <v>0.1867237680961054</v>
       </c>
       <c r="H17">
-        <v>0.09932666517863728</v>
-      </c>
-      <c r="I17">
-        <v>0.1308267366974205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>0.1152452358842176</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.1508337631206031</v>
+        <v>0.1692908056157055</v>
       </c>
       <c r="C18">
-        <v>0.1011619449113082</v>
+        <v>0.1182840698504944</v>
       </c>
       <c r="D18">
-        <v>0.130208503817295</v>
+        <v>0.1492893136859131</v>
       </c>
       <c r="E18">
-        <v>0.1248200820751166</v>
+        <v>0.142322349802819</v>
       </c>
       <c r="F18">
-        <v>0.09901732976999654</v>
+        <v>0.1108485523510219</v>
       </c>
       <c r="G18">
-        <v>0.1592554565838806</v>
+        <v>0.1803908462113859</v>
       </c>
       <c r="H18">
-        <v>0.1146594865327922</v>
-      </c>
-      <c r="I18">
-        <v>0.1200434331890077</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>0.1295740624826601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.102279497752298</v>
+        <v>0.1142641638585318</v>
       </c>
       <c r="C19">
-        <v>0.1277610464523599</v>
+        <v>0.1383504618862085</v>
       </c>
       <c r="D19">
-        <v>0.1256022090814398</v>
+        <v>0.1439437230800591</v>
       </c>
       <c r="E19">
-        <v>0.1212250833220414</v>
+        <v>0.1386379198584672</v>
       </c>
       <c r="F19">
-        <v>0.1592579212651014</v>
+        <v>0.1764811809110644</v>
       </c>
       <c r="G19">
-        <v>0.1084167178636149</v>
+        <v>0.1196887998799335</v>
       </c>
       <c r="H19">
-        <v>0.1478102560902085</v>
-      </c>
-      <c r="I19">
-        <v>0.1076472681729361</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>0.1686337505257353</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.1612871719090449</v>
+        <v>0.1769550671570105</v>
       </c>
       <c r="C20">
-        <v>0.1042640947901707</v>
+        <v>0.1187346173977374</v>
       </c>
       <c r="D20">
-        <v>0.1429692699153568</v>
+        <v>0.1612657033559994</v>
       </c>
       <c r="E20">
-        <v>0.13391221979694</v>
+        <v>0.1512762125192142</v>
       </c>
       <c r="F20">
-        <v>0.1093496826827563</v>
+        <v>0.1241057935873515</v>
       </c>
       <c r="G20">
-        <v>0.1300605039402602</v>
+        <v>0.1493058859651982</v>
       </c>
       <c r="H20">
-        <v>0.1054469618341672</v>
-      </c>
-      <c r="I20">
-        <v>0.112710095131304</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>0.118356720017489</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.1553441934326869</v>
+        <v>0.1781126134186473</v>
       </c>
       <c r="C21">
-        <v>0.1023189292436547</v>
+        <v>0.1145234589665709</v>
       </c>
       <c r="D21">
-        <v>0.1467482989438603</v>
+        <v>0.1696323717134541</v>
       </c>
       <c r="E21">
-        <v>0.1276046805659104</v>
+        <v>0.1488341299924384</v>
       </c>
       <c r="F21">
-        <v>0.1048463351160804</v>
+        <v>0.1198041501181452</v>
       </c>
       <c r="G21">
-        <v>0.1442104556250603</v>
+        <v>0.1609372030154083</v>
       </c>
       <c r="H21">
-        <v>0.09608825393574723</v>
-      </c>
-      <c r="I21">
-        <v>0.1228388531369998</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>0.1081560727753358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.1544813602143716</v>
+        <v>0.177172410669014</v>
       </c>
       <c r="C22">
-        <v>0.1180229436586571</v>
+        <v>0.1347854977606485</v>
       </c>
       <c r="D22">
-        <v>0.1214195502953051</v>
+        <v>0.1380972643716275</v>
       </c>
       <c r="E22">
-        <v>0.1213885482976194</v>
+        <v>0.1349572737922055</v>
       </c>
       <c r="F22">
-        <v>0.1259545952361688</v>
+        <v>0.1382617041226832</v>
       </c>
       <c r="G22">
-        <v>0.1338975439321452</v>
+        <v>0.1537277964916015</v>
       </c>
       <c r="H22">
-        <v>0.1081845851908905</v>
-      </c>
-      <c r="I22">
-        <v>0.1166508731748424</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>0.1229980527922201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.1677445848254014</v>
+        <v>0.1985434352349649</v>
       </c>
       <c r="C23">
-        <v>0.104648498968643</v>
+        <v>0.111363587104678</v>
       </c>
       <c r="D23">
-        <v>0.1641680739892409</v>
+        <v>0.1825884146511545</v>
       </c>
       <c r="E23">
-        <v>0.1333862039881061</v>
+        <v>0.1396228784658967</v>
       </c>
       <c r="F23">
-        <v>0.07554058768318966</v>
+        <v>0.09354605254568824</v>
       </c>
       <c r="G23">
-        <v>0.1628254649175305</v>
+        <v>0.1883151587841954</v>
       </c>
       <c r="H23">
-        <v>0.08159186216255271</v>
-      </c>
-      <c r="I23">
-        <v>0.1100947234653356</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>0.08602047321342232</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.152943913793136</v>
+        <v>0.177342102674988</v>
       </c>
       <c r="C24">
-        <v>0.1103316435332154</v>
+        <v>0.1250965368009032</v>
       </c>
       <c r="D24">
-        <v>0.1298854912452998</v>
+        <v>0.1463531116742117</v>
       </c>
       <c r="E24">
-        <v>0.1259259459215519</v>
+        <v>0.1428384522914457</v>
       </c>
       <c r="F24">
-        <v>0.115297423866331</v>
+        <v>0.1288349131664607</v>
       </c>
       <c r="G24">
-        <v>0.1564897536721601</v>
+        <v>0.1738795911972284</v>
       </c>
       <c r="H24">
-        <v>0.09353776766301775</v>
-      </c>
-      <c r="I24">
-        <v>0.115588060305288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>0.1056552921947621</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.1626760162617958</v>
+        <v>0.1925500848720962</v>
       </c>
       <c r="C25">
-        <v>0.1004148844584727</v>
+        <v>0.1174008428168282</v>
       </c>
       <c r="D25">
-        <v>0.1370081920620567</v>
+        <v>0.1540932279244754</v>
       </c>
       <c r="E25">
-        <v>0.1282108132941035</v>
+        <v>0.1425284965465664</v>
       </c>
       <c r="F25">
-        <v>0.09882740686398794</v>
+        <v>0.1119995146905155</v>
       </c>
       <c r="G25">
-        <v>0.1499378269395335</v>
+        <v>0.1707807922423155</v>
       </c>
       <c r="H25">
-        <v>0.09772951279241293</v>
-      </c>
-      <c r="I25">
-        <v>0.1251953473276369</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>0.1106470409072029</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1">
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.104257780005264</v>
+        <v>0.1223139115815814</v>
       </c>
       <c r="C26">
-        <v>0.1199317795004199</v>
+        <v>0.140476895276985</v>
       </c>
       <c r="D26">
-        <v>0.1188743838046083</v>
+        <v>0.136925777197693</v>
       </c>
       <c r="E26">
-        <v>0.1217443681493122</v>
+        <v>0.1403109571884993</v>
       </c>
       <c r="F26">
-        <v>0.143833992225286</v>
+        <v>0.1681407212846863</v>
       </c>
       <c r="G26">
-        <v>0.09663434885009176</v>
+        <v>0.113784192213814</v>
       </c>
       <c r="H26">
-        <v>0.1574959095463358</v>
-      </c>
-      <c r="I26">
-        <v>0.137227437918682</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>0.1780475452567412</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1">
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.1703752049175957</v>
+        <v>0.1893846968453328</v>
       </c>
       <c r="C27">
-        <v>0.1188067509482537</v>
+        <v>0.1323150842053224</v>
       </c>
       <c r="D27">
-        <v>0.1301233843307871</v>
+        <v>0.1448094508984995</v>
       </c>
       <c r="E27">
-        <v>0.1228955603326645</v>
+        <v>0.1372629191413496</v>
       </c>
       <c r="F27">
-        <v>0.09864784775513522</v>
+        <v>0.1107152729120708</v>
       </c>
       <c r="G27">
-        <v>0.1462078201513985</v>
+        <v>0.1650323149893258</v>
       </c>
       <c r="H27">
-        <v>0.1094123015792283</v>
-      </c>
-      <c r="I27">
-        <v>0.103531129984937</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>0.1204802610080991</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1">
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.08558510512548308</v>
+        <v>0.09401972417689679</v>
       </c>
       <c r="C28">
-        <v>0.09222364077904242</v>
+        <v>0.1021808426524772</v>
       </c>
       <c r="D28">
-        <v>0.1267030323780565</v>
+        <v>0.1367254606551412</v>
       </c>
       <c r="E28">
-        <v>0.09828779835407446</v>
+        <v>0.1081182506944935</v>
       </c>
       <c r="F28">
-        <v>0.2914657443084803</v>
+        <v>0.3164598052712577</v>
       </c>
       <c r="G28">
-        <v>0.09917792567945216</v>
+        <v>0.1091872991692914</v>
       </c>
       <c r="H28">
-        <v>0.119676195870458</v>
-      </c>
-      <c r="I28">
-        <v>0.08688055750495323</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>0.1333086173804422</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1">
         <v>27</v>
       </c>
       <c r="B29">
-        <v>0.1790995995150463</v>
+        <v>0.198363548546638</v>
       </c>
       <c r="C29">
-        <v>0.1099730040902613</v>
+        <v>0.1262153065649504</v>
       </c>
       <c r="D29">
-        <v>0.1191375237165207</v>
+        <v>0.1336599389198435</v>
       </c>
       <c r="E29">
-        <v>0.1252553239873634</v>
+        <v>0.1413843802477023</v>
       </c>
       <c r="F29">
-        <v>0.1221161779116284</v>
+        <v>0.1338082723638771</v>
       </c>
       <c r="G29">
-        <v>0.1437919355084316</v>
+        <v>0.1590632488952904</v>
       </c>
       <c r="H29">
-        <v>0.09446956852906853</v>
-      </c>
-      <c r="I29">
-        <v>0.1061568667416797</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>0.1075053044616984</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1">
         <v>28</v>
       </c>
       <c r="B30">
-        <v>0.1197836816641925</v>
+        <v>0.1373345036960125</v>
       </c>
       <c r="C30">
-        <v>0.1298558679899506</v>
+        <v>0.1461065349277494</v>
       </c>
       <c r="D30">
-        <v>0.1206243089703293</v>
+        <v>0.1375916557423622</v>
       </c>
       <c r="E30">
-        <v>0.1219205910564196</v>
+        <v>0.1396261340316374</v>
       </c>
       <c r="F30">
-        <v>0.1336717656573958</v>
+        <v>0.154196929272668</v>
       </c>
       <c r="G30">
-        <v>0.1239813493318366</v>
+        <v>0.1412884908991809</v>
       </c>
       <c r="H30">
-        <v>0.1244122033281167</v>
-      </c>
-      <c r="I30">
-        <v>0.1257502320017587</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>0.1438557514303896</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1">
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.1589080552565437</v>
+        <v>0.1852109524039307</v>
       </c>
       <c r="C31">
-        <v>0.09680022303424245</v>
+        <v>0.106965870746616</v>
       </c>
       <c r="D31">
-        <v>0.1322518448220866</v>
+        <v>0.1478919253857738</v>
       </c>
       <c r="E31">
-        <v>0.1305236374717213</v>
+        <v>0.1459789874518424</v>
       </c>
       <c r="F31">
-        <v>0.1213691828882642</v>
+        <v>0.1380326970663657</v>
       </c>
       <c r="G31">
-        <v>0.1578588262241803</v>
+        <v>0.1736871504226307</v>
       </c>
       <c r="H31">
-        <v>0.09175448477216387</v>
-      </c>
-      <c r="I31">
-        <v>0.1105337455307977</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>0.1022324165228406</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1">
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.1566317324667731</v>
+        <v>0.1756109274551327</v>
       </c>
       <c r="C32">
-        <v>0.09950133812877542</v>
+        <v>0.10991479378939</v>
       </c>
       <c r="D32">
-        <v>0.1699954497374727</v>
+        <v>0.1994708231058039</v>
       </c>
       <c r="E32">
-        <v>0.1161128885257779</v>
+        <v>0.1340919515579231</v>
       </c>
       <c r="F32">
-        <v>0.07893255678916566</v>
+        <v>0.08893876432102867</v>
       </c>
       <c r="G32">
-        <v>0.1687247942497927</v>
+        <v>0.1904556076062862</v>
       </c>
       <c r="H32">
-        <v>0.09054029666937442</v>
-      </c>
-      <c r="I32">
-        <v>0.119560943432868</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>0.1015171321644355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1">
         <v>31</v>
       </c>
       <c r="B33">
-        <v>0.133701624953149</v>
+        <v>0.1506924183363178</v>
       </c>
       <c r="C33">
-        <v>0.1231794840871395</v>
+        <v>0.1381925468770996</v>
       </c>
       <c r="D33">
-        <v>0.1326620377076286</v>
+        <v>0.1508470407123329</v>
       </c>
       <c r="E33">
-        <v>0.1286774007137527</v>
+        <v>0.1450026673409995</v>
       </c>
       <c r="F33">
-        <v>0.1290415547174435</v>
+        <v>0.1483415412688728</v>
       </c>
       <c r="G33">
-        <v>0.1286911683863205</v>
+        <v>0.1476437344273783</v>
       </c>
       <c r="H33">
-        <v>0.1065589531912771</v>
-      </c>
-      <c r="I33">
-        <v>0.1174877762432892</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>0.119280051036999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1">
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.1793657392304615</v>
+        <v>0.1991534963373009</v>
       </c>
       <c r="C34">
-        <v>0.1035873247300324</v>
+        <v>0.1186006805946233</v>
       </c>
       <c r="D34">
-        <v>0.1277910501104378</v>
+        <v>0.1456650297946044</v>
       </c>
       <c r="E34">
-        <v>0.1446750289084952</v>
+        <v>0.1648489229092577</v>
       </c>
       <c r="F34">
-        <v>0.0895723847092371</v>
+        <v>0.1024199569293049</v>
       </c>
       <c r="G34">
-        <v>0.1456365935406753</v>
+        <v>0.162175374061009</v>
       </c>
       <c r="H34">
-        <v>0.09569146848113648</v>
-      </c>
-      <c r="I34">
-        <v>0.1136804102895241</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>0.1071365393738997</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1">
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.1798563867558713</v>
+        <v>0.1988633882650583</v>
       </c>
       <c r="C35">
-        <v>0.09911770671589007</v>
+        <v>0.1134148195834842</v>
       </c>
       <c r="D35">
-        <v>0.1366177201333856</v>
+        <v>0.1527488972205264</v>
       </c>
       <c r="E35">
-        <v>0.1420410483053661</v>
+        <v>0.1575355934660595</v>
       </c>
       <c r="F35">
-        <v>0.09850097620800602</v>
+        <v>0.1097466314949215</v>
       </c>
       <c r="G35">
-        <v>0.1349162921354828</v>
+        <v>0.1545395692402181</v>
       </c>
       <c r="H35">
-        <v>0.1020402007650633</v>
-      </c>
-      <c r="I35">
-        <v>0.1069096689809348</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>0.113151100729732</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1">
         <v>34</v>
       </c>
       <c r="B36">
-        <v>0.1383970505829048</v>
+        <v>0.1610092101447202</v>
       </c>
       <c r="C36">
-        <v>0.1241446066538255</v>
+        <v>0.1417055675700766</v>
       </c>
       <c r="D36">
-        <v>0.1214540966432089</v>
+        <v>0.1381642881323084</v>
       </c>
       <c r="E36">
-        <v>0.1112367427592154</v>
+        <v>0.1234291079111932</v>
       </c>
       <c r="F36">
-        <v>0.1328713878750057</v>
+        <v>0.1520731684149828</v>
       </c>
       <c r="G36">
-        <v>0.1368797321323747</v>
+        <v>0.1562632579233827</v>
       </c>
       <c r="H36">
-        <v>0.1125919832510143</v>
-      </c>
-      <c r="I36">
-        <v>0.1224244001024506</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>0.1273553999033362</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1">
         <v>35</v>
       </c>
       <c r="B37">
-        <v>0.1032596065347095</v>
+        <v>0.1162948353991252</v>
       </c>
       <c r="C37">
-        <v>0.1237388759584035</v>
+        <v>0.142679785569214</v>
       </c>
       <c r="D37">
-        <v>0.1222711084944464</v>
+        <v>0.1416574827177023</v>
       </c>
       <c r="E37">
-        <v>0.1279368078240252</v>
+        <v>0.1488842227097577</v>
       </c>
       <c r="F37">
-        <v>0.1397331648282655</v>
+        <v>0.1622454068412242</v>
       </c>
       <c r="G37">
-        <v>0.1007963590635893</v>
+        <v>0.115327748182538</v>
       </c>
       <c r="H37">
-        <v>0.1497210556716181</v>
-      </c>
-      <c r="I37">
-        <v>0.1325430216249424</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>0.1729105185804384</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1">
         <v>36</v>
       </c>
       <c r="B38">
-        <v>0.1016117742869489</v>
+        <v>0.1151374411355587</v>
       </c>
       <c r="C38">
-        <v>0.1311978855575459</v>
+        <v>0.1511376733542355</v>
       </c>
       <c r="D38">
-        <v>0.1229066506201886</v>
+        <v>0.1429277642787352</v>
       </c>
       <c r="E38">
-        <v>0.1252244568215834</v>
+        <v>0.1463813026761598</v>
       </c>
       <c r="F38">
-        <v>0.1316651395448463</v>
+        <v>0.1518093040427682</v>
       </c>
       <c r="G38">
-        <v>0.09526173260405267</v>
+        <v>0.1101278445904304</v>
       </c>
       <c r="H38">
-        <v>0.1597289346936444</v>
-      </c>
-      <c r="I38">
-        <v>0.1324034258711898</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>0.1824786699221124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1">
         <v>37</v>
       </c>
       <c r="B39">
-        <v>0.101292693365368</v>
+        <v>0.1157687342794859</v>
       </c>
       <c r="C39">
-        <v>0.1240362036966311</v>
+        <v>0.1418858588468452</v>
       </c>
       <c r="D39">
-        <v>0.1300859525644458</v>
+        <v>0.146305963799955</v>
       </c>
       <c r="E39">
-        <v>0.1154202934873269</v>
+        <v>0.1307026119687906</v>
       </c>
       <c r="F39">
-        <v>0.171549371583754</v>
+        <v>0.1949452928989175</v>
       </c>
       <c r="G39">
-        <v>0.1100274440022423</v>
+        <v>0.1235562836569108</v>
       </c>
       <c r="H39">
-        <v>0.130048475464235</v>
-      </c>
-      <c r="I39">
-        <v>0.1175395658359969</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>0.146835254549095</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1">
         <v>38</v>
       </c>
       <c r="B40">
-        <v>0.1637974342586817</v>
+        <v>0.1868832716956299</v>
       </c>
       <c r="C40">
-        <v>0.1203870709753482</v>
+        <v>0.1334962068944311</v>
       </c>
       <c r="D40">
-        <v>0.1154741727475971</v>
+        <v>0.1298634138818218</v>
       </c>
       <c r="E40">
-        <v>0.1193575547663532</v>
+        <v>0.1337769165046175</v>
       </c>
       <c r="F40">
-        <v>0.1259051316548817</v>
+        <v>0.1418384302749175</v>
       </c>
       <c r="G40">
-        <v>0.1407963543180789</v>
+        <v>0.1601913319325231</v>
       </c>
       <c r="H40">
-        <v>0.1027334021413244</v>
-      </c>
-      <c r="I40">
-        <v>0.1115488791377348</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>0.1139504288160588</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1">
         <v>39</v>
       </c>
       <c r="B41">
-        <v>0.1632015718336634</v>
+        <v>0.1809314105208509</v>
       </c>
       <c r="C41">
-        <v>0.08870820197226414</v>
+        <v>0.1004565629828785</v>
       </c>
       <c r="D41">
-        <v>0.1829696298370368</v>
+        <v>0.1985326083191412</v>
       </c>
       <c r="E41">
-        <v>0.1488411288034681</v>
+        <v>0.1636788613864079</v>
       </c>
       <c r="F41">
-        <v>0.05935231476666487</v>
+        <v>0.06653356779631904</v>
       </c>
       <c r="G41">
-        <v>0.1782424279310481</v>
+        <v>0.2004339121054987</v>
       </c>
       <c r="H41">
-        <v>0.08120550900392637</v>
-      </c>
-      <c r="I41">
-        <v>0.09747921585192822</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>0.0894330768889038</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1">
         <v>40</v>
       </c>
       <c r="B42">
-        <v>0.09598273622422608</v>
+        <v>0.1101007531804922</v>
       </c>
       <c r="C42">
-        <v>0.1465973430034185</v>
+        <v>0.1650315772075426</v>
       </c>
       <c r="D42">
-        <v>0.1054941038240422</v>
+        <v>0.1230378805544472</v>
       </c>
       <c r="E42">
-        <v>0.1145094543184492</v>
+        <v>0.1333441807131073</v>
       </c>
       <c r="F42">
-        <v>0.1589972377588335</v>
+        <v>0.1822035041306667</v>
       </c>
       <c r="G42">
-        <v>0.09458691588977913</v>
+        <v>0.1075890546621234</v>
       </c>
       <c r="H42">
-        <v>0.1540579670043158</v>
-      </c>
-      <c r="I42">
-        <v>0.1297742419769355</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>0.1786930495516208</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1">
         <v>41</v>
       </c>
       <c r="B43">
-        <v>0.1896642884639616</v>
+        <v>0.2121455590283153</v>
       </c>
       <c r="C43">
-        <v>0.117490418938616</v>
+        <v>0.1308511488558434</v>
       </c>
       <c r="D43">
-        <v>0.1267895542107625</v>
+        <v>0.1444664504159776</v>
       </c>
       <c r="E43">
-        <v>0.1245686905051895</v>
+        <v>0.1401119685917438</v>
       </c>
       <c r="F43">
-        <v>0.09358054612748974</v>
+        <v>0.1057694662869075</v>
       </c>
       <c r="G43">
-        <v>0.156638960531598</v>
+        <v>0.1717581628254393</v>
       </c>
       <c r="H43">
-        <v>0.08406277032545494</v>
-      </c>
-      <c r="I43">
-        <v>0.1072047708969277</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>0.0948972439957734</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1">
         <v>42</v>
       </c>
       <c r="B44">
-        <v>0.1503496993182672</v>
+        <v>0.170327430923646</v>
       </c>
       <c r="C44">
-        <v>0.08537936643482802</v>
+        <v>0.09668521262197645</v>
       </c>
       <c r="D44">
-        <v>0.1945891872892151</v>
+        <v>0.2128766837289329</v>
       </c>
       <c r="E44">
-        <v>0.1456024839242546</v>
+        <v>0.1615368292113075</v>
       </c>
       <c r="F44">
-        <v>0.06210615242066996</v>
+        <v>0.07051775861958874</v>
       </c>
       <c r="G44">
-        <v>0.1692613668816713</v>
+        <v>0.1853772976088922</v>
       </c>
       <c r="H44">
-        <v>0.09426208351936136</v>
-      </c>
-      <c r="I44">
-        <v>0.09844966021173246</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>0.1026787872856562</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1">
         <v>43</v>
       </c>
       <c r="B45">
-        <v>0.1700185432193964</v>
+        <v>0.1909243262255939</v>
       </c>
       <c r="C45">
-        <v>0.104109708989685</v>
+        <v>0.1176935144939916</v>
       </c>
       <c r="D45">
-        <v>0.1311247914302784</v>
+        <v>0.1484928731504704</v>
       </c>
       <c r="E45">
-        <v>0.1223829110069435</v>
+        <v>0.1368742970550922</v>
       </c>
       <c r="F45">
-        <v>0.1188420425648165</v>
+        <v>0.13368412264879</v>
       </c>
       <c r="G45">
-        <v>0.1444244762339021</v>
+        <v>0.160460158023869</v>
       </c>
       <c r="H45">
-        <v>0.100277061762569</v>
-      </c>
-      <c r="I45">
-        <v>0.1088204647924093</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>0.1118707084021927</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1">
         <v>44</v>
       </c>
       <c r="B46">
-        <v>0.1530304749507941</v>
+        <v>0.1780281938841192</v>
       </c>
       <c r="C46">
-        <v>0.1049700944044929</v>
+        <v>0.1210016419035294</v>
       </c>
       <c r="D46">
-        <v>0.1192722801449605</v>
+        <v>0.1340466291633048</v>
       </c>
       <c r="E46">
-        <v>0.1238844192473894</v>
+        <v>0.1405751094744827</v>
       </c>
       <c r="F46">
-        <v>0.1164944520355339</v>
+        <v>0.1350597532890664</v>
       </c>
       <c r="G46">
-        <v>0.1477465817747109</v>
+        <v>0.1690901376935232</v>
       </c>
       <c r="H46">
-        <v>0.1057119219882914</v>
-      </c>
-      <c r="I46">
-        <v>0.128889775453827</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>0.1221985345919744</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1">
         <v>45</v>
       </c>
       <c r="B47">
-        <v>0.1650956434416904</v>
+        <v>0.1697201297050371</v>
       </c>
       <c r="C47">
-        <v>0.08839477597913778</v>
+        <v>0.1010011290112159</v>
       </c>
       <c r="D47">
-        <v>0.1364077352117652</v>
+        <v>0.1574242291452813</v>
       </c>
       <c r="E47">
-        <v>0.1134656882722335</v>
+        <v>0.1295980935207746</v>
       </c>
       <c r="F47">
-        <v>0.1353037965218715</v>
+        <v>0.1619581741124719</v>
       </c>
       <c r="G47">
-        <v>0.1550376506273711</v>
+        <v>0.1646495874921445</v>
       </c>
       <c r="H47">
-        <v>0.1029938920643091</v>
-      </c>
-      <c r="I47">
-        <v>0.1033008178816215</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>0.1156486570130747</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1">
         <v>46</v>
       </c>
       <c r="B48">
-        <v>0.1996143848234334</v>
+        <v>0.2200317577380693</v>
       </c>
       <c r="C48">
-        <v>0.1044215738967746</v>
+        <v>0.1163501981588984</v>
       </c>
       <c r="D48">
-        <v>0.122541058405704</v>
+        <v>0.1362067009490507</v>
       </c>
       <c r="E48">
-        <v>0.1163679983023535</v>
+        <v>0.1289776973324077</v>
       </c>
       <c r="F48">
-        <v>0.08111582897638969</v>
+        <v>0.09150128314857066</v>
       </c>
       <c r="G48">
-        <v>0.1735014312053984</v>
+        <v>0.1971544326636763</v>
       </c>
       <c r="H48">
-        <v>0.09614813218441101</v>
-      </c>
-      <c r="I48">
-        <v>0.1062895922055354</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>0.1097779300093271</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1">
         <v>47</v>
       </c>
       <c r="B49">
-        <v>0.171931948894096</v>
+        <v>0.1911748273701163</v>
       </c>
       <c r="C49">
-        <v>0.1084741389760386</v>
+        <v>0.1223570333596354</v>
       </c>
       <c r="D49">
-        <v>0.1346985002388912</v>
+        <v>0.1513737942378272</v>
       </c>
       <c r="E49">
-        <v>0.1288751610819882</v>
+        <v>0.1453265789540228</v>
       </c>
       <c r="F49">
-        <v>0.1057467847931199</v>
+        <v>0.1185759744010655</v>
       </c>
       <c r="G49">
-        <v>0.1388864789032382</v>
+        <v>0.1600680815832476</v>
       </c>
       <c r="H49">
-        <v>0.09796141801759842</v>
-      </c>
-      <c r="I49">
-        <v>0.1134255690950296</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>0.1111237100940853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1">
         <v>48</v>
       </c>
       <c r="B50">
-        <v>0.1572414968526512</v>
+        <v>0.1808930227655362</v>
       </c>
       <c r="C50">
-        <v>0.1117770199655398</v>
+        <v>0.1274035674047273</v>
       </c>
       <c r="D50">
-        <v>0.1310207053547709</v>
+        <v>0.1479040452546233</v>
       </c>
       <c r="E50">
-        <v>0.1242269394774773</v>
+        <v>0.1411330127124268</v>
       </c>
       <c r="F50">
-        <v>0.1062307956867922</v>
+        <v>0.1209110975181428</v>
       </c>
       <c r="G50">
-        <v>0.1350369806360766</v>
+        <v>0.1571120196869525</v>
       </c>
       <c r="H50">
-        <v>0.110248364710381</v>
-      </c>
-      <c r="I50">
-        <v>0.1242176973163112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>0.1246432346575909</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1">
         <v>49</v>
       </c>
       <c r="B51">
-        <v>0.1288119976228591</v>
+        <v>0.1478354413262735</v>
       </c>
       <c r="C51">
-        <v>0.1176410217651387</v>
+        <v>0.1377197446110459</v>
       </c>
       <c r="D51">
-        <v>0.1280733444572836</v>
+        <v>0.1465021336902292</v>
       </c>
       <c r="E51">
-        <v>0.1219060097968099</v>
+        <v>0.1393136769409449</v>
       </c>
       <c r="F51">
-        <v>0.1269998556490847</v>
+        <v>0.1443543926660163</v>
       </c>
       <c r="G51">
-        <v>0.1168469460733488</v>
+        <v>0.1342143777517401</v>
       </c>
       <c r="H51">
-        <v>0.1264405396250591</v>
-      </c>
-      <c r="I51">
-        <v>0.1332802850104161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>0.1500602330137503</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1">
         <v>50</v>
       </c>
       <c r="B52">
-        <v>0.1462216972746508</v>
+        <v>0.1642705421921104</v>
       </c>
       <c r="C52">
-        <v>0.0933250453857038</v>
+        <v>0.1069195573644116</v>
       </c>
       <c r="D52">
-        <v>0.2019392650995364</v>
+        <v>0.2205904571096145</v>
       </c>
       <c r="E52">
-        <v>0.1684959843163169</v>
+        <v>0.1837894922057915</v>
       </c>
       <c r="F52">
-        <v>0.05766508380529524</v>
+        <v>0.06407475669279476</v>
       </c>
       <c r="G52">
-        <v>0.1543720710211279</v>
+        <v>0.1705975503663728</v>
       </c>
       <c r="H52">
-        <v>0.07975844029737812</v>
-      </c>
-      <c r="I52">
-        <v>0.09822241279999086</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>0.08975764406890444</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1">
         <v>51</v>
       </c>
       <c r="B53">
-        <v>0.08905719894149645</v>
+        <v>0.0962333862454971</v>
       </c>
       <c r="C53">
-        <v>0.101750949040148</v>
+        <v>0.1146459366158275</v>
       </c>
       <c r="D53">
-        <v>0.1059622110258457</v>
+        <v>0.1173295285239752</v>
       </c>
       <c r="E53">
-        <v>0.1389191695997344</v>
+        <v>0.1511931094885006</v>
       </c>
       <c r="F53">
-        <v>0.2827572214496502</v>
+        <v>0.3140189082692827</v>
       </c>
       <c r="G53">
-        <v>0.07757267206686859</v>
+        <v>0.08271883636786108</v>
       </c>
       <c r="H53">
-        <v>0.1146212837259123</v>
-      </c>
-      <c r="I53">
-        <v>0.08935929415034451</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>0.1238602944890558</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1">
         <v>52</v>
       </c>
       <c r="B54">
-        <v>0.09609829712602419</v>
+        <v>0.1102503786171146</v>
       </c>
       <c r="C54">
-        <v>0.1281791168758241</v>
+        <v>0.1522981263595185</v>
       </c>
       <c r="D54">
-        <v>0.1212304958125899</v>
+        <v>0.1385103151202798</v>
       </c>
       <c r="E54">
-        <v>0.1257981288510443</v>
+        <v>0.1435562297302121</v>
       </c>
       <c r="F54">
-        <v>0.1400039854126142</v>
+        <v>0.1668249642281913</v>
       </c>
       <c r="G54">
-        <v>0.1012963215559838</v>
+        <v>0.1167114869633016</v>
       </c>
       <c r="H54">
-        <v>0.1439912230087001</v>
-      </c>
-      <c r="I54">
-        <v>0.1434024313572194</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>0.1718484989813821</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0.104550189121116</v>
+        <v>0.1237830028933831</v>
       </c>
       <c r="C55">
-        <v>0.1171944914388147</v>
+        <v>0.1384184509571997</v>
       </c>
       <c r="D55">
-        <v>0.113634087571155</v>
+        <v>0.1337349878486641</v>
       </c>
       <c r="E55">
-        <v>0.1215536143239397</v>
+        <v>0.1427123180178532</v>
       </c>
       <c r="F55">
-        <v>0.1400006328312267</v>
+        <v>0.1574696748769476</v>
       </c>
       <c r="G55">
-        <v>0.09301602835784946</v>
+        <v>0.1080490985197936</v>
       </c>
       <c r="H55">
-        <v>0.1637972560560642</v>
-      </c>
-      <c r="I55">
-        <v>0.1462537002998343</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>0.1958324668861588</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1">
         <v>54</v>
       </c>
       <c r="B56">
-        <v>0.1529556480590489</v>
+        <v>0.1732532094013268</v>
       </c>
       <c r="C56">
-        <v>0.1134069633423162</v>
+        <v>0.132079322585477</v>
       </c>
       <c r="D56">
-        <v>0.1280637385466245</v>
+        <v>0.1449876813370953</v>
       </c>
       <c r="E56">
-        <v>0.1252826129537313</v>
+        <v>0.139863617148118</v>
       </c>
       <c r="F56">
-        <v>0.1233328549585003</v>
+        <v>0.1384307203825979</v>
       </c>
       <c r="G56">
-        <v>0.1240890336615676</v>
+        <v>0.1450281489195737</v>
       </c>
       <c r="H56">
-        <v>0.1091171021352283</v>
-      </c>
-      <c r="I56">
-        <v>0.123752046342983</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>0.1263573002258113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1">
         <v>55</v>
       </c>
       <c r="B57">
-        <v>0.1330649771353318</v>
+        <v>0.153240260965029</v>
       </c>
       <c r="C57">
-        <v>0.1236797857053845</v>
+        <v>0.1382148855172257</v>
       </c>
       <c r="D57">
-        <v>0.1296563572614366</v>
+        <v>0.1470887054314672</v>
       </c>
       <c r="E57">
-        <v>0.1284667428611463</v>
+        <v>0.1444551199902169</v>
       </c>
       <c r="F57">
-        <v>0.1313383231259503</v>
+        <v>0.1508826370005943</v>
       </c>
       <c r="G57">
-        <v>0.1345334774930611</v>
+        <v>0.1539933294383947</v>
       </c>
       <c r="H57">
-        <v>0.09761623342270837</v>
-      </c>
-      <c r="I57">
-        <v>0.1216441029949812</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>0.1121250616570721</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>0.1586529821984056</v>
+        <v>0.1830044904591627</v>
       </c>
       <c r="C58">
-        <v>0.1196579335287501</v>
+        <v>0.1331649034514029</v>
       </c>
       <c r="D58">
-        <v>0.1333820108521056</v>
+        <v>0.1489715127342627</v>
       </c>
       <c r="E58">
-        <v>0.1322123825994621</v>
+        <v>0.1474695639674748</v>
       </c>
       <c r="F58">
-        <v>0.1053525217577759</v>
+        <v>0.1189665981323895</v>
       </c>
       <c r="G58">
-        <v>0.137112392386141</v>
+        <v>0.1555294768350729</v>
       </c>
       <c r="H58">
-        <v>0.09914400874001135</v>
-      </c>
-      <c r="I58">
-        <v>0.1144857679373484</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>0.1128934544202346</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1">
         <v>57</v>
       </c>
       <c r="B59">
-        <v>0.1954014460543544</v>
+        <v>0.2240796381664821</v>
       </c>
       <c r="C59">
-        <v>0.08736579083488813</v>
+        <v>0.09567959198122186</v>
       </c>
       <c r="D59">
-        <v>0.1436081493849844</v>
+        <v>0.1542814346296677</v>
       </c>
       <c r="E59">
-        <v>0.1268834986316153</v>
+        <v>0.1378247694246949</v>
       </c>
       <c r="F59">
-        <v>0.06060427084397718</v>
+        <v>0.06601093788824264</v>
       </c>
       <c r="G59">
-        <v>0.1977929234670358</v>
+        <v>0.2249789810685374</v>
       </c>
       <c r="H59">
-        <v>0.08773382714974416</v>
-      </c>
-      <c r="I59">
-        <v>0.1006100936334006</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>0.09714464684115327</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1">
         <v>58</v>
       </c>
       <c r="B60">
-        <v>0.1532733847680375</v>
+        <v>0.1757087891818217</v>
       </c>
       <c r="C60">
-        <v>0.1157060340297898</v>
+        <v>0.132190465083086</v>
       </c>
       <c r="D60">
-        <v>0.1307450808931173</v>
+        <v>0.1469893600969851</v>
       </c>
       <c r="E60">
-        <v>0.1289640463654757</v>
+        <v>0.1446744528016679</v>
       </c>
       <c r="F60">
-        <v>0.1027037738937942</v>
+        <v>0.1159864407669861</v>
       </c>
       <c r="G60">
-        <v>0.1423346542858437</v>
+        <v>0.1653831432989041</v>
       </c>
       <c r="H60">
-        <v>0.1045876202677194</v>
-      </c>
-      <c r="I60">
-        <v>0.1216854054962225</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>0.1190673487705493</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>0.1774939921969588</v>
+        <v>0.1995314840005229</v>
       </c>
       <c r="C61">
-        <v>0.1002049190984288</v>
+        <v>0.1116400358330501</v>
       </c>
       <c r="D61">
-        <v>0.1391770652994983</v>
+        <v>0.1596927282706569</v>
       </c>
       <c r="E61">
-        <v>0.1246844216437978</v>
+        <v>0.1424029508018876</v>
       </c>
       <c r="F61">
-        <v>0.05980324037761444</v>
+        <v>0.06638431220080018</v>
       </c>
       <c r="G61">
-        <v>0.1820680129200823</v>
+        <v>0.2099429576245217</v>
       </c>
       <c r="H61">
-        <v>0.09625804606761494</v>
-      </c>
-      <c r="I61">
-        <v>0.1203103023960045</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>0.1104055312685607</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1">
         <v>60</v>
       </c>
       <c r="B62">
-        <v>0.09528783461992023</v>
+        <v>0.1089946527570277</v>
       </c>
       <c r="C62">
-        <v>0.1369199871369192</v>
+        <v>0.1653925271569473</v>
       </c>
       <c r="D62">
-        <v>0.09297774687164799</v>
+        <v>0.1110338056112</v>
       </c>
       <c r="E62">
-        <v>0.1089566555757584</v>
+        <v>0.128383141855718</v>
       </c>
       <c r="F62">
-        <v>0.1442099247299118</v>
+        <v>0.1726174662237839</v>
       </c>
       <c r="G62">
-        <v>0.0991423243680242</v>
+        <v>0.121521389699669</v>
       </c>
       <c r="H62">
-        <v>0.1629276427475241</v>
-      </c>
-      <c r="I62">
-        <v>0.1595778839502943</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>0.1920570166956541</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0.0681535659691285</v>
+        <v>0.0724247834856651</v>
       </c>
       <c r="C63">
-        <v>0.1457128606466384</v>
+        <v>0.1630215498212854</v>
       </c>
       <c r="D63">
-        <v>0.1397509340597726</v>
+        <v>0.1659234891859179</v>
       </c>
       <c r="E63">
-        <v>0.1276006763952945</v>
+        <v>0.1480191423051143</v>
       </c>
       <c r="F63">
-        <v>0.1966046464670509</v>
+        <v>0.2321867853788204</v>
       </c>
       <c r="G63">
-        <v>0.09715001380359876</v>
+        <v>0.1075469047767065</v>
       </c>
       <c r="H63">
-        <v>0.104841634119576</v>
-      </c>
-      <c r="I63">
-        <v>0.1201856685389403</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>0.1108773450464903</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0.1145630609276881</v>
+        <v>0.1297347468570286</v>
       </c>
       <c r="C64">
-        <v>0.1253218511366279</v>
+        <v>0.1428579753058593</v>
       </c>
       <c r="D64">
-        <v>0.1122968503651037</v>
+        <v>0.1302990556671765</v>
       </c>
       <c r="E64">
-        <v>0.110506984467701</v>
+        <v>0.1290551925945093</v>
       </c>
       <c r="F64">
-        <v>0.1651169938541785</v>
+        <v>0.1938633638429313</v>
       </c>
       <c r="G64">
-        <v>0.1151291506380711</v>
+        <v>0.1318363214832998</v>
       </c>
       <c r="H64">
-        <v>0.1234764082455296</v>
-      </c>
-      <c r="I64">
-        <v>0.1335887003651002</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>0.1423533442491953</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1">
         <v>63</v>
       </c>
       <c r="B65">
-        <v>0.1700705826121633</v>
+        <v>0.1905779723436154</v>
       </c>
       <c r="C65">
-        <v>0.1048202646266057</v>
+        <v>0.1212526924554548</v>
       </c>
       <c r="D65">
-        <v>0.1506110844978198</v>
+        <v>0.1627080744416564</v>
       </c>
       <c r="E65">
-        <v>0.1402629532785861</v>
+        <v>0.1497101658011474</v>
       </c>
       <c r="F65">
-        <v>0.07528905934757212</v>
+        <v>0.08660719987892687</v>
       </c>
       <c r="G65">
-        <v>0.1681182244834892</v>
+        <v>0.1886811967795731</v>
       </c>
       <c r="H65">
-        <v>0.09052563872579089</v>
-      </c>
-      <c r="I65">
-        <v>0.1003021924279728</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>0.1004626982996259</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1">
         <v>64</v>
       </c>
       <c r="B66">
-        <v>0.1089464266486107</v>
+        <v>0.122426845289599</v>
       </c>
       <c r="C66">
-        <v>0.1319645815306298</v>
+        <v>0.1518301285460804</v>
       </c>
       <c r="D66">
-        <v>0.1168657229251389</v>
+        <v>0.13513256475294</v>
       </c>
       <c r="E66">
-        <v>0.1186625753675106</v>
+        <v>0.1360135762177034</v>
       </c>
       <c r="F66">
-        <v>0.1484239618566024</v>
+        <v>0.1719520921491473</v>
       </c>
       <c r="G66">
-        <v>0.110119811002975</v>
+        <v>0.1243347201339739</v>
       </c>
       <c r="H66">
-        <v>0.1383397438298866</v>
-      </c>
-      <c r="I66">
-        <v>0.126677176838646</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>0.1583100729105559</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1">
         <v>65</v>
       </c>
       <c r="B67">
-        <v>0.09051838572450692</v>
+        <v>0.1060075506601899</v>
       </c>
       <c r="C67">
-        <v>0.1343973750969558</v>
+        <v>0.1546966431423285</v>
       </c>
       <c r="D67">
-        <v>0.1006714214346224</v>
+        <v>0.1160894243736056</v>
       </c>
       <c r="E67">
-        <v>0.1124270238054234</v>
+        <v>0.1342022889673062</v>
       </c>
       <c r="F67">
-        <v>0.1707839294911968</v>
+        <v>0.1990462591762511</v>
       </c>
       <c r="G67">
-        <v>0.09561493410232651</v>
+        <v>0.1111078595591445</v>
       </c>
       <c r="H67">
-        <v>0.1521347791776608</v>
-      </c>
-      <c r="I67">
-        <v>0.1434521511673074</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>0.1788499741211741</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1">
         <v>66</v>
       </c>
       <c r="B68">
-        <v>0.1637909638421619</v>
+        <v>0.1783712322875182</v>
       </c>
       <c r="C68">
-        <v>0.1100001412563766</v>
+        <v>0.1290419738255363</v>
       </c>
       <c r="D68">
-        <v>0.136061275870334</v>
+        <v>0.1578828404652707</v>
       </c>
       <c r="E68">
-        <v>0.131237611053837</v>
+        <v>0.1492611181352905</v>
       </c>
       <c r="F68">
-        <v>0.09407512191770456</v>
+        <v>0.1071038098885197</v>
       </c>
       <c r="G68">
-        <v>0.1582265095488247</v>
+        <v>0.1720875562408009</v>
       </c>
       <c r="H68">
-        <v>0.09563304514864231</v>
-      </c>
-      <c r="I68">
-        <v>0.1109753313621189</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>0.1062514691570638</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1">
         <v>67</v>
       </c>
       <c r="B69">
-        <v>0.1141413554248932</v>
+        <v>0.1315092432337359</v>
       </c>
       <c r="C69">
-        <v>0.1275001972360907</v>
+        <v>0.1450347429471276</v>
       </c>
       <c r="D69">
-        <v>0.1141440656814116</v>
+        <v>0.1335954300148275</v>
       </c>
       <c r="E69">
-        <v>0.1163734937230236</v>
+        <v>0.1376339183488701</v>
       </c>
       <c r="F69">
-        <v>0.1328904051950902</v>
+        <v>0.1545602372066934</v>
       </c>
       <c r="G69">
-        <v>0.11132855354965</v>
+        <v>0.1302664316315983</v>
       </c>
       <c r="H69">
-        <v>0.1449264396882753</v>
-      </c>
-      <c r="I69">
-        <v>0.1386954895015655</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>0.1673999966171474</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0.1712435727482438</v>
+        <v>0.1974962615273685</v>
       </c>
       <c r="C70">
-        <v>0.102044078288283</v>
+        <v>0.1145491037618394</v>
       </c>
       <c r="D70">
-        <v>0.1165226800570437</v>
+        <v>0.1298783210994333</v>
       </c>
       <c r="E70">
-        <v>0.1098357950284162</v>
+        <v>0.122311553201285</v>
       </c>
       <c r="F70">
-        <v>0.1215747100132335</v>
+        <v>0.1366585690323881</v>
       </c>
       <c r="G70">
-        <v>0.1660935564427542</v>
+        <v>0.1846128269868776</v>
       </c>
       <c r="H70">
-        <v>0.0994493513304732</v>
-      </c>
-      <c r="I70">
-        <v>0.1132362560915525</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>0.1144933643908082</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1">
         <v>69</v>
       </c>
       <c r="B71">
-        <v>0.09641992640411776</v>
+        <v>0.1133400924851473</v>
       </c>
       <c r="C71">
-        <v>0.1287769132273805</v>
+        <v>0.1508597894273122</v>
       </c>
       <c r="D71">
-        <v>0.125760101757908</v>
+        <v>0.1444992502538872</v>
       </c>
       <c r="E71">
-        <v>0.1296921796301355</v>
+        <v>0.1477730654601172</v>
       </c>
       <c r="F71">
-        <v>0.1329737014720652</v>
+        <v>0.1526927545160881</v>
       </c>
       <c r="G71">
-        <v>0.1187420043537652</v>
+        <v>0.1364067485308911</v>
       </c>
       <c r="H71">
-        <v>0.130707227157241</v>
-      </c>
-      <c r="I71">
-        <v>0.1369279459973871</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>0.1544282993265569</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1">
         <v>70</v>
       </c>
       <c r="B72">
-        <v>0.1538533435659987</v>
+        <v>0.1655407530913263</v>
       </c>
       <c r="C72">
-        <v>0.09582672809761462</v>
+        <v>0.1094187851457041</v>
       </c>
       <c r="D72">
-        <v>0.1495088728019943</v>
+        <v>0.1719463298940059</v>
       </c>
       <c r="E72">
-        <v>0.1286091437338873</v>
+        <v>0.1493611116375059</v>
       </c>
       <c r="F72">
-        <v>0.07751814560898761</v>
+        <v>0.08360237745745895</v>
       </c>
       <c r="G72">
-        <v>0.1877784041254844</v>
+        <v>0.211532090729744</v>
       </c>
       <c r="H72">
-        <v>0.0956530318443015</v>
-      </c>
-      <c r="I72">
-        <v>0.1112523302217317</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>0.1085985520442549</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>0.08478519124649515</v>
+        <v>0.08421658651604061</v>
       </c>
       <c r="C73">
-        <v>0.1155430295898285</v>
+        <v>0.1198118621637548</v>
       </c>
       <c r="D73">
-        <v>0.1576469929204667</v>
+        <v>0.188746095229532</v>
       </c>
       <c r="E73">
-        <v>0.106856971555034</v>
+        <v>0.1204754275647284</v>
       </c>
       <c r="F73">
-        <v>0.2907234565473227</v>
+        <v>0.2882145011334542</v>
       </c>
       <c r="G73">
-        <v>0.08793277990681955</v>
+        <v>0.09102140954474239</v>
       </c>
       <c r="H73">
-        <v>0.1023266375277253</v>
-      </c>
-      <c r="I73">
-        <v>0.05418494070630822</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>0.1075141178477475</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>0.0977899673133691</v>
+        <v>0.1131896147974561</v>
       </c>
       <c r="C74">
-        <v>0.1257459158954783</v>
+        <v>0.1435062525202095</v>
       </c>
       <c r="D74">
-        <v>0.1163419974815723</v>
+        <v>0.1312688340116667</v>
       </c>
       <c r="E74">
-        <v>0.1398148656320931</v>
+        <v>0.1599800547151605</v>
       </c>
       <c r="F74">
-        <v>0.1269233943262645</v>
+        <v>0.1454453194420802</v>
       </c>
       <c r="G74">
-        <v>0.1058976938457626</v>
+        <v>0.1207471206339158</v>
       </c>
       <c r="H74">
-        <v>0.1581401822181177</v>
-      </c>
-      <c r="I74">
-        <v>0.1293459832873424</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>0.1858628038795113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1">
         <v>73</v>
       </c>
       <c r="B75">
-        <v>0.1624715150775306</v>
+        <v>0.1899474027367675</v>
       </c>
       <c r="C75">
-        <v>0.1071834383827918</v>
+        <v>0.1244797658174689</v>
       </c>
       <c r="D75">
-        <v>0.1199635335715888</v>
+        <v>0.1299992214553508</v>
       </c>
       <c r="E75">
-        <v>0.1210445162154767</v>
+        <v>0.1358133110938993</v>
       </c>
       <c r="F75">
-        <v>0.1083822868373021</v>
+        <v>0.1252619440474235</v>
       </c>
       <c r="G75">
-        <v>0.1581737678641823</v>
+        <v>0.1818106317438562</v>
       </c>
       <c r="H75">
-        <v>0.09658976378931591</v>
-      </c>
-      <c r="I75">
-        <v>0.1261911782618118</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>0.1126877231052338</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1">
         <v>74</v>
       </c>
       <c r="B76">
-        <v>0.1208687843551727</v>
+        <v>0.1409902200697419</v>
       </c>
       <c r="C76">
-        <v>0.1237147609170505</v>
+        <v>0.1544732208144595</v>
       </c>
       <c r="D76">
-        <v>0.08544587723177242</v>
+        <v>0.1007807843915348</v>
       </c>
       <c r="E76">
-        <v>0.109381175777921</v>
+        <v>0.1292328508489282</v>
       </c>
       <c r="F76">
-        <v>0.128526873889534</v>
+        <v>0.1560217665831159</v>
       </c>
       <c r="G76">
-        <v>0.1049144173382347</v>
+        <v>0.1276522315375662</v>
       </c>
       <c r="H76">
-        <v>0.1703250773636122</v>
-      </c>
-      <c r="I76">
-        <v>0.1568230331267023</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>0.1908489257546536</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0.05568047549386004</v>
+        <v>0.06063694811976263</v>
       </c>
       <c r="C77">
-        <v>0.09646018037265187</v>
+        <v>0.111288803431472</v>
       </c>
       <c r="D77">
-        <v>0.2197595558070146</v>
+        <v>0.2491600166049013</v>
       </c>
       <c r="E77">
-        <v>0.2146609026946776</v>
+        <v>0.2320510710327953</v>
       </c>
       <c r="F77">
-        <v>0.1131748554797936</v>
+        <v>0.1289903480362933</v>
       </c>
       <c r="G77">
-        <v>0.0997260694528844</v>
+        <v>0.113067553450578</v>
       </c>
       <c r="H77">
-        <v>0.1027842663810028</v>
-      </c>
-      <c r="I77">
-        <v>0.09775369431811502</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>0.1048052593241975</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>0.1072020455706942</v>
+        <v>0.1146523926538277</v>
       </c>
       <c r="C78">
-        <v>0.1244724816069916</v>
+        <v>0.1406023362868044</v>
       </c>
       <c r="D78">
-        <v>0.1508366542891946</v>
+        <v>0.1628610533799511</v>
       </c>
       <c r="E78">
-        <v>0.1367939549282387</v>
+        <v>0.1418523128911558</v>
       </c>
       <c r="F78">
-        <v>0.2291040100049454</v>
+        <v>0.2263775198933252</v>
       </c>
       <c r="G78">
-        <v>0.08541417583483933</v>
+        <v>0.09425180595931854</v>
       </c>
       <c r="H78">
-        <v>0.1036902674070331</v>
-      </c>
-      <c r="I78">
-        <v>0.06248641035806324</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>0.1194025789356174</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1">
         <v>77</v>
       </c>
       <c r="B79">
-        <v>0.1474436937799412</v>
+        <v>0.1643987399196371</v>
       </c>
       <c r="C79">
-        <v>0.1234308290409836</v>
+        <v>0.1396640959412912</v>
       </c>
       <c r="D79">
-        <v>0.1098763427707713</v>
+        <v>0.1261548861051646</v>
       </c>
       <c r="E79">
-        <v>0.1231519874211299</v>
+        <v>0.1397752243287687</v>
       </c>
       <c r="F79">
-        <v>0.1323213108482046</v>
+        <v>0.1450988225151177</v>
       </c>
       <c r="G79">
-        <v>0.1424542556117633</v>
+        <v>0.1655969099880138</v>
       </c>
       <c r="H79">
-        <v>0.1063322284069932</v>
-      </c>
-      <c r="I79">
-        <v>0.1149893521202128</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>0.1193113212020069</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1">
         <v>78</v>
       </c>
       <c r="B80">
-        <v>0.1779032362853868</v>
+        <v>0.1942230083689168</v>
       </c>
       <c r="C80">
-        <v>0.08998592326744712</v>
+        <v>0.09773719071762461</v>
       </c>
       <c r="D80">
-        <v>0.1794326800820397</v>
+        <v>0.2072799928668251</v>
       </c>
       <c r="E80">
-        <v>0.1513292677193994</v>
+        <v>0.1720712960942808</v>
       </c>
       <c r="F80">
-        <v>0.05785929993974336</v>
+        <v>0.0649292057826264</v>
       </c>
       <c r="G80">
-        <v>0.1385785300658418</v>
+        <v>0.1537425937217677</v>
       </c>
       <c r="H80">
-        <v>0.09674926948081516</v>
-      </c>
-      <c r="I80">
-        <v>0.1081617931593267</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>0.1100167124479587</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1">
         <v>79</v>
       </c>
       <c r="B81">
-        <v>0.162600470091927</v>
+        <v>0.1822863277825924</v>
       </c>
       <c r="C81">
-        <v>0.105497796791347</v>
+        <v>0.1179273057700753</v>
       </c>
       <c r="D81">
-        <v>0.1248425154360119</v>
+        <v>0.1428523478999013</v>
       </c>
       <c r="E81">
-        <v>0.1208178242906754</v>
+        <v>0.1375147455432014</v>
       </c>
       <c r="F81">
-        <v>0.1108982971460029</v>
+        <v>0.1246959419364895</v>
       </c>
       <c r="G81">
-        <v>0.1626950904309164</v>
+        <v>0.1838772647191435</v>
       </c>
       <c r="H81">
-        <v>0.0972207539847349</v>
-      </c>
-      <c r="I81">
-        <v>0.1154272518283843</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>0.1108460663485967</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1">
         <v>80</v>
       </c>
       <c r="B82">
-        <v>0.1250836338699765</v>
+        <v>0.1428682883265209</v>
       </c>
       <c r="C82">
-        <v>0.1315555504464568</v>
+        <v>0.1485226748319018</v>
       </c>
       <c r="D82">
-        <v>0.1253599814560136</v>
+        <v>0.1407234891201964</v>
       </c>
       <c r="E82">
-        <v>0.1267317896681079</v>
+        <v>0.1445124256458178</v>
       </c>
       <c r="F82">
-        <v>0.118881718592991</v>
+        <v>0.1332267851520137</v>
       </c>
       <c r="G82">
-        <v>0.1263191497743989</v>
+        <v>0.1440611911089302</v>
       </c>
       <c r="H82">
-        <v>0.1276906374732029</v>
-      </c>
-      <c r="I82">
-        <v>0.1183775387188523</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>0.1460851458146192</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>0.1554113186527845</v>
+        <v>0.1800084704881933</v>
       </c>
       <c r="C83">
-        <v>0.112673516569104</v>
+        <v>0.1307611658479607</v>
       </c>
       <c r="D83">
-        <v>0.117263186694435</v>
+        <v>0.1325411449440046</v>
       </c>
       <c r="E83">
-        <v>0.1204180437938011</v>
+        <v>0.1367508851536205</v>
       </c>
       <c r="F83">
-        <v>0.1095479056423138</v>
+        <v>0.1269574316909095</v>
       </c>
       <c r="G83">
-        <v>0.1512582239456499</v>
+        <v>0.1698281777260229</v>
       </c>
       <c r="H83">
-        <v>0.1080412389556454</v>
-      </c>
-      <c r="I83">
-        <v>0.1253865657462665</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>0.1231527241492887</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1">
         <v>82</v>
       </c>
       <c r="B84">
-        <v>0.1043519524256063</v>
+        <v>0.1245759481982765</v>
       </c>
       <c r="C84">
-        <v>0.1319393892506986</v>
+        <v>0.1534335470217607</v>
       </c>
       <c r="D84">
-        <v>0.101982330259391</v>
+        <v>0.1243957079855218</v>
       </c>
       <c r="E84">
-        <v>0.1146698499967697</v>
+        <v>0.1396751582092851</v>
       </c>
       <c r="F84">
-        <v>0.1293026808662162</v>
+        <v>0.1495271816080883</v>
       </c>
       <c r="G84">
-        <v>0.1066313993015819</v>
+        <v>0.1228781349733515</v>
       </c>
       <c r="H84">
-        <v>0.1635612727089407</v>
-      </c>
-      <c r="I84">
-        <v>0.1475611251907956</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>0.1855143220037161</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>0.09344780112808969</v>
+        <v>0.1052599675022102</v>
       </c>
       <c r="C85">
-        <v>0.170056458424319</v>
+        <v>0.1853850810417722</v>
       </c>
       <c r="D85">
-        <v>0.1247770624627968</v>
+        <v>0.1368777253107005</v>
       </c>
       <c r="E85">
-        <v>0.1076053736109872</v>
+        <v>0.1212356495088057</v>
       </c>
       <c r="F85">
-        <v>0.1805819261080898</v>
+        <v>0.2083140112098857</v>
       </c>
       <c r="G85">
-        <v>0.1059116335454111</v>
+        <v>0.1172929291119788</v>
       </c>
       <c r="H85">
-        <v>0.1175024191501834</v>
-      </c>
-      <c r="I85">
-        <v>0.1001173255701228</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>0.1256346363146469</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1">
         <v>84</v>
       </c>
       <c r="B86">
-        <v>0.09553184946694641</v>
+        <v>0.1120579274922783</v>
       </c>
       <c r="C86">
-        <v>0.1430068683385719</v>
+        <v>0.1712210571137847</v>
       </c>
       <c r="D86">
-        <v>0.09708575881849089</v>
+        <v>0.1106571476514732</v>
       </c>
       <c r="E86">
-        <v>0.08792833714174436</v>
+        <v>0.1019445477228873</v>
       </c>
       <c r="F86">
-        <v>0.1508916014042415</v>
+        <v>0.1809348100663608</v>
       </c>
       <c r="G86">
-        <v>0.1063480776025473</v>
+        <v>0.125362629447678</v>
       </c>
       <c r="H86">
-        <v>0.1721360125160374</v>
-      </c>
-      <c r="I86">
-        <v>0.1470714947114202</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>0.1978218805055379</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1">
         <v>85</v>
       </c>
       <c r="B87">
-        <v>0.07112638970829649</v>
+        <v>0.07662138277951701</v>
       </c>
       <c r="C87">
-        <v>0.07773349543488413</v>
+        <v>0.08524519530143658</v>
       </c>
       <c r="D87">
-        <v>0.1137914621020455</v>
+        <v>0.1189015668608321</v>
       </c>
       <c r="E87">
-        <v>0.08371806647345513</v>
+        <v>0.08165039493163412</v>
       </c>
       <c r="F87">
-        <v>0.4438664007462916</v>
+        <v>0.4794781550603992</v>
       </c>
       <c r="G87">
-        <v>0.06135697156259529</v>
+        <v>0.06149190996022005</v>
       </c>
       <c r="H87">
-        <v>0.09143273937404291</v>
-      </c>
-      <c r="I87">
-        <v>0.05697447459838893</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>0.09661139510596094</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1">
         <v>86</v>
       </c>
       <c r="B88">
-        <v>0.1788843938023729</v>
+        <v>0.2069672299194019</v>
       </c>
       <c r="C88">
-        <v>0.1020890221935643</v>
+        <v>0.11949923946229</v>
       </c>
       <c r="D88">
-        <v>0.1342121128051274</v>
+        <v>0.1523025199637444</v>
       </c>
       <c r="E88">
-        <v>0.1217298642515515</v>
+        <v>0.1393154289337231</v>
       </c>
       <c r="F88">
-        <v>0.08283886011928644</v>
+        <v>0.09344139772787045</v>
       </c>
       <c r="G88">
-        <v>0.1545265653548142</v>
+        <v>0.1686862682721712</v>
       </c>
       <c r="H88">
-        <v>0.1009076066500717</v>
-      </c>
-      <c r="I88">
-        <v>0.1248115748232115</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>0.119787915720799</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1">
         <v>87</v>
       </c>
       <c r="B89">
-        <v>0.1023151055935521</v>
+        <v>0.1172618066693467</v>
       </c>
       <c r="C89">
-        <v>0.1232926417995083</v>
+        <v>0.1438710735789169</v>
       </c>
       <c r="D89">
-        <v>0.1197253391250417</v>
+        <v>0.1369428483379734</v>
       </c>
       <c r="E89">
-        <v>0.119156676201427</v>
+        <v>0.1366816367919699</v>
       </c>
       <c r="F89">
-        <v>0.1617520646052349</v>
+        <v>0.1854328687321983</v>
       </c>
       <c r="G89">
-        <v>0.1183738924110735</v>
+        <v>0.1342101860778978</v>
       </c>
       <c r="H89">
-        <v>0.1256884685288239</v>
-      </c>
-      <c r="I89">
-        <v>0.1296958117353386</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>0.1455995798116972</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>0.1664198750171469</v>
+        <v>0.186630110050262</v>
       </c>
       <c r="C90">
-        <v>0.109485953654664</v>
+        <v>0.1230006736083326</v>
       </c>
       <c r="D90">
-        <v>0.1238725144194994</v>
+        <v>0.1405832460536424</v>
       </c>
       <c r="E90">
-        <v>0.1163442106785719</v>
+        <v>0.1338329621848779</v>
       </c>
       <c r="F90">
-        <v>0.1233616943117235</v>
+        <v>0.1402802542131156</v>
       </c>
       <c r="G90">
-        <v>0.1561396425471326</v>
+        <v>0.1737868694620036</v>
       </c>
       <c r="H90">
-        <v>0.08873191606057708</v>
-      </c>
-      <c r="I90">
-        <v>0.1156441933106847</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>0.1018858844277658</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1">
         <v>89</v>
       </c>
       <c r="B91">
-        <v>0.1622749012771601</v>
+        <v>0.1816805894272964</v>
       </c>
       <c r="C91">
-        <v>0.09764716974853987</v>
+        <v>0.1126638295066752</v>
       </c>
       <c r="D91">
-        <v>0.1276784262882236</v>
+        <v>0.1421386972418302</v>
       </c>
       <c r="E91">
-        <v>0.1292253871610638</v>
+        <v>0.1443809708467643</v>
       </c>
       <c r="F91">
-        <v>0.1076809134064678</v>
+        <v>0.1201634095433675</v>
       </c>
       <c r="G91">
-        <v>0.1709228497044007</v>
+        <v>0.1916377096885226</v>
       </c>
       <c r="H91">
-        <v>0.09414348996801497</v>
-      </c>
-      <c r="I91">
-        <v>0.1104268624461293</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>0.1073347937455435</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>0.152206145823666</v>
+        <v>0.1702825408445163</v>
       </c>
       <c r="C92">
-        <v>0.1093851087403371</v>
+        <v>0.1249355746988325</v>
       </c>
       <c r="D92">
-        <v>0.1213297779584219</v>
+        <v>0.136440932632398</v>
       </c>
       <c r="E92">
-        <v>0.1181695094496404</v>
+        <v>0.1324645390290132</v>
       </c>
       <c r="F92">
-        <v>0.1146784183117936</v>
+        <v>0.1297078786698686</v>
       </c>
       <c r="G92">
-        <v>0.1645566593634063</v>
+        <v>0.1801335572293859</v>
       </c>
       <c r="H92">
-        <v>0.1152431425740853</v>
-      </c>
-      <c r="I92">
-        <v>0.1044312377786493</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>0.1260349768959855</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1">
         <v>91</v>
       </c>
       <c r="B93">
-        <v>0.1610405779008148</v>
+        <v>0.1881007347909083</v>
       </c>
       <c r="C93">
-        <v>0.0938697082300342</v>
+        <v>0.1058303084083134</v>
       </c>
       <c r="D93">
-        <v>0.1432628673977315</v>
+        <v>0.172839596718678</v>
       </c>
       <c r="E93">
-        <v>0.1263378544497519</v>
+        <v>0.1472291915196652</v>
       </c>
       <c r="F93">
-        <v>0.06960188261000422</v>
+        <v>0.07919706001631915</v>
       </c>
       <c r="G93">
-        <v>0.1900983371107411</v>
+        <v>0.2167388553429573</v>
       </c>
       <c r="H93">
-        <v>0.08181950390915183</v>
-      </c>
-      <c r="I93">
-        <v>0.1339692683917705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>0.09006425320315854</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>0.1064141132292905</v>
+        <v>0.1234114879005342</v>
       </c>
       <c r="C94">
-        <v>0.1274388178766651</v>
+        <v>0.1492488438152044</v>
       </c>
       <c r="D94">
-        <v>0.1087062212825576</v>
+        <v>0.1259363779522449</v>
       </c>
       <c r="E94">
-        <v>0.1243016226413868</v>
+        <v>0.1455586191847259</v>
       </c>
       <c r="F94">
-        <v>0.1339886283014431</v>
+        <v>0.1536538610647416</v>
       </c>
       <c r="G94">
-        <v>0.1067055208835426</v>
+        <v>0.1220102598831957</v>
       </c>
       <c r="H94">
-        <v>0.1540252028547697</v>
-      </c>
-      <c r="I94">
-        <v>0.1384198729303447</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>0.180180550199353</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1">
         <v>93</v>
       </c>
       <c r="B95">
-        <v>0.1234684178870135</v>
+        <v>0.1410415472839493</v>
       </c>
       <c r="C95">
-        <v>0.1307637582508548</v>
+        <v>0.1512286769193631</v>
       </c>
       <c r="D95">
-        <v>0.1039122392369887</v>
+        <v>0.1197586746426684</v>
       </c>
       <c r="E95">
-        <v>0.1117606672096278</v>
+        <v>0.1290856945351337</v>
       </c>
       <c r="F95">
-        <v>0.1368403017394109</v>
+        <v>0.1601584023204856</v>
       </c>
       <c r="G95">
-        <v>0.1284542156454586</v>
+        <v>0.1448486422408157</v>
       </c>
       <c r="H95">
-        <v>0.1345530507076072</v>
-      </c>
-      <c r="I95">
-        <v>0.1302473493230385</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>0.1538783620575841</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1">
         <v>94</v>
       </c>
       <c r="B96">
-        <v>0.109331189598274</v>
+        <v>0.128868824169535</v>
       </c>
       <c r="C96">
-        <v>0.1332328023107833</v>
+        <v>0.1433006997666805</v>
       </c>
       <c r="D96">
-        <v>0.1198948475926815</v>
+        <v>0.1393625237051851</v>
       </c>
       <c r="E96">
-        <v>0.1092518057836479</v>
+        <v>0.1191528700567196</v>
       </c>
       <c r="F96">
-        <v>0.1720578463290151</v>
+        <v>0.20636154667132</v>
       </c>
       <c r="G96">
-        <v>0.09137952465375873</v>
+        <v>0.1005145619771879</v>
       </c>
       <c r="H96">
-        <v>0.1416588237718204</v>
-      </c>
-      <c r="I96">
-        <v>0.1231931599600192</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9">
+        <v>0.1624389736533717</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1">
         <v>95</v>
       </c>
       <c r="B97">
-        <v>0.03526561219273929</v>
+        <v>0.03686789930727207</v>
       </c>
       <c r="C97">
-        <v>0.1007009046501949</v>
+        <v>0.1073776620408666</v>
       </c>
       <c r="D97">
-        <v>0.2302136844909282</v>
+        <v>0.2579894229992724</v>
       </c>
       <c r="E97">
-        <v>0.1873994223906619</v>
+        <v>0.2086407933504061</v>
       </c>
       <c r="F97">
-        <v>0.2563604286401716</v>
+        <v>0.2867255272406745</v>
       </c>
       <c r="G97">
-        <v>0.05327752132403071</v>
+        <v>0.05371321106172638</v>
       </c>
       <c r="H97">
-        <v>0.04708777460956795</v>
-      </c>
-      <c r="I97">
-        <v>0.0896946517017054</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>0.04868548399978206</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1">
         <v>96</v>
       </c>
       <c r="B98">
-        <v>0.1105448805420705</v>
+        <v>0.1269024565730727</v>
       </c>
       <c r="C98">
-        <v>0.1260396661338789</v>
+        <v>0.1412455410334048</v>
       </c>
       <c r="D98">
-        <v>0.1472523280771211</v>
+        <v>0.1761974430031727</v>
       </c>
       <c r="E98">
-        <v>0.1289517284313472</v>
+        <v>0.1484524766023844</v>
       </c>
       <c r="F98">
-        <v>0.1836985493018032</v>
+        <v>0.2125825847660807</v>
       </c>
       <c r="G98">
-        <v>0.08695652399263536</v>
+        <v>0.09609152555208657</v>
       </c>
       <c r="H98">
-        <v>0.09145442850647033</v>
-      </c>
-      <c r="I98">
-        <v>0.1251018950146733</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>0.09852797246979814</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1">
         <v>97</v>
       </c>
       <c r="B99">
-        <v>0.1493326928046073</v>
+        <v>0.1676909209121623</v>
       </c>
       <c r="C99">
-        <v>0.121400068860543</v>
+        <v>0.1351958476589233</v>
       </c>
       <c r="D99">
-        <v>0.1075233639761502</v>
+        <v>0.1268769106200725</v>
       </c>
       <c r="E99">
-        <v>0.118239496115377</v>
+        <v>0.1364508836485319</v>
       </c>
       <c r="F99">
-        <v>0.1317255423473438</v>
+        <v>0.1467628383525575</v>
       </c>
       <c r="G99">
-        <v>0.1338874925350126</v>
+        <v>0.14897620606713</v>
       </c>
       <c r="H99">
-        <v>0.117276164933387</v>
-      </c>
-      <c r="I99">
-        <v>0.120615178427579</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>0.1380463927406224</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1">
         <v>98</v>
       </c>
       <c r="B100">
-        <v>0.1088135867635174</v>
+        <v>0.1247643110350214</v>
       </c>
       <c r="C100">
-        <v>0.1196248877782497</v>
+        <v>0.1373037490880238</v>
       </c>
       <c r="D100">
-        <v>0.1141726970399537</v>
+        <v>0.129918334005704</v>
       </c>
       <c r="E100">
-        <v>0.1265616136633321</v>
+        <v>0.1422736842975191</v>
       </c>
       <c r="F100">
-        <v>0.126924898126431</v>
+        <v>0.1445562382686273</v>
       </c>
       <c r="G100">
-        <v>0.1060667910172708</v>
+        <v>0.1203904058611363</v>
       </c>
       <c r="H100">
-        <v>0.1732845889743427</v>
-      </c>
-      <c r="I100">
-        <v>0.1245509366369027</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>0.2007932774439681</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1">
         <v>99</v>
       </c>
       <c r="B101">
-        <v>0.145756537597597</v>
+        <v>0.1731312153063783</v>
       </c>
       <c r="C101">
-        <v>0.08745852137195707</v>
+        <v>0.1004477254652055</v>
       </c>
       <c r="D101">
-        <v>0.1593037001772576</v>
+        <v>0.1841187404819511</v>
       </c>
       <c r="E101">
-        <v>0.1282642999800112</v>
+        <v>0.1442487549099055</v>
       </c>
       <c r="F101">
-        <v>0.09145910052387086</v>
+        <v>0.1009934940628055</v>
       </c>
       <c r="G101">
-        <v>0.1764624148274004</v>
+        <v>0.2027246725277268</v>
       </c>
       <c r="H101">
-        <v>0.08594582008594055</v>
-      </c>
-      <c r="I101">
-        <v>0.1253496054359654</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>0.09433539724602737</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1">
         <v>100</v>
       </c>
       <c r="B102">
-        <v>0.1069065358982478</v>
+        <v>0.1265789050248956</v>
       </c>
       <c r="C102">
-        <v>0.1265551042853789</v>
+        <v>0.1456414009159248</v>
       </c>
       <c r="D102">
-        <v>0.1290278158359899</v>
+        <v>0.1469449036566091</v>
       </c>
       <c r="E102">
-        <v>0.1211321048610107</v>
+        <v>0.1406351125232351</v>
       </c>
       <c r="F102">
-        <v>0.1168328143197936</v>
+        <v>0.1343939322708576</v>
       </c>
       <c r="G102">
-        <v>0.127022528846331</v>
+        <v>0.1454286790117412</v>
       </c>
       <c r="H102">
-        <v>0.1378225026562482</v>
-      </c>
-      <c r="I102">
-        <v>0.1347005932969999</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>0.1603770665967366</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1">
         <v>101</v>
       </c>
       <c r="B103">
-        <v>0.1628136858014912</v>
+        <v>0.1865561009577412</v>
       </c>
       <c r="C103">
-        <v>0.1023647770246379</v>
+        <v>0.1146193073347059</v>
       </c>
       <c r="D103">
-        <v>0.137463612794325</v>
+        <v>0.1584081657408414</v>
       </c>
       <c r="E103">
-        <v>0.125676723699529</v>
+        <v>0.1421671601866048</v>
       </c>
       <c r="F103">
-        <v>0.09384792786773868</v>
+        <v>0.1058398217298455</v>
       </c>
       <c r="G103">
-        <v>0.1511283479928446</v>
+        <v>0.1678842334383583</v>
       </c>
       <c r="H103">
-        <v>0.1098515154968935</v>
-      </c>
-      <c r="I103">
-        <v>0.1168534093225401</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>0.1245252106119028</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1">
         <v>102</v>
       </c>
       <c r="B104">
-        <v>0.1585591454611114</v>
+        <v>0.1824839247400968</v>
       </c>
       <c r="C104">
-        <v>0.09231563098648193</v>
+        <v>0.1040105444438898</v>
       </c>
       <c r="D104">
-        <v>0.1501455801339017</v>
+        <v>0.1736512492039314</v>
       </c>
       <c r="E104">
-        <v>0.1244737322713298</v>
+        <v>0.1414075453938934</v>
       </c>
       <c r="F104">
-        <v>0.07333853583075364</v>
+        <v>0.08285040495468006</v>
       </c>
       <c r="G104">
-        <v>0.1715308945407028</v>
+        <v>0.1936015839430116</v>
       </c>
       <c r="H104">
-        <v>0.107343334828054</v>
-      </c>
-      <c r="I104">
-        <v>0.1222931459476649</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>0.121994747320497</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8">
       <c r="A105" s="1">
         <v>103</v>
       </c>
       <c r="B105">
-        <v>0.1711985458596267</v>
+        <v>0.1951328801272587</v>
       </c>
       <c r="C105">
-        <v>0.1104981496329759</v>
+        <v>0.1285619987428381</v>
       </c>
       <c r="D105">
-        <v>0.1179593052139076</v>
+        <v>0.1322724791832175</v>
       </c>
       <c r="E105">
-        <v>0.1243866982872853</v>
+        <v>0.1401582864720233</v>
       </c>
       <c r="F105">
-        <v>0.1038258309849915</v>
+        <v>0.1178078563144931</v>
       </c>
       <c r="G105">
-        <v>0.1520145063351701</v>
+        <v>0.1749701329230809</v>
       </c>
       <c r="H105">
-        <v>0.09838280319811238</v>
-      </c>
-      <c r="I105">
-        <v>0.1217341604879304</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>0.1110963662370886</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8">
       <c r="A106" s="1">
         <v>104</v>
       </c>
       <c r="B106">
-        <v>0.1063425713238163</v>
+        <v>0.122891447277605</v>
       </c>
       <c r="C106">
-        <v>0.1276137857564669</v>
+        <v>0.1481317412182523</v>
       </c>
       <c r="D106">
-        <v>0.1081326209404355</v>
+        <v>0.1241482127892568</v>
       </c>
       <c r="E106">
-        <v>0.1142008224617298</v>
+        <v>0.1344972780651201</v>
       </c>
       <c r="F106">
-        <v>0.1346473454388221</v>
+        <v>0.1531066902214569</v>
       </c>
       <c r="G106">
-        <v>0.1124655427876427</v>
+        <v>0.1286887900811065</v>
       </c>
       <c r="H106">
-        <v>0.163002047373544</v>
-      </c>
-      <c r="I106">
-        <v>0.1335952639175425</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>0.1885358403472025</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8">
       <c r="A107" s="1">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0.1592228279017342</v>
+        <v>0.1827738718478746</v>
       </c>
       <c r="C107">
-        <v>0.1066198209451712</v>
+        <v>0.1219825557235534</v>
       </c>
       <c r="D107">
-        <v>0.1324156234186484</v>
+        <v>0.1470117007014084</v>
       </c>
       <c r="E107">
-        <v>0.1204523200881076</v>
+        <v>0.1343202667402056</v>
       </c>
       <c r="F107">
-        <v>0.1184619742612193</v>
+        <v>0.1328854122923412</v>
       </c>
       <c r="G107">
-        <v>0.1602050441473862</v>
+        <v>0.1760477513075786</v>
       </c>
       <c r="H107">
-        <v>0.09332037097761518</v>
-      </c>
-      <c r="I107">
-        <v>0.1093020182601178</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>0.1049784413870383</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8">
       <c r="A108" s="1">
         <v>106</v>
       </c>
       <c r="B108">
-        <v>0.1181077903945382</v>
+        <v>0.1382372050160629</v>
       </c>
       <c r="C108">
-        <v>0.1165330020741723</v>
+        <v>0.1354892101394068</v>
       </c>
       <c r="D108">
-        <v>0.1153844230710147</v>
+        <v>0.1296430206515357</v>
       </c>
       <c r="E108">
-        <v>0.1199430429232464</v>
+        <v>0.1367564809395551</v>
       </c>
       <c r="F108">
-        <v>0.1374441424016961</v>
+        <v>0.1593379369043542</v>
       </c>
       <c r="G108">
-        <v>0.1478686813147546</v>
+        <v>0.1706740941888294</v>
       </c>
       <c r="H108">
-        <v>0.1127316432046566</v>
-      </c>
-      <c r="I108">
-        <v>0.1319872746159212</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>0.1298620521602559</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8">
       <c r="A109" s="1">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0.0947907282370809</v>
+        <v>0.1032720190108912</v>
       </c>
       <c r="C109">
-        <v>0.1214883458752481</v>
+        <v>0.1431165837117702</v>
       </c>
       <c r="D109">
-        <v>0.1158259992483907</v>
+        <v>0.1384245329452124</v>
       </c>
       <c r="E109">
-        <v>0.1193784182967763</v>
+        <v>0.1429933076154832</v>
       </c>
       <c r="F109">
-        <v>0.148547443842204</v>
+        <v>0.1758173113248128</v>
       </c>
       <c r="G109">
-        <v>0.09805954537350631</v>
+        <v>0.1186301383923505</v>
       </c>
       <c r="H109">
-        <v>0.1577354631683736</v>
-      </c>
-      <c r="I109">
-        <v>0.1441740559584203</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>0.1777461069994797</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8">
       <c r="A110" s="1">
         <v>108</v>
       </c>
       <c r="B110">
-        <v>0.1257367189217224</v>
+        <v>0.1457727501549986</v>
       </c>
       <c r="C110">
-        <v>0.115045577371771</v>
+        <v>0.1332829497050807</v>
       </c>
       <c r="D110">
-        <v>0.1269781836763079</v>
+        <v>0.1440447015590397</v>
       </c>
       <c r="E110">
-        <v>0.1294373536202034</v>
+        <v>0.1482969055883667</v>
       </c>
       <c r="F110">
-        <v>0.104922491842979</v>
+        <v>0.1210592838351729</v>
       </c>
       <c r="G110">
-        <v>0.1541248828153815</v>
+        <v>0.1764554951661993</v>
       </c>
       <c r="H110">
-        <v>0.1158162878691608</v>
-      </c>
-      <c r="I110">
-        <v>0.127938503882474</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>0.1310879139911421</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8">
       <c r="A111" s="1">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0.1897050704406796</v>
+        <v>0.2134838362843594</v>
       </c>
       <c r="C111">
-        <v>0.1065781772109086</v>
+        <v>0.1194195781784591</v>
       </c>
       <c r="D111">
-        <v>0.1188288687883462</v>
+        <v>0.1300672014147314</v>
       </c>
       <c r="E111">
-        <v>0.109978817753976</v>
+        <v>0.1220026609431688</v>
       </c>
       <c r="F111">
-        <v>0.09808001533414502</v>
+        <v>0.1144556733608723</v>
       </c>
       <c r="G111">
-        <v>0.1802079477696147</v>
+        <v>0.2014876942381275</v>
       </c>
       <c r="H111">
-        <v>0.08904685872039457</v>
-      </c>
-      <c r="I111">
-        <v>0.1075742439819354</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>0.09908335558028147</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8">
       <c r="A112" s="1">
         <v>110</v>
       </c>
       <c r="B112">
-        <v>0.151492932477274</v>
+        <v>0.1747371896958541</v>
       </c>
       <c r="C112">
-        <v>0.09608408755305811</v>
+        <v>0.1089582747622207</v>
       </c>
       <c r="D112">
-        <v>0.1466564189558975</v>
+        <v>0.1641578898783671</v>
       </c>
       <c r="E112">
-        <v>0.1432403510051494</v>
+        <v>0.1615876409210726</v>
       </c>
       <c r="F112">
-        <v>0.0712872399469644</v>
+        <v>0.08069092127284937</v>
       </c>
       <c r="G112">
-        <v>0.1832901032555264</v>
+        <v>0.2094073024635753</v>
       </c>
       <c r="H112">
-        <v>0.09352415286975083</v>
-      </c>
-      <c r="I112">
-        <v>0.1144247139363791</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9">
+        <v>0.1004607810060608</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8">
       <c r="A113" s="1">
         <v>111</v>
       </c>
       <c r="B113">
-        <v>0.1080265525599409</v>
+        <v>0.1244946326724919</v>
       </c>
       <c r="C113">
-        <v>0.1345700746283031</v>
+        <v>0.1558944102808768</v>
       </c>
       <c r="D113">
-        <v>0.1183983338581768</v>
+        <v>0.1343624742367137</v>
       </c>
       <c r="E113">
-        <v>0.1239813822593708</v>
+        <v>0.1422063586660775</v>
       </c>
       <c r="F113">
-        <v>0.1326602145972815</v>
+        <v>0.1528247925595265</v>
       </c>
       <c r="G113">
-        <v>0.111468049888349</v>
+        <v>0.125144608192006</v>
       </c>
       <c r="H113">
-        <v>0.1445651906277028</v>
-      </c>
-      <c r="I113">
-        <v>0.126330201580875</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>0.1650727233923074</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8">
       <c r="A114" s="1">
         <v>112</v>
       </c>
       <c r="B114">
-        <v>0.09877485300985714</v>
+        <v>0.1119428418331789</v>
       </c>
       <c r="C114">
-        <v>0.1300789913899557</v>
+        <v>0.1441990329648307</v>
       </c>
       <c r="D114">
-        <v>0.1093579518327596</v>
+        <v>0.123597006380895</v>
       </c>
       <c r="E114">
-        <v>0.114623339682217</v>
+        <v>0.1339008756479426</v>
       </c>
       <c r="F114">
-        <v>0.1798698189204684</v>
+        <v>0.2125478610443916</v>
       </c>
       <c r="G114">
-        <v>0.09253680099802958</v>
+        <v>0.1045013013155379</v>
       </c>
       <c r="H114">
-        <v>0.1484366175280149</v>
-      </c>
-      <c r="I114">
-        <v>0.1263216266386975</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>0.1693110808132234</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8">
       <c r="A115" s="1">
         <v>113</v>
       </c>
       <c r="B115">
-        <v>0.1260399888889771</v>
+        <v>0.1409541154701272</v>
       </c>
       <c r="C115">
-        <v>0.120784385285848</v>
+        <v>0.1374117806281492</v>
       </c>
       <c r="D115">
-        <v>0.1237411774365951</v>
+        <v>0.139804646618352</v>
       </c>
       <c r="E115">
-        <v>0.112799110335958</v>
+        <v>0.1303670197619005</v>
       </c>
       <c r="F115">
-        <v>0.1357123067409595</v>
+        <v>0.1565607808359461</v>
       </c>
       <c r="G115">
-        <v>0.1396785088622916</v>
+        <v>0.1577300975873359</v>
       </c>
       <c r="H115">
-        <v>0.1198901883138817</v>
-      </c>
-      <c r="I115">
-        <v>0.1213543341354889</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>0.137171559098189</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8">
       <c r="A116" s="1">
         <v>114</v>
       </c>
       <c r="B116">
-        <v>0.08228283469010296</v>
+        <v>0.09609873705586285</v>
       </c>
       <c r="C116">
-        <v>0.1374676032406923</v>
+        <v>0.1565493679402234</v>
       </c>
       <c r="D116">
-        <v>0.14054717181168</v>
+        <v>0.1533886159642968</v>
       </c>
       <c r="E116">
-        <v>0.1263770313137086</v>
+        <v>0.1420430575801642</v>
       </c>
       <c r="F116">
-        <v>0.2225009191781865</v>
+        <v>0.2159088170722692</v>
       </c>
       <c r="G116">
-        <v>0.09218400637649005</v>
+        <v>0.1065724937682143</v>
       </c>
       <c r="H116">
-        <v>0.1120531969796846</v>
-      </c>
-      <c r="I116">
-        <v>0.08658723640945484</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>0.1294389106189694</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8">
       <c r="A117" s="1">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0.0004065551989312829</v>
+        <v>0.0004320148260233234</v>
       </c>
       <c r="C117">
-        <v>0.03186993158955833</v>
+        <v>0.0354845792135153</v>
       </c>
       <c r="D117">
-        <v>0.2299799899450283</v>
+        <v>0.2560645021719872</v>
       </c>
       <c r="E117">
-        <v>0.2414389487201831</v>
+        <v>0.268823148879731</v>
       </c>
       <c r="F117">
-        <v>0.3266253498919066</v>
+        <v>0.3636714870385764</v>
       </c>
       <c r="G117">
-        <v>0.0554970874351124</v>
+        <v>0.06179155352568669</v>
       </c>
       <c r="H117">
-        <v>0.01233386882941228</v>
-      </c>
-      <c r="I117">
-        <v>0.1018482683898677</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>0.01373271434448001</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8">
       <c r="A118" s="1">
         <v>116</v>
       </c>
       <c r="B118">
-        <v>0.1514998962360126</v>
+        <v>0.1652047264825276</v>
       </c>
       <c r="C118">
-        <v>0.1120138442173602</v>
+        <v>0.1294960111685806</v>
       </c>
       <c r="D118">
-        <v>0.1300611330437112</v>
+        <v>0.1447937792764949</v>
       </c>
       <c r="E118">
-        <v>0.1214657409458839</v>
+        <v>0.1329470940487122</v>
       </c>
       <c r="F118">
-        <v>0.1127888059140736</v>
+        <v>0.1310942826261279</v>
       </c>
       <c r="G118">
-        <v>0.1538889451047429</v>
+        <v>0.1782889479431435</v>
       </c>
       <c r="H118">
-        <v>0.1018555559789295</v>
-      </c>
-      <c r="I118">
-        <v>0.1164260785592861</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>0.1181751584544133</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8">
       <c r="A119" s="1">
         <v>117</v>
       </c>
       <c r="B119">
-        <v>0.09870937521856847</v>
+        <v>0.1133528236511378</v>
       </c>
       <c r="C119">
-        <v>0.1282972092705433</v>
+        <v>0.1446671836722244</v>
       </c>
       <c r="D119">
-        <v>0.1349336362808219</v>
+        <v>0.156452042088263</v>
       </c>
       <c r="E119">
-        <v>0.1220041427124271</v>
+        <v>0.1478831610444522</v>
       </c>
       <c r="F119">
-        <v>0.118595160627387</v>
+        <v>0.1372326735462003</v>
       </c>
       <c r="G119">
-        <v>0.09148595381178626</v>
+        <v>0.106374102841873</v>
       </c>
       <c r="H119">
-        <v>0.1721250718025955</v>
-      </c>
-      <c r="I119">
-        <v>0.1338494502758704</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>0.1940380131558493</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8">
       <c r="A120" s="1">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>0.1063309681144113</v>
+        <v>0.1221858246158271</v>
       </c>
       <c r="C120">
-        <v>0.1273515336124619</v>
+        <v>0.1475615666202329</v>
       </c>
       <c r="D120">
-        <v>0.1210142811352747</v>
+        <v>0.1373930330401405</v>
       </c>
       <c r="E120">
-        <v>0.1187977471457652</v>
+        <v>0.137092368096001</v>
       </c>
       <c r="F120">
-        <v>0.1332691567757739</v>
+        <v>0.1559581298921898</v>
       </c>
       <c r="G120">
-        <v>0.1215114806650283</v>
+        <v>0.1378486331702858</v>
       </c>
       <c r="H120">
-        <v>0.1391139313778436</v>
-      </c>
-      <c r="I120">
-        <v>0.1326109011734411</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>0.1619604445653229</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8">
       <c r="A121" s="1">
         <v>119</v>
       </c>
       <c r="B121">
-        <v>0.167671465609458</v>
+        <v>0.1850407054097215</v>
       </c>
       <c r="C121">
-        <v>0.1017353212747274</v>
+        <v>0.119033666224534</v>
       </c>
       <c r="D121">
-        <v>0.1479759348761366</v>
+        <v>0.1701953160640958</v>
       </c>
       <c r="E121">
-        <v>0.1338833581906846</v>
+        <v>0.1547960950797632</v>
       </c>
       <c r="F121">
-        <v>0.08055711935343531</v>
+        <v>0.09026003647188295</v>
       </c>
       <c r="G121">
-        <v>0.1520995172011783</v>
+        <v>0.1686951333722662</v>
       </c>
       <c r="H121">
-        <v>0.09939797886827188</v>
-      </c>
-      <c r="I121">
-        <v>0.1166793046261078</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>0.1119790473777365</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8">
       <c r="A122" s="1">
         <v>120</v>
       </c>
       <c r="B122">
-        <v>0.1661015389012024</v>
+        <v>0.1903765052771024</v>
       </c>
       <c r="C122">
-        <v>0.106338928753539</v>
+        <v>0.1218660556702469</v>
       </c>
       <c r="D122">
-        <v>0.123521769353724</v>
+        <v>0.1389327242527952</v>
       </c>
       <c r="E122">
-        <v>0.1202668961824656</v>
+        <v>0.1335508347686235</v>
       </c>
       <c r="F122">
-        <v>0.1009391279820719</v>
+        <v>0.1129185146919142</v>
       </c>
       <c r="G122">
-        <v>0.1594129398816903</v>
+        <v>0.1823615214200438</v>
       </c>
       <c r="H122">
-        <v>0.1053793175090487</v>
-      </c>
-      <c r="I122">
-        <v>0.1180394814362581</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>0.1199938439192741</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8">
       <c r="A123" s="1">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>0.1115341289975077</v>
+        <v>0.1313340300243838</v>
       </c>
       <c r="C123">
-        <v>0.1306122386553705</v>
+        <v>0.1493920314194259</v>
       </c>
       <c r="D123">
-        <v>0.1225556851249317</v>
+        <v>0.1400290782934544</v>
       </c>
       <c r="E123">
-        <v>0.1255842905836256</v>
+        <v>0.1434220399677266</v>
       </c>
       <c r="F123">
-        <v>0.1382462697375949</v>
+        <v>0.1594457836913378</v>
       </c>
       <c r="G123">
-        <v>0.1124549333793416</v>
+        <v>0.1283015309181083</v>
       </c>
       <c r="H123">
-        <v>0.1307905384807429</v>
-      </c>
-      <c r="I123">
-        <v>0.1282219150408852</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>0.1480755056855633</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8">
       <c r="A124" s="1">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0.1096016734525146</v>
+        <v>0.1256910936669947</v>
       </c>
       <c r="C124">
-        <v>0.1303012526231636</v>
+        <v>0.1389641563616722</v>
       </c>
       <c r="D124">
-        <v>0.1431140804887279</v>
+        <v>0.1466200947012505</v>
       </c>
       <c r="E124">
-        <v>0.105733213075232</v>
+        <v>0.11622179667213</v>
       </c>
       <c r="F124">
-        <v>0.2162814139101168</v>
+        <v>0.2098823529027895</v>
       </c>
       <c r="G124">
-        <v>0.09878834708311708</v>
+        <v>0.1074639672025494</v>
       </c>
       <c r="H124">
-        <v>0.1341477118569753</v>
-      </c>
-      <c r="I124">
-        <v>0.06203230751015291</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>0.1551565384926138</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8">
       <c r="A125" s="1">
         <v>123</v>
       </c>
       <c r="B125">
-        <v>0.1774950082796988</v>
+        <v>0.2091540470311638</v>
       </c>
       <c r="C125">
-        <v>0.1074006896677577</v>
+        <v>0.1288896856403361</v>
       </c>
       <c r="D125">
-        <v>0.119235007202695</v>
+        <v>0.1253977265322067</v>
       </c>
       <c r="E125">
-        <v>0.117025505625425</v>
+        <v>0.1259915161625398</v>
       </c>
       <c r="F125">
-        <v>0.09495137331215815</v>
+        <v>0.1132316602009864</v>
       </c>
       <c r="G125">
-        <v>0.1725570505396153</v>
+        <v>0.1999390707870402</v>
       </c>
       <c r="H125">
-        <v>0.08721871065643985</v>
-      </c>
-      <c r="I125">
-        <v>0.1241166547162102</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>0.09739629364572706</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8">
       <c r="A126" s="1">
         <v>124</v>
       </c>
       <c r="B126">
-        <v>0.1070543450128768</v>
+        <v>0.1223192146248293</v>
       </c>
       <c r="C126">
-        <v>0.1241322239676638</v>
+        <v>0.1439391822493989</v>
       </c>
       <c r="D126">
-        <v>0.1242551007368605</v>
+        <v>0.1490521373521707</v>
       </c>
       <c r="E126">
-        <v>0.1251352531179688</v>
+        <v>0.1448048743279128</v>
       </c>
       <c r="F126">
-        <v>0.1280535348883962</v>
+        <v>0.1474022684355337</v>
       </c>
       <c r="G126">
-        <v>0.1153371148336404</v>
+        <v>0.1304510146485647</v>
       </c>
       <c r="H126">
-        <v>0.1419514552614549</v>
-      </c>
-      <c r="I126">
-        <v>0.1340809721811385</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>0.16203130836159</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8">
       <c r="A127" s="1">
         <v>125</v>
       </c>
       <c r="B127">
-        <v>0.1179123771291416</v>
+        <v>0.1425016411177485</v>
       </c>
       <c r="C127">
-        <v>0.1253804012656283</v>
+        <v>0.1502964861082377</v>
       </c>
       <c r="D127">
-        <v>0.1042550043628371</v>
+        <v>0.122956324754836</v>
       </c>
       <c r="E127">
-        <v>0.1135461420037964</v>
+        <v>0.1327864591041079</v>
       </c>
       <c r="F127">
-        <v>0.1317429476407055</v>
+        <v>0.1562099034132806</v>
       </c>
       <c r="G127">
-        <v>0.1349222270825642</v>
+        <v>0.1608191644771559</v>
       </c>
       <c r="H127">
-        <v>0.1177277086603655</v>
-      </c>
-      <c r="I127">
-        <v>0.1545131918549614</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>0.1344300210246333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8">
       <c r="A128" s="1">
         <v>126</v>
       </c>
       <c r="B128">
-        <v>0.1626640396969593</v>
+        <v>0.1825805858482392</v>
       </c>
       <c r="C128">
-        <v>0.1064632292738241</v>
+        <v>0.1186686673437024</v>
       </c>
       <c r="D128">
-        <v>0.1471650823511786</v>
+        <v>0.1674624837260972</v>
       </c>
       <c r="E128">
-        <v>0.125035143203177</v>
+        <v>0.1437708766342159</v>
       </c>
       <c r="F128">
-        <v>0.08828660188984518</v>
+        <v>0.1002634103880639</v>
       </c>
       <c r="G128">
-        <v>0.1594533834029634</v>
+        <v>0.1757052140749004</v>
       </c>
       <c r="H128">
-        <v>0.09824107438962432</v>
-      </c>
-      <c r="I128">
-        <v>0.112691445792428</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>0.1115487619847809</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8">
       <c r="A129" s="1">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0.1333544204307953</v>
+        <v>0.1494361482478458</v>
       </c>
       <c r="C129">
-        <v>0.1352194786900136</v>
+        <v>0.1573748789445614</v>
       </c>
       <c r="D129">
-        <v>0.1138976221697399</v>
+        <v>0.1256507249375867</v>
       </c>
       <c r="E129">
-        <v>0.1369239515526796</v>
+        <v>0.155976498856013</v>
       </c>
       <c r="F129">
-        <v>0.1176343846039639</v>
+        <v>0.132549822731048</v>
       </c>
       <c r="G129">
-        <v>0.1283139513512334</v>
+        <v>0.1438352822037011</v>
       </c>
       <c r="H129">
-        <v>0.1185181274265848</v>
-      </c>
-      <c r="I129">
-        <v>0.1161380637749894</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>0.1351766440792441</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8">
       <c r="A130" s="1">
         <v>128</v>
       </c>
       <c r="B130">
-        <v>0.1002974045018812</v>
+        <v>0.1148507817402755</v>
       </c>
       <c r="C130">
-        <v>0.1256371363820596</v>
+        <v>0.1380473343546122</v>
       </c>
       <c r="D130">
-        <v>0.1265220797164624</v>
+        <v>0.1352615690939042</v>
       </c>
       <c r="E130">
-        <v>0.1271556682153257</v>
+        <v>0.1437501225044802</v>
       </c>
       <c r="F130">
-        <v>0.1450011184889943</v>
+        <v>0.1612656646862642</v>
       </c>
       <c r="G130">
-        <v>0.1140026348547513</v>
+        <v>0.1272872814866994</v>
       </c>
       <c r="H130">
-        <v>0.1581695378908831</v>
-      </c>
-      <c r="I130">
-        <v>0.1032144199496423</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>0.1795372461337643</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8">
       <c r="A131" s="1">
         <v>129</v>
       </c>
       <c r="B131">
-        <v>0.1757131665780027</v>
+        <v>0.1961071670403637</v>
       </c>
       <c r="C131">
-        <v>0.1118988523649874</v>
+        <v>0.1290005392861441</v>
       </c>
       <c r="D131">
-        <v>0.1200348443848312</v>
+        <v>0.1314474798950317</v>
       </c>
       <c r="E131">
-        <v>0.1180776381463492</v>
+        <v>0.1311112766865757</v>
       </c>
       <c r="F131">
-        <v>0.1094953300503415</v>
+        <v>0.1307701653147917</v>
       </c>
       <c r="G131">
-        <v>0.1516773019265489</v>
+        <v>0.1653411252786504</v>
       </c>
       <c r="H131">
-        <v>0.1034484132250565</v>
-      </c>
-      <c r="I131">
-        <v>0.1096544533238824</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>0.1162222464984427</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8">
       <c r="A132" s="1">
         <v>130</v>
       </c>
       <c r="B132">
-        <v>0.1289532409080449</v>
+        <v>0.144365403792703</v>
       </c>
       <c r="C132">
-        <v>0.1292421843852136</v>
+        <v>0.1477826394613035</v>
       </c>
       <c r="D132">
-        <v>0.1295083002337952</v>
+        <v>0.149125283817844</v>
       </c>
       <c r="E132">
-        <v>0.1356320245176793</v>
+        <v>0.1539576545025149</v>
       </c>
       <c r="F132">
-        <v>0.1249042856083471</v>
+        <v>0.1430436030499007</v>
       </c>
       <c r="G132">
-        <v>0.1329830541398811</v>
+        <v>0.1478885273338495</v>
       </c>
       <c r="H132">
-        <v>0.09969527767783745</v>
-      </c>
-      <c r="I132">
-        <v>0.1190816325292013</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>0.1138368880418845</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8">
       <c r="A133" s="1">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0.1920207059176779</v>
+        <v>0.2204130694858227</v>
       </c>
       <c r="C133">
-        <v>0.1073620505337866</v>
+        <v>0.1164277107564623</v>
       </c>
       <c r="D133">
-        <v>0.1295910016073984</v>
+        <v>0.1491395543750278</v>
       </c>
       <c r="E133">
-        <v>0.1083812883779712</v>
+        <v>0.1242663174753822</v>
       </c>
       <c r="F133">
-        <v>0.08144885680110255</v>
+        <v>0.08616560110948895</v>
       </c>
       <c r="G133">
-        <v>0.1899601147627714</v>
+        <v>0.218528469439691</v>
       </c>
       <c r="H133">
-        <v>0.08001892209331637</v>
-      </c>
-      <c r="I133">
-        <v>0.1112170599059756</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>0.08505927735812496</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8">
       <c r="A134" s="1">
         <v>132</v>
       </c>
       <c r="B134">
-        <v>0.1675042663474516</v>
+        <v>0.1911919206235322</v>
       </c>
       <c r="C134">
-        <v>0.1154364510186932</v>
+        <v>0.1332823025688842</v>
       </c>
       <c r="D134">
-        <v>0.1148804373497985</v>
+        <v>0.1295965534348969</v>
       </c>
       <c r="E134">
-        <v>0.1109421568936908</v>
+        <v>0.1244449511567927</v>
       </c>
       <c r="F134">
-        <v>0.09694533298971697</v>
+        <v>0.1090760827010918</v>
       </c>
       <c r="G134">
-        <v>0.1720208635518079</v>
+        <v>0.1959026089245019</v>
       </c>
       <c r="H134">
-        <v>0.1005689419545201</v>
-      </c>
-      <c r="I134">
-        <v>0.121701549894321</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>0.1165055805903004</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8">
       <c r="A135" s="1">
         <v>133</v>
       </c>
       <c r="B135">
-        <v>0.1285562246408594</v>
+        <v>0.1499226959377866</v>
       </c>
       <c r="C135">
-        <v>0.1260472040825223</v>
+        <v>0.1435395445639225</v>
       </c>
       <c r="D135">
-        <v>0.1180564183151667</v>
+        <v>0.1335433481343373</v>
       </c>
       <c r="E135">
-        <v>0.125544011243922</v>
+        <v>0.141020148028498</v>
       </c>
       <c r="F135">
-        <v>0.1209981109126867</v>
+        <v>0.136276359085577</v>
       </c>
       <c r="G135">
-        <v>0.1230998514590601</v>
+        <v>0.1434064211025649</v>
       </c>
       <c r="H135">
-        <v>0.1344404769377809</v>
-      </c>
-      <c r="I135">
-        <v>0.1232577024080018</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>0.1522914831473137</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8">
       <c r="A136" s="1">
         <v>134</v>
       </c>
       <c r="B136">
-        <v>0.09458353456037087</v>
+        <v>0.1075462463048048</v>
       </c>
       <c r="C136">
-        <v>0.1175493809324463</v>
+        <v>0.1355756926940847</v>
       </c>
       <c r="D136">
-        <v>0.1316673091661677</v>
+        <v>0.1495404195854314</v>
       </c>
       <c r="E136">
-        <v>0.1336969257347868</v>
+        <v>0.1506058770509432</v>
       </c>
       <c r="F136">
-        <v>0.1684110204559587</v>
+        <v>0.1885259729545901</v>
       </c>
       <c r="G136">
-        <v>0.1013716318655583</v>
+        <v>0.114357627721155</v>
       </c>
       <c r="H136">
-        <v>0.1363750447368662</v>
-      </c>
-      <c r="I136">
-        <v>0.1163451525478451</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>0.1538481636889908</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8">
       <c r="A137" s="1">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>0.1020178583339242</v>
+        <v>0.1184605893033579</v>
       </c>
       <c r="C137">
-        <v>0.1317214918086668</v>
+        <v>0.1532671421602746</v>
       </c>
       <c r="D137">
-        <v>0.1134314633466569</v>
+        <v>0.1296520466352217</v>
       </c>
       <c r="E137">
-        <v>0.1315770564539773</v>
+        <v>0.1473705851172747</v>
       </c>
       <c r="F137">
-        <v>0.1275816464606592</v>
+        <v>0.1472315069237493</v>
       </c>
       <c r="G137">
-        <v>0.1198621594844487</v>
+        <v>0.136727580717116</v>
       </c>
       <c r="H137">
-        <v>0.1475442790561248</v>
-      </c>
-      <c r="I137">
-        <v>0.1262640450555423</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>0.1672905491430057</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8">
       <c r="A138" s="1">
         <v>136</v>
       </c>
       <c r="B138">
-        <v>0.1194192200462473</v>
+        <v>0.1360441293746096</v>
       </c>
       <c r="C138">
-        <v>0.1281065628750652</v>
+        <v>0.147135801099438</v>
       </c>
       <c r="D138">
-        <v>0.1237767479811606</v>
+        <v>0.1425593310444327</v>
       </c>
       <c r="E138">
-        <v>0.1224881409757514</v>
+        <v>0.1391775992901705</v>
       </c>
       <c r="F138">
-        <v>0.1244600999127953</v>
+        <v>0.1422952839397873</v>
       </c>
       <c r="G138">
-        <v>0.1133658042973153</v>
+        <v>0.1340994494041762</v>
       </c>
       <c r="H138">
-        <v>0.1361320947855769</v>
-      </c>
-      <c r="I138">
-        <v>0.1322513291260881</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>0.1586884058473858</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8">
       <c r="A139" s="1">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>0.1084356394664129</v>
+        <v>0.1228954183964708</v>
       </c>
       <c r="C139">
-        <v>0.1244662051216103</v>
+        <v>0.145848768936846</v>
       </c>
       <c r="D139">
-        <v>0.1297009391438228</v>
+        <v>0.1506057143773906</v>
       </c>
       <c r="E139">
-        <v>0.1269392456029466</v>
+        <v>0.1482573471664632</v>
       </c>
       <c r="F139">
-        <v>0.1289433295766747</v>
+        <v>0.1474993411060684</v>
       </c>
       <c r="G139">
-        <v>0.1148915690811394</v>
+        <v>0.1356828133124277</v>
       </c>
       <c r="H139">
-        <v>0.1308636920328582</v>
-      </c>
-      <c r="I139">
-        <v>0.1357593799745351</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>0.1492105967043334</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8">
       <c r="A140" s="1">
         <v>138</v>
       </c>
       <c r="B140">
-        <v>0.1095931969865773</v>
+        <v>0.1287516413546286</v>
       </c>
       <c r="C140">
-        <v>0.1256589868746765</v>
+        <v>0.1434217920371672</v>
       </c>
       <c r="D140">
-        <v>0.1191183991556429</v>
+        <v>0.1367180544725206</v>
       </c>
       <c r="E140">
-        <v>0.1281800232990745</v>
+        <v>0.1514028885579056</v>
       </c>
       <c r="F140">
-        <v>0.1274362963451319</v>
+        <v>0.1444443405884957</v>
       </c>
       <c r="G140">
-        <v>0.1327050587049216</v>
+        <v>0.1515161106546143</v>
       </c>
       <c r="H140">
-        <v>0.1231696452997325</v>
-      </c>
-      <c r="I140">
-        <v>0.1341383933342429</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>0.1437451723346681</v>
+      </c>
+    </row>
+    <row r="141" spans="1:8">
       <c r="A141" s="1">
         <v>139</v>
       </c>
       <c r="B141">
-        <v>0.09750444207145892</v>
+        <v>0.1119856985890606</v>
       </c>
       <c r="C141">
-        <v>0.122364226962531</v>
+        <v>0.1405492583974193</v>
       </c>
       <c r="D141">
-        <v>0.1179677306536601</v>
+        <v>0.1399419106757868</v>
       </c>
       <c r="E141">
-        <v>0.1170793092856073</v>
+        <v>0.1330670137787245</v>
       </c>
       <c r="F141">
-        <v>0.1177079127923024</v>
+        <v>0.1342175314886898</v>
       </c>
       <c r="G141">
-        <v>0.1054744505487294</v>
+        <v>0.1251627656444472</v>
       </c>
       <c r="H141">
-        <v>0.1781662874907226</v>
-      </c>
-      <c r="I141">
-        <v>0.1437356401949884</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>0.2150758214258719</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8">
       <c r="A142" s="1">
         <v>140</v>
       </c>
       <c r="B142">
-        <v>0.1420717873155294</v>
+        <v>0.1547268786452501</v>
       </c>
       <c r="C142">
-        <v>0.1182235642275568</v>
+        <v>0.1363427214694646</v>
       </c>
       <c r="D142">
-        <v>0.1053701041112302</v>
+        <v>0.1159623763462695</v>
       </c>
       <c r="E142">
-        <v>0.1235808742981093</v>
+        <v>0.1416757414113627</v>
       </c>
       <c r="F142">
-        <v>0.1212274427373905</v>
+        <v>0.1366221524694934</v>
       </c>
       <c r="G142">
-        <v>0.175853180708734</v>
+        <v>0.198805119904699</v>
       </c>
       <c r="H142">
-        <v>0.1041051851242471</v>
-      </c>
-      <c r="I142">
-        <v>0.1095678614772026</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>0.1158650097534606</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8">
       <c r="A143" s="1">
         <v>141</v>
       </c>
       <c r="B143">
-        <v>0.04943767304199557</v>
+        <v>0.04101623571576236</v>
       </c>
       <c r="C143">
-        <v>0.09337137102613595</v>
+        <v>0.08989738984959975</v>
       </c>
       <c r="D143">
-        <v>0.1649198967682852</v>
+        <v>0.1928226350532599</v>
       </c>
       <c r="E143">
-        <v>0.1221937457471011</v>
+        <v>0.1333872142048406</v>
       </c>
       <c r="F143">
-        <v>0.376533256073207</v>
+        <v>0.4534870105219908</v>
       </c>
       <c r="G143">
-        <v>0.04975929595316154</v>
+        <v>0.04238163430771042</v>
       </c>
       <c r="H143">
-        <v>0.0552928006343965</v>
-      </c>
-      <c r="I143">
-        <v>0.08849196075571715</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>0.04700788034683633</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8">
       <c r="A144" s="1">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0.09798378510258743</v>
+        <v>0.1152117250286126</v>
       </c>
       <c r="C144">
-        <v>0.151570846758462</v>
+        <v>0.167363642386811</v>
       </c>
       <c r="D144">
-        <v>0.1174383427738124</v>
+        <v>0.1411762285969198</v>
       </c>
       <c r="E144">
-        <v>0.1224873138462903</v>
+        <v>0.1399712819455911</v>
       </c>
       <c r="F144">
-        <v>0.1501067488769843</v>
+        <v>0.1751081404234744</v>
       </c>
       <c r="G144">
-        <v>0.1051144928514351</v>
+        <v>0.1199068778644796</v>
       </c>
       <c r="H144">
-        <v>0.1273141188435546</v>
-      </c>
-      <c r="I144">
-        <v>0.1279843509468739</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>0.1412621037541115</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8">
       <c r="A145" s="1">
         <v>143</v>
       </c>
       <c r="B145">
-        <v>0.1199871893399675</v>
+        <v>0.132567199769341</v>
       </c>
       <c r="C145">
-        <v>0.1154938692928256</v>
+        <v>0.1286196320417386</v>
       </c>
       <c r="D145">
-        <v>0.1371409590638572</v>
+        <v>0.1467456240736351</v>
       </c>
       <c r="E145">
-        <v>0.1315205579282639</v>
+        <v>0.142030843703911</v>
       </c>
       <c r="F145">
-        <v>0.1814558694475274</v>
+        <v>0.2053606563490716</v>
       </c>
       <c r="G145">
-        <v>0.1020135509524434</v>
+        <v>0.1134871487554428</v>
       </c>
       <c r="H145">
-        <v>0.1157403435797735</v>
-      </c>
-      <c r="I145">
-        <v>0.09664766039534144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>0.1311888953068599</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8">
       <c r="A146" s="1">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0.193712482802526</v>
+        <v>0.2212709440097652</v>
       </c>
       <c r="C146">
-        <v>0.08468914272738813</v>
+        <v>0.09553477402261534</v>
       </c>
       <c r="D146">
-        <v>0.1594415103966974</v>
+        <v>0.1836093636256599</v>
       </c>
       <c r="E146">
-        <v>0.1254327435195429</v>
+        <v>0.1437670367894512</v>
       </c>
       <c r="F146">
-        <v>0.06609402657288434</v>
+        <v>0.07654895201882353</v>
       </c>
       <c r="G146">
-        <v>0.1730228316771535</v>
+        <v>0.1914755333951254</v>
       </c>
       <c r="H146">
-        <v>0.07942054007883169</v>
-      </c>
-      <c r="I146">
-        <v>0.1181867222249759</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>0.08779339613855928</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8">
       <c r="A147" s="1">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>0.1057052436610592</v>
+        <v>0.1196034058522722</v>
       </c>
       <c r="C147">
-        <v>0.1411441752257528</v>
+        <v>0.1638975064567676</v>
       </c>
       <c r="D147">
-        <v>0.1280095109703862</v>
+        <v>0.128462350533624</v>
       </c>
       <c r="E147">
-        <v>0.105501026840323</v>
+        <v>0.1120379123276097</v>
       </c>
       <c r="F147">
-        <v>0.1500501706011245</v>
+        <v>0.1666365722059795</v>
       </c>
       <c r="G147">
-        <v>0.1067660032858497</v>
+        <v>0.1095065614167272</v>
       </c>
       <c r="H147">
-        <v>0.1643191041128948</v>
-      </c>
-      <c r="I147">
-        <v>0.0985047653026099</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>0.1998556912070197</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8">
       <c r="A148" s="1">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0.1185894903134753</v>
+        <v>0.1353086776222339</v>
       </c>
       <c r="C148">
-        <v>0.1231725435416979</v>
+        <v>0.1420044975570722</v>
       </c>
       <c r="D148">
-        <v>0.1169660388123024</v>
+        <v>0.1327181684572938</v>
       </c>
       <c r="E148">
-        <v>0.1246222385432644</v>
+        <v>0.1427967966333858</v>
       </c>
       <c r="F148">
-        <v>0.1145553157049575</v>
+        <v>0.1300453112738306</v>
       </c>
       <c r="G148">
-        <v>0.1243446715051215</v>
+        <v>0.1467778868951155</v>
       </c>
       <c r="H148">
-        <v>0.1479521672673729</v>
-      </c>
-      <c r="I148">
-        <v>0.1297975343118081</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>0.1703486615610682</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8">
       <c r="A149" s="1">
         <v>147</v>
       </c>
       <c r="B149">
-        <v>0.09904326749034512</v>
+        <v>0.1134682140608145</v>
       </c>
       <c r="C149">
-        <v>0.1236294444697393</v>
+        <v>0.1430649322606083</v>
       </c>
       <c r="D149">
-        <v>0.1218534930711678</v>
+        <v>0.1409161707600325</v>
       </c>
       <c r="E149">
-        <v>0.1201746835429942</v>
+        <v>0.1408521458959221</v>
       </c>
       <c r="F149">
-        <v>0.1346524479170008</v>
+        <v>0.1592570850884336</v>
       </c>
       <c r="G149">
-        <v>0.1148681843993362</v>
+        <v>0.132529657040885</v>
       </c>
       <c r="H149">
-        <v>0.1486137957930148</v>
-      </c>
-      <c r="I149">
-        <v>0.1371646833164018</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>0.1699117948933041</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8">
       <c r="A150" s="1">
         <v>148</v>
       </c>
       <c r="B150">
-        <v>0.163300344084586</v>
+        <v>0.1767418299145613</v>
       </c>
       <c r="C150">
-        <v>0.1114858887711313</v>
+        <v>0.1273312409885573</v>
       </c>
       <c r="D150">
-        <v>0.1292930213949584</v>
+        <v>0.1434547259341392</v>
       </c>
       <c r="E150">
-        <v>0.1245326409169826</v>
+        <v>0.1388885322659089</v>
       </c>
       <c r="F150">
-        <v>0.1070113973284671</v>
+        <v>0.1203385250506459</v>
       </c>
       <c r="G150">
-        <v>0.1423435308595097</v>
+        <v>0.1610800143884676</v>
       </c>
       <c r="H150">
-        <v>0.1162152338277182</v>
-      </c>
-      <c r="I150">
-        <v>0.1058179428166467</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>0.1321651314577197</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8">
       <c r="A151" s="1">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0.09937512663544081</v>
+        <v>0.1165055884671557</v>
       </c>
       <c r="C151">
-        <v>0.1325708110183965</v>
+        <v>0.1516084530843542</v>
       </c>
       <c r="D151">
-        <v>0.1245969659531941</v>
+        <v>0.1415622524308844</v>
       </c>
       <c r="E151">
-        <v>0.1375783522207956</v>
+        <v>0.1572112013748343</v>
       </c>
       <c r="F151">
-        <v>0.1215719134028392</v>
+        <v>0.1367219273085417</v>
       </c>
       <c r="G151">
-        <v>0.1252529533558839</v>
+        <v>0.1433266786912395</v>
       </c>
       <c r="H151">
-        <v>0.1314671443570903</v>
-      </c>
-      <c r="I151">
-        <v>0.1275867330563597</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>0.1530638986429901</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8">
       <c r="A152" s="1">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0.1057597147485144</v>
+        <v>0.1255249544228535</v>
       </c>
       <c r="C152">
-        <v>0.1462086697757917</v>
+        <v>0.1689277364405665</v>
       </c>
       <c r="D152">
-        <v>0.1157325661947407</v>
+        <v>0.1363403638568681</v>
       </c>
       <c r="E152">
-        <v>0.1139097331998329</v>
+        <v>0.1345747631549038</v>
       </c>
       <c r="F152">
-        <v>0.1338385942497245</v>
+        <v>0.1558793645628268</v>
       </c>
       <c r="G152">
-        <v>0.120175862914233</v>
+        <v>0.1423423669713905</v>
       </c>
       <c r="H152">
-        <v>0.1185536671637949</v>
-      </c>
-      <c r="I152">
-        <v>0.1458211917533678</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>0.1364104505905907</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8">
       <c r="A153" s="1">
         <v>151</v>
       </c>
       <c r="B153">
-        <v>0.1246110961071388</v>
+        <v>0.141178953232939</v>
       </c>
       <c r="C153">
-        <v>0.1379974268316672</v>
+        <v>0.1543794372834941</v>
       </c>
       <c r="D153">
-        <v>0.1061701634700081</v>
+        <v>0.1278540222767782</v>
       </c>
       <c r="E153">
-        <v>0.1177768020927108</v>
+        <v>0.138351813799072</v>
       </c>
       <c r="F153">
-        <v>0.1572153200205036</v>
+        <v>0.1731182437793497</v>
       </c>
       <c r="G153">
-        <v>0.1192029734572499</v>
+        <v>0.135034850420081</v>
       </c>
       <c r="H153">
-        <v>0.11327036832123</v>
-      </c>
-      <c r="I153">
-        <v>0.1237558496994914</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>0.130082679208286</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8">
       <c r="A154" s="1">
         <v>152</v>
       </c>
       <c r="B154">
-        <v>0.158876037684922</v>
+        <v>0.181445995676728</v>
       </c>
       <c r="C154">
-        <v>0.1040224527889731</v>
+        <v>0.1162537633288485</v>
       </c>
       <c r="D154">
-        <v>0.1517424556224819</v>
+        <v>0.1788632936021989</v>
       </c>
       <c r="E154">
-        <v>0.1470830585591864</v>
+        <v>0.174038782324226</v>
       </c>
       <c r="F154">
-        <v>0.07249569441092832</v>
+        <v>0.08117177971497846</v>
       </c>
       <c r="G154">
-        <v>0.1542597130427042</v>
+        <v>0.1722717562018524</v>
       </c>
       <c r="H154">
-        <v>0.08477363090391415</v>
-      </c>
-      <c r="I154">
-        <v>0.12674695698689</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>0.09595462915116765</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8">
       <c r="A155" s="1">
         <v>153</v>
       </c>
       <c r="B155">
-        <v>0.1594752376896218</v>
+        <v>0.1733146400556411</v>
       </c>
       <c r="C155">
-        <v>0.1026566442192815</v>
+        <v>0.1155111830376556</v>
       </c>
       <c r="D155">
-        <v>0.1319453163771689</v>
+        <v>0.1542657872253231</v>
       </c>
       <c r="E155">
-        <v>0.1327344979517972</v>
+        <v>0.1542164573231583</v>
       </c>
       <c r="F155">
-        <v>0.0838140871012437</v>
+        <v>0.0874092052215522</v>
       </c>
       <c r="G155">
-        <v>0.1736568149082346</v>
+        <v>0.2012739324528688</v>
       </c>
       <c r="H155">
-        <v>0.09918902722590833</v>
-      </c>
-      <c r="I155">
-        <v>0.1165283745267438</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>0.1140087946838008</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8">
       <c r="A156" s="1">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0.1235125540023313</v>
+        <v>0.1399713731862272</v>
       </c>
       <c r="C156">
-        <v>0.1329105912434304</v>
+        <v>0.1528160768231719</v>
       </c>
       <c r="D156">
-        <v>0.1311478699710032</v>
+        <v>0.149155298058964</v>
       </c>
       <c r="E156">
-        <v>0.1399229945659356</v>
+        <v>0.1624237468394406</v>
       </c>
       <c r="F156">
-        <v>0.1157812055305079</v>
+        <v>0.1327920497688576</v>
       </c>
       <c r="G156">
-        <v>0.1249430596084012</v>
+        <v>0.1409273816511574</v>
       </c>
       <c r="H156">
-        <v>0.1088700252478764</v>
-      </c>
-      <c r="I156">
-        <v>0.1229116998305142</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>0.1219140736721814</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8">
       <c r="A157" s="1">
         <v>155</v>
       </c>
       <c r="B157">
-        <v>0.1036255732462132</v>
+        <v>0.1206232834910988</v>
       </c>
       <c r="C157">
-        <v>0.106831775213963</v>
+        <v>0.1210759326077924</v>
       </c>
       <c r="D157">
-        <v>0.1348180849300642</v>
+        <v>0.1412661438490735</v>
       </c>
       <c r="E157">
-        <v>0.1434496844776801</v>
+        <v>0.1630781708495834</v>
       </c>
       <c r="F157">
-        <v>0.1435829266137915</v>
+        <v>0.1579361725351976</v>
       </c>
       <c r="G157">
-        <v>0.1120579172974036</v>
+        <v>0.1238701675573593</v>
       </c>
       <c r="H157">
-        <v>0.1493093402082679</v>
-      </c>
-      <c r="I157">
-        <v>0.1063246980126165</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>0.1721501291098951</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8">
       <c r="A158" s="1">
         <v>156</v>
       </c>
       <c r="B158">
-        <v>0.1445826720375979</v>
+        <v>0.1661763146906736</v>
       </c>
       <c r="C158">
-        <v>0.112685944669748</v>
+        <v>0.1274627723782869</v>
       </c>
       <c r="D158">
-        <v>0.1214125404531547</v>
+        <v>0.1399284699927041</v>
       </c>
       <c r="E158">
-        <v>0.126701976194271</v>
+        <v>0.1422248751037659</v>
       </c>
       <c r="F158">
-        <v>0.1016287806772675</v>
+        <v>0.1132733716560477</v>
       </c>
       <c r="G158">
-        <v>0.1464814869463228</v>
+        <v>0.1683930297780181</v>
       </c>
       <c r="H158">
-        <v>0.1236237704829534</v>
-      </c>
-      <c r="I158">
-        <v>0.1228828285386847</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>0.1425411664005036</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8">
       <c r="A159" s="1">
         <v>157</v>
       </c>
       <c r="B159">
-        <v>0.1004970268124092</v>
+        <v>0.1178718454401794</v>
       </c>
       <c r="C159">
-        <v>0.1270932140265001</v>
+        <v>0.1500964718828819</v>
       </c>
       <c r="D159">
-        <v>0.1247713555684792</v>
+        <v>0.1451520663796453</v>
       </c>
       <c r="E159">
-        <v>0.1288066743604779</v>
+        <v>0.1500840483325176</v>
       </c>
       <c r="F159">
-        <v>0.1266490051590733</v>
+        <v>0.1497823093005433</v>
       </c>
       <c r="G159">
-        <v>0.1208068867861742</v>
+        <v>0.1405941227331763</v>
       </c>
       <c r="H159">
-        <v>0.1271012621346709</v>
-      </c>
-      <c r="I159">
-        <v>0.1442745751522154</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>0.1464191359310563</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
       <c r="A160" s="1">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0.09764002988719724</v>
+        <v>0.1110396570694229</v>
       </c>
       <c r="C160">
-        <v>0.1218360180008533</v>
+        <v>0.1393080580147278</v>
       </c>
       <c r="D160">
-        <v>0.1127632527338128</v>
+        <v>0.1276150400213049</v>
       </c>
       <c r="E160">
-        <v>0.1316391370132364</v>
+        <v>0.1525862657421354</v>
       </c>
       <c r="F160">
-        <v>0.1426724571979761</v>
+        <v>0.1625255552655524</v>
       </c>
       <c r="G160">
-        <v>0.1124275444996921</v>
+        <v>0.1287025496658588</v>
       </c>
       <c r="H160">
-        <v>0.1514555032373958</v>
-      </c>
-      <c r="I160">
-        <v>0.1295660574298362</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>0.1782228742209978</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8">
       <c r="A161" s="1">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0.1573034094974269</v>
+        <v>0.1753206175205382</v>
       </c>
       <c r="C161">
-        <v>0.1324882821448283</v>
+        <v>0.1407200459988534</v>
       </c>
       <c r="D161">
-        <v>0.1134036581433524</v>
+        <v>0.1287975093585475</v>
       </c>
       <c r="E161">
-        <v>0.1192543636482239</v>
+        <v>0.1360056295474391</v>
       </c>
       <c r="F161">
-        <v>0.1223672872964222</v>
+        <v>0.1371335810109025</v>
       </c>
       <c r="G161">
-        <v>0.1267983932127942</v>
+        <v>0.1455126850148108</v>
       </c>
       <c r="H161">
-        <v>0.1270946240756917</v>
-      </c>
-      <c r="I161">
-        <v>0.1012899819812604</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>0.1365099315489085</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
       <c r="A162" s="1">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0.1040206417951305</v>
+        <v>0.1164113073651697</v>
       </c>
       <c r="C162">
-        <v>0.1284264901228815</v>
+        <v>0.1494046306936751</v>
       </c>
       <c r="D162">
-        <v>0.1191863058655779</v>
+        <v>0.1403526647443468</v>
       </c>
       <c r="E162">
-        <v>0.1214178158029643</v>
+        <v>0.142424599855979</v>
       </c>
       <c r="F162">
-        <v>0.1387880333178098</v>
+        <v>0.1589010899954335</v>
       </c>
       <c r="G162">
-        <v>0.1112323402342648</v>
+        <v>0.1303434845014703</v>
       </c>
       <c r="H162">
-        <v>0.1422836763426384</v>
-      </c>
-      <c r="I162">
-        <v>0.1346446965187328</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>0.1621622228439255</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
       <c r="A163" s="1">
         <v>161</v>
       </c>
       <c r="B163">
-        <v>0.09809564133928621</v>
+        <v>0.114051588360858</v>
       </c>
       <c r="C163">
-        <v>0.1250303642131891</v>
+        <v>0.1438149511619612</v>
       </c>
       <c r="D163">
-        <v>0.1340658102697243</v>
+        <v>0.1525559329754929</v>
       </c>
       <c r="E163">
-        <v>0.1330804631740332</v>
+        <v>0.1537598436343187</v>
       </c>
       <c r="F163">
-        <v>0.1239804871107245</v>
+        <v>0.1414540358869161</v>
       </c>
       <c r="G163">
-        <v>0.121595673387543</v>
+        <v>0.137244804446741</v>
       </c>
       <c r="H163">
-        <v>0.132684396805812</v>
-      </c>
-      <c r="I163">
-        <v>0.1314671636996878</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>0.1571188435337122</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8">
       <c r="A164" s="1">
         <v>162</v>
       </c>
       <c r="B164">
-        <v>0.02837134828463983</v>
+        <v>0.03056150805855084</v>
       </c>
       <c r="C164">
-        <v>0.1032542550533199</v>
+        <v>0.1112263277164775</v>
       </c>
       <c r="D164">
-        <v>0.2368320099208567</v>
+        <v>0.2631154432427231</v>
       </c>
       <c r="E164">
-        <v>0.2994238554438866</v>
+        <v>0.3175754386483689</v>
       </c>
       <c r="F164">
-        <v>0.1629333319199392</v>
+        <v>0.1657760047874094</v>
       </c>
       <c r="G164">
-        <v>0.0706365221814511</v>
+        <v>0.07609009097973553</v>
       </c>
       <c r="H164">
-        <v>0.03309992084521197</v>
-      </c>
-      <c r="I164">
-        <v>0.06544875635069479</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>0.03565518656673484</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
       <c r="A165" s="1">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0.0009815168817742276</v>
+        <v>0.0006337610428390109</v>
       </c>
       <c r="C165">
-        <v>0.03705188979672484</v>
+        <v>0.03280533434923446</v>
       </c>
       <c r="D165">
-        <v>0.2343914096509082</v>
+        <v>0.2654847953192995</v>
       </c>
       <c r="E165">
-        <v>0.2392744864366073</v>
+        <v>0.2835410544967436</v>
       </c>
       <c r="F165">
-        <v>0.3501211309430295</v>
+        <v>0.3538665772411455</v>
       </c>
       <c r="G165">
-        <v>0.05224100535590029</v>
+        <v>0.05393090353603997</v>
       </c>
       <c r="H165">
-        <v>0.01546531095267146</v>
-      </c>
-      <c r="I165">
-        <v>0.07047324998238415</v>
-      </c>
-    </row>
-    <row r="166" spans="1:9">
+        <v>0.009737574014698099</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
       <c r="A166" s="1">
         <v>164</v>
       </c>
       <c r="B166">
-        <v>0.1667176995244848</v>
+        <v>0.1945918587567763</v>
       </c>
       <c r="C166">
-        <v>0.1119669429300119</v>
+        <v>0.1305455806313935</v>
       </c>
       <c r="D166">
-        <v>0.1196372714193923</v>
+        <v>0.1315994729837766</v>
       </c>
       <c r="E166">
-        <v>0.1196176040192152</v>
+        <v>0.1322271541722582</v>
       </c>
       <c r="F166">
-        <v>0.1108719088821882</v>
+        <v>0.1271238074052461</v>
       </c>
       <c r="G166">
-        <v>0.1603982833289779</v>
+        <v>0.174351180294094</v>
       </c>
       <c r="H166">
-        <v>0.09705877012752652</v>
-      </c>
-      <c r="I166">
-        <v>0.1137315197682032</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>0.1095609457564552</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8">
       <c r="A167" s="1">
         <v>165</v>
       </c>
       <c r="B167">
-        <v>0.1189245118339785</v>
+        <v>0.1364103744314935</v>
       </c>
       <c r="C167">
-        <v>0.1135242915644676</v>
+        <v>0.1289616340943783</v>
       </c>
       <c r="D167">
-        <v>0.115398819733137</v>
+        <v>0.1316643361545539</v>
       </c>
       <c r="E167">
-        <v>0.1156914443860279</v>
+        <v>0.1312662605698705</v>
       </c>
       <c r="F167">
-        <v>0.1259452870387134</v>
+        <v>0.1451536260147177</v>
       </c>
       <c r="G167">
-        <v>0.1189723690242454</v>
+        <v>0.1389003393533552</v>
       </c>
       <c r="H167">
-        <v>0.1611423514931605</v>
-      </c>
-      <c r="I167">
-        <v>0.1304009249262698</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>0.1876434293816309</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
       <c r="A168" s="1">
         <v>166</v>
       </c>
       <c r="B168">
-        <v>0.2692490829083083</v>
+        <v>0.3077934238570754</v>
       </c>
       <c r="C168">
-        <v>0.08232388210004815</v>
+        <v>0.09010919237964492</v>
       </c>
       <c r="D168">
-        <v>0.1150584791705932</v>
+        <v>0.1303782327929506</v>
       </c>
       <c r="E168">
-        <v>0.1380133410886135</v>
+        <v>0.1523387173124053</v>
       </c>
       <c r="F168">
-        <v>0.0777185677767957</v>
+        <v>0.09094389200321705</v>
       </c>
       <c r="G168">
-        <v>0.1339467435935994</v>
+        <v>0.1502258917032686</v>
       </c>
       <c r="H168">
-        <v>0.07141758687435527</v>
-      </c>
-      <c r="I168">
-        <v>0.1122723164876864</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>0.07821064995143821</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
       <c r="A169" s="1">
         <v>167</v>
       </c>
       <c r="B169">
-        <v>0.09017311379996198</v>
+        <v>0.1010764778390136</v>
       </c>
       <c r="C169">
-        <v>0.1068289634749169</v>
+        <v>0.1150124007182466</v>
       </c>
       <c r="D169">
-        <v>0.1474836930167193</v>
+        <v>0.1597763557314722</v>
       </c>
       <c r="E169">
-        <v>0.1353436752508445</v>
+        <v>0.1544922842451042</v>
       </c>
       <c r="F169">
-        <v>0.2391383148084373</v>
+        <v>0.2637088118383227</v>
       </c>
       <c r="G169">
-        <v>0.07943807665692305</v>
+        <v>0.08330672784346524</v>
       </c>
       <c r="H169">
-        <v>0.1089756015248747</v>
-      </c>
-      <c r="I169">
-        <v>0.09261856146732231</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>0.1226269417843755</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8">
       <c r="A170" s="1">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>0.04495041143599057</v>
+        <v>0.04830068026770758</v>
       </c>
       <c r="C170">
-        <v>0.0765071843665819</v>
+        <v>0.08434385116456611</v>
       </c>
       <c r="D170">
-        <v>0.1960215563212244</v>
+        <v>0.209830313723148</v>
       </c>
       <c r="E170">
-        <v>0.1540860415268959</v>
+        <v>0.1670017957402614</v>
       </c>
       <c r="F170">
-        <v>0.334460124390212</v>
+        <v>0.3553934589687203</v>
       </c>
       <c r="G170">
-        <v>0.06043841849858543</v>
+        <v>0.06691545940246292</v>
       </c>
       <c r="H170">
-        <v>0.06294482099786565</v>
-      </c>
-      <c r="I170">
-        <v>0.07059144246264412</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>0.06821444073313368</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
       <c r="A171" s="1">
         <v>169</v>
       </c>
       <c r="B171">
-        <v>0.1001439090510558</v>
+        <v>0.1176655451111375</v>
       </c>
       <c r="C171">
-        <v>0.1290551165384188</v>
+        <v>0.1495138853087524</v>
       </c>
       <c r="D171">
-        <v>0.1238521269697676</v>
+        <v>0.1412767506147001</v>
       </c>
       <c r="E171">
-        <v>0.1285671053366071</v>
+        <v>0.1531265496114639</v>
       </c>
       <c r="F171">
-        <v>0.1247824020352288</v>
+        <v>0.1448363596527149</v>
       </c>
       <c r="G171">
-        <v>0.1154548318764937</v>
+        <v>0.1331619852270444</v>
       </c>
       <c r="H171">
-        <v>0.13700983474756</v>
-      </c>
-      <c r="I171">
-        <v>0.1411346734448684</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>0.160418924474187</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
       <c r="A172" s="1">
         <v>170</v>
       </c>
       <c r="B172">
-        <v>0.1665048587231563</v>
+        <v>0.1946213154181127</v>
       </c>
       <c r="C172">
-        <v>0.09797751394241647</v>
+        <v>0.1088959373209427</v>
       </c>
       <c r="D172">
-        <v>0.1614507727161906</v>
+        <v>0.1859432860555401</v>
       </c>
       <c r="E172">
-        <v>0.1308791777534516</v>
+        <v>0.1480768740294149</v>
       </c>
       <c r="F172">
-        <v>0.07696922410889484</v>
+        <v>0.08802489728611938</v>
       </c>
       <c r="G172">
-        <v>0.1480375692104543</v>
+        <v>0.1675742931636568</v>
       </c>
       <c r="H172">
-        <v>0.09510297630970069</v>
-      </c>
-      <c r="I172">
-        <v>0.1230779072357353</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>0.1068633967262136</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8">
       <c r="A173" s="1">
         <v>171</v>
       </c>
       <c r="B173">
-        <v>0.1006657828232684</v>
+        <v>0.115786278304447</v>
       </c>
       <c r="C173">
-        <v>0.1365719246312472</v>
+        <v>0.1584352049846467</v>
       </c>
       <c r="D173">
-        <v>0.1046651198011632</v>
+        <v>0.1252493716874774</v>
       </c>
       <c r="E173">
-        <v>0.1066570943387096</v>
+        <v>0.1254825619653934</v>
       </c>
       <c r="F173">
-        <v>0.1407274622025432</v>
+        <v>0.165578490739429</v>
       </c>
       <c r="G173">
-        <v>0.09849246461675309</v>
+        <v>0.114975803364972</v>
       </c>
       <c r="H173">
-        <v>0.1697430697548991</v>
-      </c>
-      <c r="I173">
-        <v>0.142477081831416</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>0.1944922889536347</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
       <c r="A174" s="1">
         <v>172</v>
       </c>
       <c r="B174">
-        <v>0.1367133210411066</v>
+        <v>0.1560172919202364</v>
       </c>
       <c r="C174">
-        <v>0.1112990320105657</v>
+        <v>0.1250384229121211</v>
       </c>
       <c r="D174">
-        <v>0.1335787865484921</v>
+        <v>0.1511947117646234</v>
       </c>
       <c r="E174">
-        <v>0.1419104204989664</v>
+        <v>0.1613614608562244</v>
       </c>
       <c r="F174">
-        <v>0.1304938980203837</v>
+        <v>0.1508134062854298</v>
       </c>
       <c r="G174">
-        <v>0.1323469066189236</v>
+        <v>0.1503205481364859</v>
       </c>
       <c r="H174">
-        <v>0.09420790854307282</v>
-      </c>
-      <c r="I174">
-        <v>0.1194497267184889</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>0.1052541581248791</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
       <c r="A175" s="1">
         <v>173</v>
       </c>
       <c r="B175">
-        <v>0.1098178893751548</v>
+        <v>0.1249975852087787</v>
       </c>
       <c r="C175">
-        <v>0.1208522289497982</v>
+        <v>0.1464062581271077</v>
       </c>
       <c r="D175">
-        <v>0.102823521547766</v>
+        <v>0.1220224880417597</v>
       </c>
       <c r="E175">
-        <v>0.1162291337692359</v>
+        <v>0.1391868107682497</v>
       </c>
       <c r="F175">
-        <v>0.1595056726770862</v>
+        <v>0.1855833011302258</v>
       </c>
       <c r="G175">
-        <v>0.09800550663872579</v>
+        <v>0.114513875248439</v>
       </c>
       <c r="H175">
-        <v>0.1435064330943459</v>
-      </c>
-      <c r="I175">
-        <v>0.1492596139478873</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>0.1672896814754394</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8">
       <c r="A176" s="1">
         <v>174</v>
       </c>
       <c r="B176">
-        <v>0.1449487525296843</v>
+        <v>0.163292798537825</v>
       </c>
       <c r="C176">
-        <v>0.1236242711155831</v>
+        <v>0.142230132984504</v>
       </c>
       <c r="D176">
-        <v>0.1247170797184254</v>
+        <v>0.1417091453149144</v>
       </c>
       <c r="E176">
-        <v>0.1235166694002555</v>
+        <v>0.1449544867178874</v>
       </c>
       <c r="F176">
-        <v>0.11753984015751</v>
+        <v>0.1353612324448187</v>
       </c>
       <c r="G176">
-        <v>0.1325614470922308</v>
+        <v>0.1509567230479811</v>
       </c>
       <c r="H176">
-        <v>0.106063654257751</v>
-      </c>
-      <c r="I176">
-        <v>0.12702828572856</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>0.1214954809520694</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
       <c r="A177" s="1">
         <v>175</v>
       </c>
       <c r="B177">
-        <v>0.1582809770701364</v>
+        <v>0.1805334621276139</v>
       </c>
       <c r="C177">
-        <v>0.1181931123444271</v>
+        <v>0.1295779409164305</v>
       </c>
       <c r="D177">
-        <v>0.1295164260398829</v>
+        <v>0.143319498184781</v>
       </c>
       <c r="E177">
-        <v>0.1236035421025164</v>
+        <v>0.13865874839393</v>
       </c>
       <c r="F177">
-        <v>0.1301702351827847</v>
+        <v>0.1424708986021217</v>
       </c>
       <c r="G177">
-        <v>0.1419998681224315</v>
+        <v>0.1623104861511427</v>
       </c>
       <c r="H177">
-        <v>0.09086889735203929</v>
-      </c>
-      <c r="I177">
-        <v>0.1073669417857817</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>0.1031289656239802</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
       <c r="A178" s="1">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0.176260372679941</v>
+        <v>0.2032916541166362</v>
       </c>
       <c r="C178">
-        <v>0.1007026312019474</v>
+        <v>0.1115407439311368</v>
       </c>
       <c r="D178">
-        <v>0.1345937963762402</v>
+        <v>0.1525200228074856</v>
       </c>
       <c r="E178">
-        <v>0.1361889395711617</v>
+        <v>0.1489316676575426</v>
       </c>
       <c r="F178">
-        <v>0.07615275196214998</v>
+        <v>0.0845098389502176</v>
       </c>
       <c r="G178">
-        <v>0.1695024585570679</v>
+        <v>0.1894056363481226</v>
       </c>
       <c r="H178">
-        <v>0.09763969496845541</v>
-      </c>
-      <c r="I178">
-        <v>0.1089593546830363</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>0.1098004361888586</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8">
       <c r="A179" s="1">
         <v>177</v>
       </c>
       <c r="B179">
-        <v>0.09830580726262042</v>
+        <v>0.1105426726324142</v>
       </c>
       <c r="C179">
-        <v>0.1223736227938744</v>
+        <v>0.1445196805677131</v>
       </c>
       <c r="D179">
-        <v>0.1444839172266059</v>
+        <v>0.1642028193922556</v>
       </c>
       <c r="E179">
-        <v>0.1450108728987104</v>
+        <v>0.1671235294523372</v>
       </c>
       <c r="F179">
-        <v>0.1165346364674856</v>
+        <v>0.1369589554883654</v>
       </c>
       <c r="G179">
-        <v>0.09685120910518161</v>
+        <v>0.1099575146065408</v>
       </c>
       <c r="H179">
-        <v>0.1504501583086029</v>
-      </c>
-      <c r="I179">
-        <v>0.1259897759369188</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>0.1666948278603737</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
       <c r="A180" s="1">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0.1389226908528941</v>
+        <v>0.1588553790453541</v>
       </c>
       <c r="C180">
-        <v>0.1205849453814924</v>
+        <v>0.1358114510293111</v>
       </c>
       <c r="D180">
-        <v>0.1185301893521326</v>
+        <v>0.1334566151166618</v>
       </c>
       <c r="E180">
-        <v>0.116810899447611</v>
+        <v>0.1307988832699149</v>
       </c>
       <c r="F180">
-        <v>0.1250883973269449</v>
+        <v>0.1435985964909569</v>
       </c>
       <c r="G180">
-        <v>0.1520331186441463</v>
+        <v>0.1703097440801404</v>
       </c>
       <c r="H180">
-        <v>0.1105919207070371</v>
-      </c>
-      <c r="I180">
-        <v>0.1174378382877418</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>0.1271693309676607</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
       <c r="A181" s="1">
         <v>179</v>
       </c>
       <c r="B181">
-        <v>0.08844290645455508</v>
+        <v>0.09732262911527145</v>
       </c>
       <c r="C181">
-        <v>0.09683805918504231</v>
+        <v>0.1167827704881864</v>
       </c>
       <c r="D181">
-        <v>0.116305795616291</v>
+        <v>0.1390359256288219</v>
       </c>
       <c r="E181">
-        <v>0.09006698747754358</v>
+        <v>0.1028688883226407</v>
       </c>
       <c r="F181">
-        <v>0.3390522353605173</v>
+        <v>0.3216045948814594</v>
       </c>
       <c r="G181">
-        <v>0.07589275301165994</v>
+        <v>0.09395385287166876</v>
       </c>
       <c r="H181">
-        <v>0.1051440394511218</v>
-      </c>
-      <c r="I181">
-        <v>0.08825722344326899</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>0.1284313386919513</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8">
       <c r="A182" s="1">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0.06980907803210849</v>
+        <v>0.08209466251767795</v>
       </c>
       <c r="C182">
-        <v>0.09165977833297172</v>
+        <v>0.09402972397542572</v>
       </c>
       <c r="D182">
-        <v>0.2021573823651589</v>
+        <v>0.199935293891938</v>
       </c>
       <c r="E182">
-        <v>0.1640667943657023</v>
+        <v>0.1723334943875835</v>
       </c>
       <c r="F182">
-        <v>0.2156981154842352</v>
+        <v>0.259551012613407</v>
       </c>
       <c r="G182">
-        <v>0.1137064684716303</v>
+        <v>0.1127185389142925</v>
       </c>
       <c r="H182">
-        <v>0.07125784889546025</v>
-      </c>
-      <c r="I182">
-        <v>0.07164453405273286</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>0.07933727369967535</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
       <c r="A183" s="1">
         <v>181</v>
       </c>
       <c r="B183">
-        <v>0.1394738137511649</v>
+        <v>0.1570861785141277</v>
       </c>
       <c r="C183">
-        <v>0.111653907744725</v>
+        <v>0.1259622327978162</v>
       </c>
       <c r="D183">
-        <v>0.1470957648644948</v>
+        <v>0.1669673656538165</v>
       </c>
       <c r="E183">
-        <v>0.1325108629603881</v>
+        <v>0.1529037160883341</v>
       </c>
       <c r="F183">
-        <v>0.1244773585085025</v>
+        <v>0.1354337750391263</v>
       </c>
       <c r="G183">
-        <v>0.1114041751011304</v>
+        <v>0.1212954775766268</v>
       </c>
       <c r="H183">
-        <v>0.1254042156258218</v>
-      </c>
-      <c r="I183">
-        <v>0.1079799014437725</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>0.1403512543301523</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
       <c r="A184" s="1">
         <v>182</v>
       </c>
       <c r="B184">
-        <v>0.09867228131151223</v>
+        <v>0.1155641652968428</v>
       </c>
       <c r="C184">
-        <v>0.1258263494959883</v>
+        <v>0.1449449413159093</v>
       </c>
       <c r="D184">
-        <v>0.1262097569497332</v>
+        <v>0.1452582680287038</v>
       </c>
       <c r="E184">
-        <v>0.1353983640280485</v>
+        <v>0.154258322049566</v>
       </c>
       <c r="F184">
-        <v>0.1312014076640299</v>
+        <v>0.1512211123733382</v>
       </c>
       <c r="G184">
-        <v>0.09975377230278691</v>
+        <v>0.1157526831489155</v>
       </c>
       <c r="H184">
-        <v>0.1492066169201824</v>
-      </c>
-      <c r="I184">
-        <v>0.1337314513277186</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>0.1730005077867242</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8">
       <c r="A185" s="1">
         <v>183</v>
       </c>
       <c r="B185">
-        <v>0.1133132275873967</v>
+        <v>0.1320491258184006</v>
       </c>
       <c r="C185">
-        <v>0.1523041755476154</v>
+        <v>0.1846307737471573</v>
       </c>
       <c r="D185">
-        <v>0.1005280726192109</v>
+        <v>0.1129925089389347</v>
       </c>
       <c r="E185">
-        <v>0.0945923943244301</v>
+        <v>0.1040819330808893</v>
       </c>
       <c r="F185">
-        <v>0.1378264618024487</v>
+        <v>0.1587379954096769</v>
       </c>
       <c r="G185">
-        <v>0.1063179415141697</v>
+        <v>0.119632185874951</v>
       </c>
       <c r="H185">
-        <v>0.1595777112211282</v>
-      </c>
-      <c r="I185">
-        <v>0.1355400153836004</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>0.1878754771299903</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
       <c r="A186" s="1">
         <v>184</v>
       </c>
       <c r="B186">
-        <v>0.09842573322870128</v>
+        <v>0.1155724837700869</v>
       </c>
       <c r="C186">
-        <v>0.1037135371486504</v>
+        <v>0.1214582188411124</v>
       </c>
       <c r="D186">
-        <v>0.1189659881761456</v>
+        <v>0.1437584585608019</v>
       </c>
       <c r="E186">
-        <v>0.1256976280965297</v>
+        <v>0.1508449409347944</v>
       </c>
       <c r="F186">
-        <v>0.1187537725138507</v>
+        <v>0.1348480574149348</v>
       </c>
       <c r="G186">
-        <v>0.08431413314495283</v>
+        <v>0.09892361231124115</v>
       </c>
       <c r="H186">
-        <v>0.2015079997855218</v>
-      </c>
-      <c r="I186">
-        <v>0.1486212079056478</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>0.2345942281670284</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
       <c r="A187" s="1">
         <v>185</v>
       </c>
       <c r="B187">
-        <v>0.1132074076514162</v>
+        <v>0.1317356331810302</v>
       </c>
       <c r="C187">
-        <v>0.1258234504306849</v>
+        <v>0.1445688349313524</v>
       </c>
       <c r="D187">
-        <v>0.1247775866651667</v>
+        <v>0.1413614804279457</v>
       </c>
       <c r="E187">
-        <v>0.1193801517780731</v>
+        <v>0.1358607979284226</v>
       </c>
       <c r="F187">
-        <v>0.1393420947826131</v>
+        <v>0.1609668972576999</v>
       </c>
       <c r="G187">
-        <v>0.1090020701721363</v>
+        <v>0.1271629378213452</v>
       </c>
       <c r="H187">
-        <v>0.1396036238194915</v>
-      </c>
-      <c r="I187">
-        <v>0.1288636147004183</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>0.1583434184522039</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8">
       <c r="A188" s="1">
         <v>186</v>
       </c>
       <c r="B188">
-        <v>0.1031227970800722</v>
+        <v>0.1174139153367321</v>
       </c>
       <c r="C188">
-        <v>0.1024119279387272</v>
+        <v>0.1168013827685069</v>
       </c>
       <c r="D188">
-        <v>0.1032530075344862</v>
+        <v>0.1258829365798315</v>
       </c>
       <c r="E188">
-        <v>0.1516790822551615</v>
+        <v>0.1711682432325018</v>
       </c>
       <c r="F188">
-        <v>0.1126460250995473</v>
+        <v>0.1315148892708011</v>
       </c>
       <c r="G188">
-        <v>0.1084417261467436</v>
+        <v>0.128794908273994</v>
       </c>
       <c r="H188">
-        <v>0.1799095279901673</v>
-      </c>
-      <c r="I188">
-        <v>0.1385359059550947</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>0.2084237245376327</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
       <c r="A189" s="1">
         <v>187</v>
       </c>
       <c r="B189">
-        <v>0.2119839806875869</v>
+        <v>0.2244140715222234</v>
       </c>
       <c r="C189">
-        <v>0.08610658843139672</v>
+        <v>0.09593687616635142</v>
       </c>
       <c r="D189">
-        <v>0.1654922893348551</v>
+        <v>0.1903565537288707</v>
       </c>
       <c r="E189">
-        <v>0.104294223142992</v>
+        <v>0.1151759183965952</v>
       </c>
       <c r="F189">
-        <v>0.05829205302879333</v>
+        <v>0.06562350214692593</v>
       </c>
       <c r="G189">
-        <v>0.184826025803707</v>
+        <v>0.2105102123590825</v>
       </c>
       <c r="H189">
-        <v>0.08505842384354394</v>
-      </c>
-      <c r="I189">
-        <v>0.1039464157271249</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>0.097982865679951</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
       <c r="A190" s="1">
         <v>188</v>
       </c>
       <c r="B190">
-        <v>0.1126739861791231</v>
+        <v>0.1299036631951211</v>
       </c>
       <c r="C190">
-        <v>0.1257361669210471</v>
+        <v>0.144163906076249</v>
       </c>
       <c r="D190">
-        <v>0.1213468517706274</v>
+        <v>0.1390873636594017</v>
       </c>
       <c r="E190">
-        <v>0.1298614403166585</v>
+        <v>0.1492744662202019</v>
       </c>
       <c r="F190">
-        <v>0.1231861207592393</v>
+        <v>0.1420964757352983</v>
       </c>
       <c r="G190">
-        <v>0.1132284125370689</v>
+        <v>0.1297302242226461</v>
       </c>
       <c r="H190">
-        <v>0.1410761296276651</v>
-      </c>
-      <c r="I190">
-        <v>0.1328908918885707</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>0.1657439008910819</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8">
       <c r="A191" s="1">
         <v>189</v>
       </c>
       <c r="B191">
-        <v>0.1257984726420853</v>
+        <v>0.1485628315828994</v>
       </c>
       <c r="C191">
-        <v>0.1255835364406737</v>
+        <v>0.1415719045606362</v>
       </c>
       <c r="D191">
-        <v>0.1243235228264412</v>
+        <v>0.1404965893835608</v>
       </c>
       <c r="E191">
-        <v>0.1192506544278999</v>
+        <v>0.134658651372148</v>
       </c>
       <c r="F191">
-        <v>0.1138868496169303</v>
+        <v>0.1279668895947477</v>
       </c>
       <c r="G191">
-        <v>0.1390118619309265</v>
+        <v>0.1596232773079419</v>
       </c>
       <c r="H191">
-        <v>0.1275538570753021</v>
-      </c>
-      <c r="I191">
-        <v>0.124591245039741</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>0.1471198561980659</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
       <c r="A192" s="1">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0.1017682964619005</v>
+        <v>0.1206848325933489</v>
       </c>
       <c r="C192">
-        <v>0.1297432514216432</v>
+        <v>0.1501884178286334</v>
       </c>
       <c r="D192">
-        <v>0.1132233845631432</v>
+        <v>0.1321592721424253</v>
       </c>
       <c r="E192">
-        <v>0.1078347688649476</v>
+        <v>0.1216057658937016</v>
       </c>
       <c r="F192">
-        <v>0.1468536948547007</v>
+        <v>0.1809779065740056</v>
       </c>
       <c r="G192">
-        <v>0.1099295475803955</v>
+        <v>0.1273625119476974</v>
       </c>
       <c r="H192">
-        <v>0.1430607218208363</v>
-      </c>
-      <c r="I192">
-        <v>0.1475863344324332</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>0.1670212930201878</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
       <c r="A193" s="1">
         <v>191</v>
       </c>
       <c r="B193">
-        <v>0.1077708858305562</v>
+        <v>0.1204299759850477</v>
       </c>
       <c r="C193">
-        <v>0.1393934893420636</v>
+        <v>0.1563869924619884</v>
       </c>
       <c r="D193">
-        <v>0.1005590067001294</v>
+        <v>0.1172166544031762</v>
       </c>
       <c r="E193">
-        <v>0.1104235700444917</v>
+        <v>0.1250300391273833</v>
       </c>
       <c r="F193">
-        <v>0.1464260894660676</v>
+        <v>0.1670432526522891</v>
       </c>
       <c r="G193">
-        <v>0.1089990793744089</v>
+        <v>0.125244136779749</v>
       </c>
       <c r="H193">
-        <v>0.1601608522934624</v>
-      </c>
-      <c r="I193">
-        <v>0.1262670269488201</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>0.1886489485903662</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8">
       <c r="A194" s="1">
         <v>192</v>
       </c>
       <c r="B194">
-        <v>0.06705302380225163</v>
+        <v>0.06474138403946916</v>
       </c>
       <c r="C194">
-        <v>0.07391824415295571</v>
+        <v>0.07840453291128251</v>
       </c>
       <c r="D194">
-        <v>0.13974273667873</v>
+        <v>0.1577910558992621</v>
       </c>
       <c r="E194">
-        <v>0.09385810479264481</v>
+        <v>0.09159619941827356</v>
       </c>
       <c r="F194">
-        <v>0.4029378608217085</v>
+        <v>0.4663472171139106</v>
       </c>
       <c r="G194">
-        <v>0.06784048553373299</v>
+        <v>0.06097891301290474</v>
       </c>
       <c r="H194">
-        <v>0.08403397735095679</v>
-      </c>
-      <c r="I194">
-        <v>0.07061556686701959</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>0.08014069760489737</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
       <c r="A195" s="1">
         <v>193</v>
       </c>
       <c r="B195">
-        <v>0.1378585777743893</v>
+        <v>0.1534416958750491</v>
       </c>
       <c r="C195">
-        <v>0.1242875467646049</v>
+        <v>0.1397460890669044</v>
       </c>
       <c r="D195">
-        <v>0.1259961193214277</v>
+        <v>0.1395373141940618</v>
       </c>
       <c r="E195">
-        <v>0.1233946187810791</v>
+        <v>0.140343542936888</v>
       </c>
       <c r="F195">
-        <v>0.1420355693522987</v>
+        <v>0.157592171931016</v>
       </c>
       <c r="G195">
-        <v>0.1265532854623837</v>
+        <v>0.1436157737905328</v>
       </c>
       <c r="H195">
-        <v>0.1085703767808365</v>
-      </c>
-      <c r="I195">
-        <v>0.1113039057629801</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>0.125723412205548</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
       <c r="A196" s="1">
         <v>194</v>
       </c>
       <c r="B196">
-        <v>0.1652551274935148</v>
+        <v>0.1891119267053724</v>
       </c>
       <c r="C196">
-        <v>0.1139325002457702</v>
+        <v>0.1341710995596172</v>
       </c>
       <c r="D196">
-        <v>0.1468408345913343</v>
+        <v>0.1663222259519549</v>
       </c>
       <c r="E196">
-        <v>0.1277543809074876</v>
+        <v>0.1434277131855154</v>
       </c>
       <c r="F196">
-        <v>0.06506689437975899</v>
+        <v>0.07158710635460327</v>
       </c>
       <c r="G196">
-        <v>0.1888776865668596</v>
+        <v>0.2122280964431652</v>
       </c>
       <c r="H196">
-        <v>0.07497701684347452</v>
-      </c>
-      <c r="I196">
-        <v>0.1172955589718</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>0.08315183179977138</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8">
       <c r="A197" s="1">
         <v>195</v>
       </c>
       <c r="B197">
-        <v>0.08758538702182944</v>
+        <v>0.1032487609062865</v>
       </c>
       <c r="C197">
-        <v>0.1278154046694488</v>
+        <v>0.1502821998379424</v>
       </c>
       <c r="D197">
-        <v>0.09030633998271173</v>
+        <v>0.1084506529317572</v>
       </c>
       <c r="E197">
-        <v>0.1126594370833495</v>
+        <v>0.148065607638878</v>
       </c>
       <c r="F197">
-        <v>0.1386580279859795</v>
+        <v>0.1823502028567611</v>
       </c>
       <c r="G197">
-        <v>0.1030257459337831</v>
+        <v>0.1293563200767606</v>
       </c>
       <c r="H197">
-        <v>0.1441053978483928</v>
-      </c>
-      <c r="I197">
-        <v>0.1958442594745052</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>0.1782462557516141</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
       <c r="A198" s="1">
         <v>196</v>
       </c>
       <c r="B198">
-        <v>0.104040402190377</v>
+        <v>0.1200878766208879</v>
       </c>
       <c r="C198">
-        <v>0.1147296387489596</v>
+        <v>0.1374232472801613</v>
       </c>
       <c r="D198">
-        <v>0.1305493519942642</v>
+        <v>0.1563244313810161</v>
       </c>
       <c r="E198">
-        <v>0.1199625699359744</v>
+        <v>0.1371988224181707</v>
       </c>
       <c r="F198">
-        <v>0.138682945684002</v>
+        <v>0.1623719681084849</v>
       </c>
       <c r="G198">
-        <v>0.1225520756652499</v>
+        <v>0.1394315512623243</v>
       </c>
       <c r="H198">
-        <v>0.1229363961547404</v>
-      </c>
-      <c r="I198">
-        <v>0.1465466196264326</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>0.1471621029289549</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
       <c r="A199" s="1">
         <v>197</v>
       </c>
       <c r="B199">
-        <v>0.02852714612600365</v>
+        <v>0.02272268911298797</v>
       </c>
       <c r="C199">
-        <v>0.1017098927539625</v>
+        <v>0.07787965393156948</v>
       </c>
       <c r="D199">
-        <v>0.2575395078163631</v>
+        <v>0.2824450432299787</v>
       </c>
       <c r="E199">
-        <v>0.2944826807509121</v>
+        <v>0.3819260959592579</v>
       </c>
       <c r="F199">
-        <v>0.1535934209052288</v>
+        <v>0.1525375787799907</v>
       </c>
       <c r="G199">
-        <v>0.07642808278346709</v>
+        <v>0.0551607026961883</v>
       </c>
       <c r="H199">
-        <v>0.03917513651791123</v>
-      </c>
-      <c r="I199">
-        <v>0.04854413234615147</v>
-      </c>
-    </row>
-    <row r="200" spans="1:9">
+        <v>0.02732823629002705</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8">
       <c r="A200" s="1">
         <v>198</v>
       </c>
       <c r="B200">
-        <v>0.1893317962977369</v>
+        <v>0.2118974996223451</v>
       </c>
       <c r="C200">
-        <v>0.1001898330178527</v>
+        <v>0.1138585007830165</v>
       </c>
       <c r="D200">
-        <v>0.1271679004340617</v>
+        <v>0.1454847951403008</v>
       </c>
       <c r="E200">
-        <v>0.1278371304616254</v>
+        <v>0.1435085908420744</v>
       </c>
       <c r="F200">
-        <v>0.07931343213123383</v>
+        <v>0.08966937348360757</v>
       </c>
       <c r="G200">
-        <v>0.1611360740907989</v>
+        <v>0.1852994441393245</v>
       </c>
       <c r="H200">
-        <v>0.0979418773597758</v>
-      </c>
-      <c r="I200">
-        <v>0.1170819562069147</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9">
+        <v>0.1102817959893312</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
       <c r="A201" s="1">
         <v>199</v>
       </c>
       <c r="B201">
-        <v>0.1838068631714189</v>
+        <v>0.2183207854177283</v>
       </c>
       <c r="C201">
-        <v>0.09240156898363087</v>
+        <v>0.1110646399170383</v>
       </c>
       <c r="D201">
-        <v>0.1142717024237501</v>
+        <v>0.1265763104273471</v>
       </c>
       <c r="E201">
-        <v>0.1068368713476616</v>
+        <v>0.1197018850230115</v>
       </c>
       <c r="F201">
-        <v>0.07707614498696948</v>
+        <v>0.09144615499483538</v>
       </c>
       <c r="G201">
-        <v>0.1982794252028935</v>
+        <v>0.2292758952363733</v>
       </c>
       <c r="H201">
-        <v>0.09440360850644951</v>
-      </c>
-      <c r="I201">
-        <v>0.1329238153772261</v>
-      </c>
-    </row>
-    <row r="202" spans="1:9">
+        <v>0.1036143289836662</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
       <c r="A202" s="1">
         <v>200</v>
       </c>
       <c r="B202">
-        <v>0.1294480218557707</v>
+        <v>0.1442958764565191</v>
       </c>
       <c r="C202">
-        <v>0.1223525006385142</v>
+        <v>0.1367619155598982</v>
       </c>
       <c r="D202">
-        <v>0.1211874332878493</v>
+        <v>0.1408684317479409</v>
       </c>
       <c r="E202">
-        <v>0.1281438116886199</v>
+        <v>0.1486066415538249</v>
       </c>
       <c r="F202">
-        <v>0.1273514743460653</v>
+        <v>0.1469301455918763</v>
       </c>
       <c r="G202">
-        <v>0.1436287628392305</v>
+        <v>0.1605243474112871</v>
       </c>
       <c r="H202">
-        <v>0.1083380913713512</v>
-      </c>
-      <c r="I202">
-        <v>0.1195499039725989</v>
-      </c>
-    </row>
-    <row r="203" spans="1:9">
+        <v>0.1220126416786535</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8">
       <c r="A203" s="1">
         <v>201</v>
       </c>
       <c r="B203">
-        <v>0.08588387051879313</v>
+        <v>0.09640790359121409</v>
       </c>
       <c r="C203">
-        <v>0.09321653722526571</v>
+        <v>0.1012895590363387</v>
       </c>
       <c r="D203">
-        <v>0.1759684366275034</v>
+        <v>0.1733565783506577</v>
       </c>
       <c r="E203">
-        <v>0.1492022600702159</v>
+        <v>0.1585900554435255</v>
       </c>
       <c r="F203">
-        <v>0.3037617798543371</v>
+        <v>0.3214500276177046</v>
       </c>
       <c r="G203">
-        <v>0.06807628025677999</v>
+        <v>0.07319040589626735</v>
       </c>
       <c r="H203">
-        <v>0.06971400090378481</v>
-      </c>
-      <c r="I203">
-        <v>0.0541768345433201</v>
-      </c>
-    </row>
-    <row r="204" spans="1:9">
+        <v>0.07571547006429197</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
       <c r="A204" s="1">
         <v>202</v>
       </c>
       <c r="B204">
-        <v>0.06878166413780919</v>
+        <v>0.06941201638940468</v>
       </c>
       <c r="C204">
-        <v>0.09161354287371844</v>
+        <v>0.09607478986201874</v>
       </c>
       <c r="D204">
-        <v>0.1694066483136504</v>
+        <v>0.1939256712637768</v>
       </c>
       <c r="E204">
-        <v>0.141062052798768</v>
+        <v>0.1448915301102094</v>
       </c>
       <c r="F204">
-        <v>0.3619492095263599</v>
+        <v>0.3702507419529497</v>
       </c>
       <c r="G204">
-        <v>0.0586356340818516</v>
+        <v>0.06075854262411228</v>
       </c>
       <c r="H204">
-        <v>0.06182475662169187</v>
-      </c>
-      <c r="I204">
-        <v>0.04672649164615055</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9">
+        <v>0.06468670779752841</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
       <c r="A205" s="1">
         <v>203</v>
       </c>
       <c r="B205">
-        <v>0.1079177601629693</v>
+        <v>0.128843972670564</v>
       </c>
       <c r="C205">
-        <v>0.1366198253930446</v>
+        <v>0.1592237416552445</v>
       </c>
       <c r="D205">
-        <v>0.1116682951247428</v>
+        <v>0.1322575725443066</v>
       </c>
       <c r="E205">
-        <v>0.1173262672011268</v>
+        <v>0.1375781939813567</v>
       </c>
       <c r="F205">
-        <v>0.1306534497028977</v>
+        <v>0.1494902594802407</v>
       </c>
       <c r="G205">
-        <v>0.1252655474686659</v>
+        <v>0.145897123029448</v>
       </c>
       <c r="H205">
-        <v>0.1247848764665044</v>
-      </c>
-      <c r="I205">
-        <v>0.1457639784800484</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9">
+        <v>0.1467091366388395</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8">
       <c r="A206" s="1">
         <v>204</v>
       </c>
       <c r="B206">
-        <v>0.1896248663269941</v>
+        <v>0.2105739119882502</v>
       </c>
       <c r="C206">
-        <v>0.1052498458116819</v>
+        <v>0.115675600027821</v>
       </c>
       <c r="D206">
-        <v>0.1323597680583957</v>
+        <v>0.1472815636871151</v>
       </c>
       <c r="E206">
-        <v>0.1263721058357835</v>
+        <v>0.1404426252207523</v>
       </c>
       <c r="F206">
-        <v>0.1059079082967361</v>
+        <v>0.1196975154279488</v>
       </c>
       <c r="G206">
-        <v>0.1534575611730648</v>
+        <v>0.16814105009306</v>
       </c>
       <c r="H206">
-        <v>0.08608626534719845</v>
-      </c>
-      <c r="I206">
-        <v>0.1009416791501455</v>
-      </c>
-    </row>
-    <row r="207" spans="1:9">
+        <v>0.09818773355505246</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
       <c r="A207" s="1">
         <v>205</v>
       </c>
       <c r="B207">
-        <v>0.09566362267924168</v>
+        <v>0.1166935111946508</v>
       </c>
       <c r="C207">
-        <v>0.1403657589678784</v>
+        <v>0.1709215851876051</v>
       </c>
       <c r="D207">
-        <v>0.1110773357445096</v>
+        <v>0.1342480453473438</v>
       </c>
       <c r="E207">
-        <v>0.08936955329173095</v>
+        <v>0.1156862310556252</v>
       </c>
       <c r="F207">
-        <v>0.1503508989168778</v>
+        <v>0.1809098879900736</v>
       </c>
       <c r="G207">
-        <v>0.09838292080115919</v>
+        <v>0.1126733392137239</v>
       </c>
       <c r="H207">
-        <v>0.1457340719156908</v>
-      </c>
-      <c r="I207">
-        <v>0.1690558376829116</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9">
+        <v>0.1688674000109777</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
       <c r="A208" s="1">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0.08596447623051916</v>
+        <v>0.08340515887366479</v>
       </c>
       <c r="C208">
-        <v>0.100788858778402</v>
+        <v>0.1014724651303814</v>
       </c>
       <c r="D208">
-        <v>0.1637370312243586</v>
+        <v>0.1791990018805723</v>
       </c>
       <c r="E208">
-        <v>0.0958094729991764</v>
+        <v>0.09727269741655661</v>
       </c>
       <c r="F208">
-        <v>0.3104566396205971</v>
+        <v>0.3309722087402646</v>
       </c>
       <c r="G208">
-        <v>0.07345377865563905</v>
+        <v>0.07698143113423581</v>
       </c>
       <c r="H208">
-        <v>0.1182434161459256</v>
-      </c>
-      <c r="I208">
-        <v>0.05154632634538209</v>
-      </c>
-    </row>
-    <row r="209" spans="1:9">
+        <v>0.1306970368243244</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8">
       <c r="A209" s="1">
         <v>207</v>
       </c>
       <c r="B209">
-        <v>0.107583028882237</v>
+        <v>0.1265884191029456</v>
       </c>
       <c r="C209">
-        <v>0.1315488063795356</v>
+        <v>0.1508715167233027</v>
       </c>
       <c r="D209">
-        <v>0.1162640017767167</v>
+        <v>0.137383662430026</v>
       </c>
       <c r="E209">
-        <v>0.1133294937528051</v>
+        <v>0.1333568299660607</v>
       </c>
       <c r="F209">
-        <v>0.1313643913632345</v>
+        <v>0.1510169975070237</v>
       </c>
       <c r="G209">
-        <v>0.1212286415714581</v>
+        <v>0.1399646098195192</v>
       </c>
       <c r="H209">
-        <v>0.1409029298478068</v>
-      </c>
-      <c r="I209">
-        <v>0.137778706426206</v>
-      </c>
-    </row>
-    <row r="210" spans="1:9">
+        <v>0.160817964451122</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
       <c r="A210" s="1">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>0.09673932866747574</v>
+        <v>0.1132488585793357</v>
       </c>
       <c r="C210">
-        <v>0.1356523257818134</v>
+        <v>0.1582204576423392</v>
       </c>
       <c r="D210">
-        <v>0.1125484598594438</v>
+        <v>0.1340560789633529</v>
       </c>
       <c r="E210">
-        <v>0.1188100839797442</v>
+        <v>0.1395097585797601</v>
       </c>
       <c r="F210">
-        <v>0.1517427086123538</v>
+        <v>0.1812855651917096</v>
       </c>
       <c r="G210">
-        <v>0.1074225883684996</v>
+        <v>0.121500437763058</v>
       </c>
       <c r="H210">
-        <v>0.1379640309433437</v>
-      </c>
-      <c r="I210">
-        <v>0.1391204737873258</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9">
+        <v>0.1521788432804443</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
       <c r="A211" s="1">
         <v>209</v>
       </c>
       <c r="B211">
-        <v>0.1242643505712279</v>
+        <v>0.141430512504392</v>
       </c>
       <c r="C211">
-        <v>0.1182323613222085</v>
+        <v>0.1378577729017827</v>
       </c>
       <c r="D211">
-        <v>0.1267962708588731</v>
+        <v>0.1456824009280469</v>
       </c>
       <c r="E211">
-        <v>0.1194371449086183</v>
+        <v>0.1398045709400568</v>
       </c>
       <c r="F211">
-        <v>0.1372162373276032</v>
+        <v>0.1626243768784862</v>
       </c>
       <c r="G211">
-        <v>0.1265809660062564</v>
+        <v>0.1453043354002065</v>
       </c>
       <c r="H211">
-        <v>0.111225657615499</v>
-      </c>
-      <c r="I211">
-        <v>0.1362470113897135</v>
-      </c>
-    </row>
-    <row r="212" spans="1:9">
+        <v>0.1272960304470288</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8">
       <c r="A212" s="1">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0.1566083599317112</v>
+        <v>0.1806358225090107</v>
       </c>
       <c r="C212">
-        <v>0.1036789659468163</v>
+        <v>0.1190696336341287</v>
       </c>
       <c r="D212">
-        <v>0.1301786159376345</v>
+        <v>0.1433078437733587</v>
       </c>
       <c r="E212">
-        <v>0.1161877469854429</v>
+        <v>0.1302146951942489</v>
       </c>
       <c r="F212">
-        <v>0.09787056415451914</v>
+        <v>0.1090756701264814</v>
       </c>
       <c r="G212">
-        <v>0.1817705413139302</v>
+        <v>0.2023547961904257</v>
       </c>
       <c r="H212">
-        <v>0.1014157308693356</v>
-      </c>
-      <c r="I212">
-        <v>0.1122894748606099</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9">
+        <v>0.115341538572346</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
       <c r="A213" s="1">
         <v>211</v>
       </c>
       <c r="B213">
-        <v>0.1503262491886597</v>
+        <v>0.1723387356511467</v>
       </c>
       <c r="C213">
-        <v>0.1200258215145221</v>
+        <v>0.1348578572118986</v>
       </c>
       <c r="D213">
-        <v>0.1207570962734678</v>
+        <v>0.1362393683683378</v>
       </c>
       <c r="E213">
-        <v>0.1214820030102559</v>
+        <v>0.1402231500034177</v>
       </c>
       <c r="F213">
-        <v>0.1300403886475329</v>
+        <v>0.1490124365967015</v>
       </c>
       <c r="G213">
-        <v>0.1442652667582829</v>
+        <v>0.1602956984590337</v>
       </c>
       <c r="H213">
-        <v>0.09348081751426512</v>
-      </c>
-      <c r="I213">
-        <v>0.1196223570930136</v>
-      </c>
-    </row>
-    <row r="214" spans="1:9">
+        <v>0.107032753709464</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
       <c r="A214" s="1">
         <v>212</v>
       </c>
       <c r="B214">
-        <v>0.1468505670480317</v>
+        <v>0.1708535011379037</v>
       </c>
       <c r="C214">
-        <v>0.1011462696098545</v>
+        <v>0.1191596230331761</v>
       </c>
       <c r="D214">
-        <v>0.1433056912792043</v>
+        <v>0.1614072862429968</v>
       </c>
       <c r="E214">
-        <v>0.1253331392838044</v>
+        <v>0.1412315882615012</v>
       </c>
       <c r="F214">
-        <v>0.08944682659030335</v>
+        <v>0.09832739624696177</v>
       </c>
       <c r="G214">
-        <v>0.1757377813195876</v>
+        <v>0.1988342188733761</v>
       </c>
       <c r="H214">
-        <v>0.09352915481738486</v>
-      </c>
-      <c r="I214">
-        <v>0.124650570051829</v>
-      </c>
-    </row>
-    <row r="215" spans="1:9">
+        <v>0.1101863862040844</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8">
       <c r="A215" s="1">
         <v>213</v>
       </c>
       <c r="B215">
-        <v>0.1172701551371445</v>
+        <v>0.132920524807626</v>
       </c>
       <c r="C215">
-        <v>0.1312165995877263</v>
+        <v>0.1517725436383325</v>
       </c>
       <c r="D215">
-        <v>0.1276076186180353</v>
+        <v>0.1469159526542334</v>
       </c>
       <c r="E215">
-        <v>0.1360921932848472</v>
+        <v>0.1598622461388622</v>
       </c>
       <c r="F215">
-        <v>0.1237544494956826</v>
+        <v>0.1459693805168282</v>
       </c>
       <c r="G215">
-        <v>0.115578071541742</v>
+        <v>0.1297768764952255</v>
       </c>
       <c r="H215">
-        <v>0.1152737644433332</v>
-      </c>
-      <c r="I215">
-        <v>0.1332071478914887</v>
-      </c>
-    </row>
-    <row r="216" spans="1:9">
+        <v>0.1327824757488922</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
       <c r="A216" s="1">
         <v>214</v>
       </c>
       <c r="B216">
-        <v>0.1200986746557995</v>
+        <v>0.1374201144620826</v>
       </c>
       <c r="C216">
-        <v>0.1213539403168934</v>
+        <v>0.1399509268305811</v>
       </c>
       <c r="D216">
-        <v>0.123479006203939</v>
+        <v>0.1423335187568482</v>
       </c>
       <c r="E216">
-        <v>0.1144249542331867</v>
+        <v>0.1333789300037961</v>
       </c>
       <c r="F216">
-        <v>0.1394567378881631</v>
+        <v>0.1647590315251508</v>
       </c>
       <c r="G216">
-        <v>0.1115669600883645</v>
+        <v>0.1290811790417928</v>
       </c>
       <c r="H216">
-        <v>0.129103353540002</v>
-      </c>
-      <c r="I216">
-        <v>0.1405163730736517</v>
-      </c>
-    </row>
-    <row r="217" spans="1:9">
+        <v>0.1530762993797485</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
       <c r="A217" s="1">
         <v>215</v>
       </c>
       <c r="B217">
-        <v>0.1076684046509291</v>
+        <v>0.1231404937020623</v>
       </c>
       <c r="C217">
-        <v>0.1328646679224018</v>
+        <v>0.1532802993186044</v>
       </c>
       <c r="D217">
-        <v>0.1263951264468701</v>
+        <v>0.1462944348409543</v>
       </c>
       <c r="E217">
-        <v>0.1188431766356869</v>
+        <v>0.1352468963572983</v>
       </c>
       <c r="F217">
-        <v>0.1190913128893838</v>
+        <v>0.1399199270129098</v>
       </c>
       <c r="G217">
-        <v>0.1050145606477365</v>
+        <v>0.1198491497873966</v>
       </c>
       <c r="H217">
-        <v>0.1586483181741734</v>
-      </c>
-      <c r="I217">
-        <v>0.1314744326328184</v>
-      </c>
-    </row>
-    <row r="218" spans="1:9">
+        <v>0.1822687989807743</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8">
       <c r="A218" s="1">
         <v>216</v>
       </c>
       <c r="B218">
-        <v>0.1691872690686883</v>
+        <v>0.191447113173414</v>
       </c>
       <c r="C218">
-        <v>0.09075992333500398</v>
+        <v>0.1002498866949027</v>
       </c>
       <c r="D218">
-        <v>0.1502988168505372</v>
+        <v>0.1703029191335853</v>
       </c>
       <c r="E218">
-        <v>0.1488073836939002</v>
+        <v>0.1682097564789246</v>
       </c>
       <c r="F218">
-        <v>0.08669624612372753</v>
+        <v>0.09784172838073572</v>
       </c>
       <c r="G218">
-        <v>0.1644665077771497</v>
+        <v>0.1839821558572155</v>
       </c>
       <c r="H218">
-        <v>0.07782379736666895</v>
-      </c>
-      <c r="I218">
-        <v>0.1119600557843242</v>
-      </c>
-    </row>
-    <row r="219" spans="1:9">
+        <v>0.087966440281222</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
       <c r="A219" s="1">
         <v>217</v>
       </c>
       <c r="B219">
-        <v>0.1099376044503453</v>
+        <v>0.1257448973435148</v>
       </c>
       <c r="C219">
-        <v>0.1354296920624493</v>
+        <v>0.1557164652771818</v>
       </c>
       <c r="D219">
-        <v>0.1180465145524606</v>
+        <v>0.1395377918669685</v>
       </c>
       <c r="E219">
-        <v>0.1219864608493092</v>
+        <v>0.1409034504031571</v>
       </c>
       <c r="F219">
-        <v>0.1253638892894233</v>
+        <v>0.1462954637247698</v>
       </c>
       <c r="G219">
-        <v>0.1177567460201105</v>
+        <v>0.1340679108202831</v>
       </c>
       <c r="H219">
-        <v>0.13928293926342</v>
-      </c>
-      <c r="I219">
-        <v>0.1321961535124818</v>
-      </c>
-    </row>
-    <row r="220" spans="1:9">
+        <v>0.1577340205641247</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
       <c r="A220" s="1">
         <v>218</v>
       </c>
       <c r="B220">
-        <v>0.1541474293599385</v>
+        <v>0.1807778543462251</v>
       </c>
       <c r="C220">
-        <v>0.08734817901897536</v>
+        <v>0.09873899917101947</v>
       </c>
       <c r="D220">
-        <v>0.1434999378094382</v>
+        <v>0.163725142804588</v>
       </c>
       <c r="E220">
-        <v>0.1362629693435272</v>
+        <v>0.1613164277451883</v>
       </c>
       <c r="F220">
-        <v>0.07235897525788267</v>
+        <v>0.08268464018296341</v>
       </c>
       <c r="G220">
-        <v>0.1870892142491689</v>
+        <v>0.2151008836446687</v>
       </c>
       <c r="H220">
-        <v>0.08494282627647487</v>
-      </c>
-      <c r="I220">
-        <v>0.1343504686845943</v>
-      </c>
-    </row>
-    <row r="221" spans="1:9">
+        <v>0.09765605210534706</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8">
       <c r="A221" s="1">
         <v>219</v>
       </c>
       <c r="B221">
-        <v>0.2045513293142944</v>
+        <v>0.2353413900699138</v>
       </c>
       <c r="C221">
-        <v>0.1080019884264425</v>
+        <v>0.1202226055373073</v>
       </c>
       <c r="D221">
-        <v>0.1191672886137098</v>
+        <v>0.1245809023682599</v>
       </c>
       <c r="E221">
-        <v>0.1354375080681899</v>
+        <v>0.1468578374519214</v>
       </c>
       <c r="F221">
-        <v>0.07972532819607568</v>
+        <v>0.08892705138120074</v>
       </c>
       <c r="G221">
-        <v>0.1736829550398635</v>
+        <v>0.1964061986758414</v>
       </c>
       <c r="H221">
-        <v>0.07837401021005096</v>
-      </c>
-      <c r="I221">
-        <v>0.1010595921313731</v>
-      </c>
-    </row>
-    <row r="222" spans="1:9">
+        <v>0.08766401451555539</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
       <c r="A222" s="1">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0.1201941442848515</v>
+        <v>0.1380809180419298</v>
       </c>
       <c r="C222">
-        <v>0.1317837457651678</v>
+        <v>0.1544729573722756</v>
       </c>
       <c r="D222">
-        <v>0.1236767385754561</v>
+        <v>0.1419662049247181</v>
       </c>
       <c r="E222">
-        <v>0.1210857151891059</v>
+        <v>0.1369519056261539</v>
       </c>
       <c r="F222">
-        <v>0.1284241682534651</v>
+        <v>0.1505883590465996</v>
       </c>
       <c r="G222">
-        <v>0.1009671776210349</v>
+        <v>0.1184776076301386</v>
       </c>
       <c r="H222">
-        <v>0.139521782824726</v>
-      </c>
-      <c r="I222">
-        <v>0.1343465274861927</v>
-      </c>
-    </row>
-    <row r="223" spans="1:9">
+        <v>0.1594620473581844</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
       <c r="A223" s="1">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0.1576766624561751</v>
+        <v>0.1716095306677449</v>
       </c>
       <c r="C223">
-        <v>0.1220788650853147</v>
+        <v>0.1370043371929556</v>
       </c>
       <c r="D223">
-        <v>0.1105631203568208</v>
+        <v>0.1236564743819487</v>
       </c>
       <c r="E223">
-        <v>0.1153609965710353</v>
+        <v>0.1285834114475512</v>
       </c>
       <c r="F223">
-        <v>0.1143507825459208</v>
+        <v>0.1275846395728785</v>
       </c>
       <c r="G223">
-        <v>0.1592889142154365</v>
+        <v>0.1777651886902699</v>
       </c>
       <c r="H223">
-        <v>0.1173045653125532</v>
-      </c>
-      <c r="I223">
-        <v>0.1033760934567435</v>
-      </c>
-    </row>
-    <row r="224" spans="1:9">
+        <v>0.1337964180466512</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8">
       <c r="A224" s="1">
         <v>222</v>
       </c>
       <c r="B224">
-        <v>0.1740244734313191</v>
+        <v>0.1977077391372461</v>
       </c>
       <c r="C224">
-        <v>0.0997882851424912</v>
+        <v>0.1121228535758193</v>
       </c>
       <c r="D224">
-        <v>0.1396946367185744</v>
+        <v>0.158971921524309</v>
       </c>
       <c r="E224">
-        <v>0.1118998943179703</v>
+        <v>0.126703886813262</v>
       </c>
       <c r="F224">
-        <v>0.07656214642895419</v>
+        <v>0.07865353197724817</v>
       </c>
       <c r="G224">
-        <v>0.1997053085553524</v>
+        <v>0.2238929122857954</v>
       </c>
       <c r="H224">
-        <v>0.09135833359881655</v>
-      </c>
-      <c r="I224">
-        <v>0.1069669218065218</v>
-      </c>
-    </row>
-    <row r="225" spans="1:9">
+        <v>0.1019471546863201</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
       <c r="A225" s="1">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>0.1614513308560057</v>
+        <v>0.180142170957348</v>
       </c>
       <c r="C225">
-        <v>0.1205421076279363</v>
+        <v>0.1335689741675369</v>
       </c>
       <c r="D225">
-        <v>0.1246541854713562</v>
+        <v>0.1351262189736551</v>
       </c>
       <c r="E225">
-        <v>0.1248980825180926</v>
+        <v>0.1375953454604026</v>
       </c>
       <c r="F225">
-        <v>0.1111578708137619</v>
+        <v>0.1245174871803599</v>
       </c>
       <c r="G225">
-        <v>0.164495398327634</v>
+        <v>0.1807601135969025</v>
       </c>
       <c r="H225">
-        <v>0.09366035728266241</v>
-      </c>
-      <c r="I225">
-        <v>0.09914066710255098</v>
-      </c>
-    </row>
-    <row r="226" spans="1:9">
+        <v>0.1082896896637948</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
       <c r="A226" s="1">
         <v>224</v>
       </c>
       <c r="B226">
-        <v>0.1744566820946412</v>
+        <v>0.1903849779119476</v>
       </c>
       <c r="C226">
-        <v>0.1004522299162001</v>
+        <v>0.111464735944523</v>
       </c>
       <c r="D226">
-        <v>0.1486839829355833</v>
+        <v>0.1677575228142637</v>
       </c>
       <c r="E226">
-        <v>0.1357925192726909</v>
+        <v>0.1537261409273961</v>
       </c>
       <c r="F226">
-        <v>0.08035555974289245</v>
+        <v>0.09043823519827515</v>
       </c>
       <c r="G226">
-        <v>0.1613379102425712</v>
+        <v>0.1812457077018407</v>
       </c>
       <c r="H226">
-        <v>0.09361570868558138</v>
-      </c>
-      <c r="I226">
-        <v>0.1053054071098395</v>
-      </c>
-    </row>
-    <row r="227" spans="1:9">
+        <v>0.1049826795017537</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8">
       <c r="A227" s="1">
         <v>225</v>
       </c>
       <c r="B227">
-        <v>0.1162156303754383</v>
+        <v>0.1336660321030598</v>
       </c>
       <c r="C227">
-        <v>0.1215402399903023</v>
+        <v>0.1388133787255116</v>
       </c>
       <c r="D227">
-        <v>0.1199701030648737</v>
+        <v>0.1385630894520845</v>
       </c>
       <c r="E227">
-        <v>0.1263579721819903</v>
+        <v>0.1427220238760365</v>
       </c>
       <c r="F227">
-        <v>0.1307950116746152</v>
+        <v>0.1504123850433426</v>
       </c>
       <c r="G227">
-        <v>0.1368216346189358</v>
+        <v>0.1556075847695603</v>
       </c>
       <c r="H227">
-        <v>0.122683339996078</v>
-      </c>
-      <c r="I227">
-        <v>0.1256160680977664</v>
-      </c>
-    </row>
-    <row r="228" spans="1:9">
+        <v>0.1402155060304046</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
       <c r="A228" s="1">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0.1521212827021247</v>
+        <v>0.1793481447434373</v>
       </c>
       <c r="C228">
-        <v>0.0959067609518395</v>
+        <v>0.1062064366299656</v>
       </c>
       <c r="D228">
-        <v>0.121499919921806</v>
+        <v>0.1324575755590848</v>
       </c>
       <c r="E228">
-        <v>0.1055222018069242</v>
+        <v>0.1181438178908869</v>
       </c>
       <c r="F228">
-        <v>0.1214231799139108</v>
+        <v>0.127681751613235</v>
       </c>
       <c r="G228">
-        <v>0.2205940372654467</v>
+        <v>0.2652007492497686</v>
       </c>
       <c r="H228">
-        <v>0.06902745500624277</v>
-      </c>
-      <c r="I228">
-        <v>0.1139051624317053</v>
-      </c>
-    </row>
-    <row r="229" spans="1:9">
+        <v>0.07096152431362183</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
       <c r="A229" s="1">
         <v>227</v>
       </c>
       <c r="B229">
-        <v>0.09338489211205238</v>
+        <v>0.1057772750175912</v>
       </c>
       <c r="C229">
-        <v>0.1364068754253275</v>
+        <v>0.1547330679195191</v>
       </c>
       <c r="D229">
-        <v>0.1297133124307899</v>
+        <v>0.1450007864084075</v>
       </c>
       <c r="E229">
-        <v>0.1259731952926424</v>
+        <v>0.14089664549519</v>
       </c>
       <c r="F229">
-        <v>0.1566563153256258</v>
+        <v>0.1751356548099383</v>
       </c>
       <c r="G229">
-        <v>0.1098440620476843</v>
+        <v>0.1198964431515108</v>
       </c>
       <c r="H229">
-        <v>0.1440144595806416</v>
-      </c>
-      <c r="I229">
-        <v>0.104006887785236</v>
-      </c>
-    </row>
-    <row r="230" spans="1:9">
+        <v>0.158560127197843</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8">
       <c r="A230" s="1">
         <v>228</v>
       </c>
       <c r="B230">
-        <v>0.1083181720006141</v>
+        <v>0.1296995929069414</v>
       </c>
       <c r="C230">
-        <v>0.1199502394737737</v>
+        <v>0.1461199132353433</v>
       </c>
       <c r="D230">
-        <v>0.1314734106081333</v>
+        <v>0.1551168632918716</v>
       </c>
       <c r="E230">
-        <v>0.1115854372217795</v>
+        <v>0.1308394047998326</v>
       </c>
       <c r="F230">
-        <v>0.1318313186790059</v>
+        <v>0.1511216870289303</v>
       </c>
       <c r="G230">
-        <v>0.1140579732547227</v>
+        <v>0.1333109607314065</v>
       </c>
       <c r="H230">
-        <v>0.1303677195012133</v>
-      </c>
-      <c r="I230">
-        <v>0.1524157292607575</v>
-      </c>
-    </row>
-    <row r="231" spans="1:9">
+        <v>0.1537915780056742</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
       <c r="A231" s="1">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0.1606906203028112</v>
+        <v>0.1841498011385255</v>
       </c>
       <c r="C231">
-        <v>0.1114446829935826</v>
+        <v>0.1247891844622271</v>
       </c>
       <c r="D231">
-        <v>0.1249145930172968</v>
+        <v>0.1389621600327155</v>
       </c>
       <c r="E231">
-        <v>0.1271101283195318</v>
+        <v>0.1416804098998167</v>
       </c>
       <c r="F231">
-        <v>0.1045053193503887</v>
+        <v>0.1177688562714843</v>
       </c>
       <c r="G231">
-        <v>0.1511500164900604</v>
+        <v>0.1741690712482942</v>
       </c>
       <c r="H231">
-        <v>0.1034065635314819</v>
-      </c>
-      <c r="I231">
-        <v>0.1167780759948465</v>
-      </c>
-    </row>
-    <row r="232" spans="1:9">
+        <v>0.1184805169469368</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
       <c r="A232" s="1">
         <v>230</v>
       </c>
       <c r="B232">
-        <v>0.146850724714774</v>
+        <v>0.1637561060035166</v>
       </c>
       <c r="C232">
-        <v>0.1165442980796793</v>
+        <v>0.1323586915126822</v>
       </c>
       <c r="D232">
-        <v>0.122230754856951</v>
+        <v>0.1385293731111345</v>
       </c>
       <c r="E232">
-        <v>0.1185846698959896</v>
+        <v>0.1333906460829788</v>
       </c>
       <c r="F232">
-        <v>0.1262569944744062</v>
+        <v>0.1450230894342833</v>
       </c>
       <c r="G232">
-        <v>0.1315920192623065</v>
+        <v>0.1497009426666414</v>
       </c>
       <c r="H232">
-        <v>0.1199711347411762</v>
-      </c>
-      <c r="I232">
-        <v>0.1179694039747173</v>
-      </c>
-    </row>
-    <row r="233" spans="1:9">
+        <v>0.1372411511887631</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8">
       <c r="A233" s="1">
         <v>231</v>
       </c>
       <c r="B233">
-        <v>0.1668819523353257</v>
+        <v>0.1978827348682835</v>
       </c>
       <c r="C233">
-        <v>0.102008914398628</v>
+        <v>0.1164693480745459</v>
       </c>
       <c r="D233">
-        <v>0.1380344595636076</v>
+        <v>0.1598496570090087</v>
       </c>
       <c r="E233">
-        <v>0.1190070856671828</v>
+        <v>0.1366712972569284</v>
       </c>
       <c r="F233">
-        <v>0.08930207341949307</v>
+        <v>0.105334763050468</v>
       </c>
       <c r="G233">
-        <v>0.1629218414797681</v>
+        <v>0.1813959049709141</v>
       </c>
       <c r="H233">
-        <v>0.09068608178450917</v>
-      </c>
-      <c r="I233">
-        <v>0.1311575913514856</v>
-      </c>
-    </row>
-    <row r="234" spans="1:9">
+        <v>0.1023962947698514</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
       <c r="A234" s="1">
         <v>232</v>
       </c>
       <c r="B234">
-        <v>0.192259639292998</v>
+        <v>0.2178040798797131</v>
       </c>
       <c r="C234">
-        <v>0.1127114925972874</v>
+        <v>0.1231249238285995</v>
       </c>
       <c r="D234">
-        <v>0.1201238502737841</v>
+        <v>0.1353076092621016</v>
       </c>
       <c r="E234">
-        <v>0.1170169955881471</v>
+        <v>0.1356673504033733</v>
       </c>
       <c r="F234">
-        <v>0.1075746395083158</v>
+        <v>0.1192299298031199</v>
       </c>
       <c r="G234">
-        <v>0.1381555280049871</v>
+        <v>0.1518871849212574</v>
       </c>
       <c r="H234">
-        <v>0.09938440238474516</v>
-      </c>
-      <c r="I234">
-        <v>0.1127734523497353</v>
-      </c>
-    </row>
-    <row r="235" spans="1:9">
+        <v>0.1169789219018352</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
       <c r="A235" s="1">
         <v>233</v>
       </c>
       <c r="B235">
-        <v>0.1182562681569058</v>
+        <v>0.1329857173303385</v>
       </c>
       <c r="C235">
-        <v>0.129297208038264</v>
+        <v>0.1467409568008855</v>
       </c>
       <c r="D235">
-        <v>0.1243797821764788</v>
+        <v>0.143900189783475</v>
       </c>
       <c r="E235">
-        <v>0.1227714768009503</v>
+        <v>0.1395516678012087</v>
       </c>
       <c r="F235">
-        <v>0.1265838783404101</v>
+        <v>0.1461519239765973</v>
       </c>
       <c r="G235">
-        <v>0.1310649238470906</v>
+        <v>0.1478103188159055</v>
       </c>
       <c r="H235">
-        <v>0.1246282393252235</v>
-      </c>
-      <c r="I235">
-        <v>0.123018223314677</v>
-      </c>
-    </row>
-    <row r="236" spans="1:9">
+        <v>0.1428592254915896</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8">
       <c r="A236" s="1">
         <v>234</v>
       </c>
       <c r="B236">
-        <v>0.1182656679733573</v>
+        <v>0.1381556670203869</v>
       </c>
       <c r="C236">
-        <v>0.128523157045599</v>
+        <v>0.1471300678879366</v>
       </c>
       <c r="D236">
-        <v>0.1230412917203788</v>
+        <v>0.1382249309147316</v>
       </c>
       <c r="E236">
-        <v>0.1380245131314147</v>
+        <v>0.1602227467063366</v>
       </c>
       <c r="F236">
-        <v>0.1201999113030035</v>
+        <v>0.1372833127078852</v>
       </c>
       <c r="G236">
-        <v>0.1183543699597347</v>
+        <v>0.1350276872179888</v>
       </c>
       <c r="H236">
-        <v>0.1218226489814343</v>
-      </c>
-      <c r="I236">
-        <v>0.1317684398850777</v>
-      </c>
-    </row>
-    <row r="237" spans="1:9">
+        <v>0.1439555875447344</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
       <c r="A237" s="1">
         <v>235</v>
       </c>
       <c r="B237">
-        <v>0.1439240155333801</v>
+        <v>0.1621673763279847</v>
       </c>
       <c r="C237">
-        <v>0.1006673426905854</v>
+        <v>0.1189953222093587</v>
       </c>
       <c r="D237">
-        <v>0.1345412145346028</v>
+        <v>0.1550497644254697</v>
       </c>
       <c r="E237">
-        <v>0.1365140913734892</v>
+        <v>0.1580528617655222</v>
       </c>
       <c r="F237">
-        <v>0.0961819033625425</v>
+        <v>0.108852015334766</v>
       </c>
       <c r="G237">
-        <v>0.1595335440798684</v>
+        <v>0.1795377094118253</v>
       </c>
       <c r="H237">
-        <v>0.1029406050176809</v>
-      </c>
-      <c r="I237">
-        <v>0.1256972834078506</v>
-      </c>
-    </row>
-    <row r="238" spans="1:9">
+        <v>0.1173449505250733</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
       <c r="A238" s="1">
         <v>236</v>
       </c>
       <c r="B238">
-        <v>0.1600428280865504</v>
+        <v>0.1764792405536802</v>
       </c>
       <c r="C238">
-        <v>0.0933879197433598</v>
+        <v>0.1023867502923139</v>
       </c>
       <c r="D238">
-        <v>0.1656220082301098</v>
+        <v>0.1874455504123572</v>
       </c>
       <c r="E238">
-        <v>0.1362347642675872</v>
+        <v>0.1578558777103439</v>
       </c>
       <c r="F238">
-        <v>0.07588653921886267</v>
+        <v>0.08545447070027611</v>
       </c>
       <c r="G238">
-        <v>0.1724456055799934</v>
+        <v>0.1943139189355691</v>
       </c>
       <c r="H238">
-        <v>0.08425703633206597</v>
-      </c>
-      <c r="I238">
-        <v>0.1121232985414707</v>
-      </c>
-    </row>
-    <row r="239" spans="1:9">
+        <v>0.09606419139545976</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8">
       <c r="A239" s="1">
         <v>237</v>
       </c>
       <c r="B239">
-        <v>0.0781394768866522</v>
+        <v>0.08367524142550697</v>
       </c>
       <c r="C239">
-        <v>0.1185805894195881</v>
+        <v>0.1349136891833644</v>
       </c>
       <c r="D239">
-        <v>0.1011314461369498</v>
+        <v>0.1132373175782798</v>
       </c>
       <c r="E239">
-        <v>0.08301662123181211</v>
+        <v>0.09215128616385153</v>
       </c>
       <c r="F239">
-        <v>0.3038656001048758</v>
+        <v>0.3336989490232055</v>
       </c>
       <c r="G239">
-        <v>0.08201657158795321</v>
+        <v>0.08605736340936247</v>
       </c>
       <c r="H239">
-        <v>0.1392655632527231</v>
-      </c>
-      <c r="I239">
-        <v>0.09398413137944565</v>
-      </c>
-    </row>
-    <row r="240" spans="1:9">
+        <v>0.1562661532164293</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
       <c r="A240" s="1">
         <v>238</v>
       </c>
       <c r="B240">
-        <v>0.1438861477307525</v>
+        <v>0.1649524094119789</v>
       </c>
       <c r="C240">
-        <v>0.1212982275099364</v>
+        <v>0.1395871625535832</v>
       </c>
       <c r="D240">
-        <v>0.1255464706093556</v>
+        <v>0.1425917326845734</v>
       </c>
       <c r="E240">
-        <v>0.1249885889249307</v>
+        <v>0.1423300952041579</v>
       </c>
       <c r="F240">
-        <v>0.1076505875460254</v>
+        <v>0.1206391830917224</v>
       </c>
       <c r="G240">
-        <v>0.1404429907597275</v>
+        <v>0.1652016459642045</v>
       </c>
       <c r="H240">
-        <v>0.1089415219844774</v>
-      </c>
-      <c r="I240">
-        <v>0.1272454649347945</v>
-      </c>
-    </row>
-    <row r="241" spans="1:9">
+        <v>0.1246977710897796</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
       <c r="A241" s="1">
         <v>239</v>
       </c>
       <c r="B241">
-        <v>0.1503096931851206</v>
+        <v>0.1701998154892117</v>
       </c>
       <c r="C241">
-        <v>0.1106842870921199</v>
+        <v>0.1247240649824487</v>
       </c>
       <c r="D241">
-        <v>0.1198468855959066</v>
+        <v>0.138091616708571</v>
       </c>
       <c r="E241">
-        <v>0.1270952124125254</v>
+        <v>0.1428159083844085</v>
       </c>
       <c r="F241">
-        <v>0.1196468281337134</v>
+        <v>0.1343607545425481</v>
       </c>
       <c r="G241">
-        <v>0.155273115111643</v>
+        <v>0.1749328441219762</v>
       </c>
       <c r="H241">
-        <v>0.1020844453231902</v>
-      </c>
-      <c r="I241">
-        <v>0.1150595331457809</v>
+        <v>0.1148749957708359</v>
       </c>
     </row>
   </sheetData>
